--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Test.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="97">
   <si>
     <t>search_string</t>
   </si>
@@ -34,430 +34,277 @@
     <t>video_url</t>
   </si>
   <si>
-    <t>ik ga u in</t>
+    <t>en</t>
+  </si>
+  <si>
+    <t>dus</t>
+  </si>
+  <si>
+    <t>dacht</t>
   </si>
   <si>
     <t>ik</t>
   </si>
   <si>
+    <t>dat</t>
+  </si>
+  <si>
+    <t>je</t>
+  </si>
+  <si>
+    <t>weet</t>
+  </si>
+  <si>
+    <t>wat</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>en dus dacht ik dat je weet wat ik ga</t>
+  </si>
+  <si>
     <t>repeat</t>
   </si>
   <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
     <t>ik ga</t>
   </si>
   <si>
-    <t>ik u om uw</t>
-  </si>
-  <si>
-    <t>om</t>
-  </si>
-  <si>
-    <t>uw</t>
-  </si>
-  <si>
-    <t>ik u</t>
-  </si>
-  <si>
-    <t>u dat u de</t>
-  </si>
-  <si>
-    <t>dat</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>dat u</t>
-  </si>
-  <si>
-    <t>ik ga u de</t>
-  </si>
-  <si>
-    <t>hebben hem toen kunnen</t>
-  </si>
-  <si>
-    <t>hebben</t>
-  </si>
-  <si>
-    <t>hem</t>
-  </si>
-  <si>
-    <t>toen</t>
-  </si>
-  <si>
-    <t>kunnen</t>
-  </si>
-  <si>
-    <t>hebben hem</t>
-  </si>
-  <si>
-    <t>gewoon geen genoeg geld</t>
-  </si>
-  <si>
-    <t>gewoon</t>
-  </si>
-  <si>
-    <t>geen</t>
-  </si>
-  <si>
-    <t>genoeg</t>
-  </si>
-  <si>
-    <t>geld</t>
-  </si>
-  <si>
-    <t>genoeg geld</t>
-  </si>
-  <si>
-    <t>waar mensen door kunnen</t>
-  </si>
-  <si>
     <t>waar</t>
   </si>
   <si>
-    <t>mensen</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>mensen hebben echt geen</t>
-  </si>
-  <si>
-    <t>echt</t>
-  </si>
-  <si>
-    <t>niets anders gedaan moet</t>
-  </si>
-  <si>
-    <t>niets</t>
-  </si>
-  <si>
-    <t>ik ga u in drie stappen uitleggen hoe u de tec</t>
+    <t>ben</t>
+  </si>
+  <si>
+    <t>zou</t>
+  </si>
+  <si>
+    <t>mijn</t>
+  </si>
+  <si>
+    <t>waar ik ben ik zou mijn</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>meer</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>heb</t>
+  </si>
+  <si>
+    <t>ik ben hem helemaal gewijd van dus ik weet het en ik weet het nu ja dat is je dan heb je natuurlijk</t>
+  </si>
+  <si>
+    <t>bakstenen app per jaar in nederland gemaakt worden dus niet de gevelbakstenen alleen strak naar dus</t>
+  </si>
+  <si>
+    <t>wel lang mee bezig dus ik dacht nou dat gaan we als eerste doen en buiten dat had ik laatst had ik de</t>
   </si>
   <si>
     <t>zo cool bang is ga ik naar het toilet even later kom ik terug er onstaat er kortsluiting in mijn</t>
   </si>
   <si>
+    <t>bijvoorbeeld dat zijn emailmarketing service heeft die naar</t>
+  </si>
+  <si>
+    <t>enbekijk of je dit soort bordjes in huis kunt hebben</t>
+  </si>
+  <si>
+    <t>pamfletten aan de muur die na al die jaren nog steeds na al die jaren door de vochtigheid eraan plakte weet je wel</t>
+  </si>
+  <si>
+    <t>nadenken wat moet ik gaan doen want als het nu nog niet lukt die heb lang de tijd gehad nu is</t>
+  </si>
+  <si>
+    <t>maar wat jullie zeggen en ga ik</t>
+  </si>
+  <si>
+    <t>dus ik heb een grote liefde voor het merk en dus dacht ik dat je weet wat ik ga</t>
+  </si>
+  <si>
     <t>repeat_again</t>
   </si>
   <si>
-    <t>maar wat jullie zeggen en ga ik</t>
-  </si>
-  <si>
-    <t>waarin we elkaar even de ruimte geven om ook de verschillen te laten zien en ik dank u</t>
-  </si>
-  <si>
-    <t>stuk van het imf pagina gaan met wetenschappelijke papers want of je moet in slaap willen vallen want</t>
-  </si>
-  <si>
     <t>ik ga alleen nog drie uur kijken en die voor mij ligt</t>
   </si>
   <si>
-    <t>adviseer ik u om uw telefoon erbij te</t>
-  </si>
-  <si>
-    <t>genomen om de zorg te doen ik ben gescheiden van mijn dochter op dit moment</t>
-  </si>
-  <si>
-    <t>en meld u ook aan voor de nieuwsbrief dan wordt u volledig op de hoogte gehouden over de vorderingen van uw wijk</t>
-  </si>
-  <si>
-    <t>burgemeester goed dames heren mag ik u uitnodigen te gaan staan aan het begin van deze</t>
-  </si>
-  <si>
-    <t>denkt u dat u de enige bent</t>
-  </si>
-  <si>
-    <t>bijvoorbeeld dat zijn emailmarketing service heeft die naar</t>
-  </si>
-  <si>
-    <t>want de wolf is in principe een luie jager en naar het blijkt blijft ze hier ook</t>
-  </si>
-  <si>
-    <t>ik kan mij voorstellen dat u dat zat wordt</t>
-  </si>
-  <si>
-    <t>ik ga u de volgende keer weer zien</t>
-  </si>
-  <si>
-    <t>gekomen en kwam de molen buiten werking mijn ouders hebben hem toen kunnen huren en later</t>
-  </si>
-  <si>
-    <t>we hebben die onder andere verworven om het bufferbekken en om het hele waterverhaal</t>
-  </si>
-  <si>
-    <t>waarom zij sowieso niet de mol zou zijn en die zou hij geven als ik hem een joker gaf</t>
-  </si>
-  <si>
-    <t>eigenlijk uitziet nou ja dat zegt dus iets over en dat was niet omdat we toen pas natuurlijk in</t>
-  </si>
-  <si>
-    <t>wauw we kunnen nu echt wel zeggen dat floor echt veel kan we hebben haar nu nederlands horen zingen spaans horen zingen en bij night wish horen zingen</t>
-  </si>
-  <si>
-    <t>even kiezen om elkaar woont en hebben hem te gaan van lange adem hebben en niet hard bij het om te</t>
-  </si>
-  <si>
-    <t>maar we krijgen gewoon geen genoeg geld</t>
-  </si>
-  <si>
-    <t>dat is denk ik gewoon niet reëel en het is ontzettend noodzakelijk dat er op dit</t>
-  </si>
-  <si>
-    <t>mogen vervreemden zonder toestemming van het stadsbestuur ze mogen dus geen bezit zomaar</t>
-  </si>
-  <si>
-    <t>dat weten ze niet weten ze dat over het algemeen niet goed genoeg</t>
-  </si>
-  <si>
-    <t>het is niet zo dat geld aan de bomen groeit</t>
-  </si>
-  <si>
-    <t>je moet én ervoor zorgen dat er genoeg geld is zodat je in staat bent om het testen vorm te geven</t>
-  </si>
-  <si>
-    <t>een abonneer button en drie videos waar mensen door kunnen klikken super handig</t>
-  </si>
-  <si>
     <t>of het idee waar je vanuit je geloof bijvoorbeeld vindt dat je voor moet zorgen</t>
   </si>
   <si>
-    <t>ik vraag eerst wat mensen zelf gedaan hebben aan een klacht bijvoorbeeld</t>
-  </si>
-  <si>
-    <t>deze wordt door de andere minister gekozen voor een termijn van</t>
-  </si>
-  <si>
-    <t>van ons want mensen hebben echt geen idee wat het betekent als je een verhoogd</t>
-  </si>
-  <si>
-    <t>beetje maar dan in het echt ja en joey ja het is een beetje apart verhaal die hebben we eigenlijk</t>
-  </si>
-  <si>
-    <t>ik heb echter niets anders gedaan moet geluk zijn geweest</t>
-  </si>
-  <si>
-    <t>niet technische eisen zijn dus dat heeft dan niets te maken met de norm maar</t>
-  </si>
-  <si>
-    <t>VLM6zkuzvt0</t>
+    <t>de belangrijkste die je uiteindelijk doet ben jij succesvol give something back</t>
+  </si>
+  <si>
+    <t>je zou denken dat ik door de en ow degeling van de overheid alleen maar wordt versterkt dus dat</t>
+  </si>
+  <si>
+    <t>ok nadat mijn ouders zich verder zijn gaan specialiseren hebben</t>
+  </si>
+  <si>
+    <t>waar ik ben ik zou mijn fiets moeten en ik ga ze vragen</t>
+  </si>
+  <si>
+    <t>verklaringen worden opgesteld die voldoen aan eisen die zijn vastgelegd in</t>
+  </si>
+  <si>
+    <t>overigens al dat el salvador</t>
+  </si>
+  <si>
+    <t>naar en toen op de begroting niet meer</t>
+  </si>
+  <si>
+    <t>stel dat het toegangstesten eigenlijk voor de gewone restauranteigenaar al niet meer zo nodig is dat het</t>
+  </si>
+  <si>
+    <t>er wordt dan gerekend met aanbod gestuurde energie dus wat er toevallig is</t>
+  </si>
+  <si>
+    <t>al deze fotolijstjes heb ik voor een paar cent bij de kringloop gekocht</t>
+  </si>
+  <si>
+    <t>wmaUIif5ifM</t>
+  </si>
+  <si>
+    <t>nt5R2jwtxx4</t>
+  </si>
+  <si>
+    <t>zbmcJiZ5fno</t>
   </si>
   <si>
     <t>fK39cuorTzE</t>
   </si>
   <si>
-    <t>cElhIDdGz7M</t>
+    <t>loL9z89lf28</t>
+  </si>
+  <si>
+    <t>lO7BdU_5RR8</t>
+  </si>
+  <si>
+    <t>XU6Ly4feqCM</t>
+  </si>
+  <si>
+    <t>Ewyhf2C7Z50</t>
   </si>
   <si>
     <t>F0uYZ4uI47w</t>
   </si>
   <si>
-    <t>uJhEbO42qRo</t>
-  </si>
-  <si>
-    <t>P2rFpOB6ZKI</t>
+    <t>BoaYsdPtJYA</t>
+  </si>
+  <si>
+    <t>Q-8I-uMUMYA</t>
   </si>
   <si>
     <t>WlJ12LESGP0</t>
   </si>
   <si>
-    <t>wXPMglvtwJE</t>
-  </si>
-  <si>
-    <t>a4TDV_IDUMM</t>
-  </si>
-  <si>
-    <t>6b2CjjmooDA</t>
-  </si>
-  <si>
-    <t>flv8b2UzJaY</t>
-  </si>
-  <si>
-    <t>loL9z89lf28</t>
-  </si>
-  <si>
-    <t>s_MPfmMt7Rw</t>
-  </si>
-  <si>
-    <t>ZNmu2g6lyC4</t>
-  </si>
-  <si>
-    <t>NGL5pzrcRKI</t>
-  </si>
-  <si>
-    <t>0rYa2WvEAEo</t>
-  </si>
-  <si>
-    <t>JqSppQf6wMU</t>
-  </si>
-  <si>
-    <t>vnbjQq2DZpg</t>
-  </si>
-  <si>
-    <t>MNCyjl4jaxY</t>
-  </si>
-  <si>
-    <t>XhcjYIknnfA</t>
-  </si>
-  <si>
-    <t>6QhQ4GVUhmI</t>
-  </si>
-  <si>
-    <t>UvDi1HCeLpc</t>
-  </si>
-  <si>
-    <t>2Ckh4LjX38g</t>
-  </si>
-  <si>
-    <t>gK0_yZDGIgw</t>
-  </si>
-  <si>
-    <t>MAIVQd4EF20</t>
+    <t>biKaNGgB3H8</t>
+  </si>
+  <si>
+    <t>robgEk58nx4</t>
+  </si>
+  <si>
+    <t>PPEVhlDaJlg</t>
+  </si>
+  <si>
+    <t>1ynvcN8RuFQ</t>
+  </si>
+  <si>
+    <t>qMRttHiPiLs</t>
+  </si>
+  <si>
+    <t>jjPzTzlWQE0</t>
+  </si>
+  <si>
+    <t>R4Q1cNbNKU0</t>
   </si>
   <si>
     <t>9uOFhXkzEQQ</t>
   </si>
   <si>
-    <t>JSDirXX40cU</t>
-  </si>
-  <si>
-    <t>biKaNGgB3H8</t>
-  </si>
-  <si>
-    <t>BzY7jtXJgm4</t>
-  </si>
-  <si>
-    <t>zlwWA9dFD1A</t>
-  </si>
-  <si>
-    <t>PltmSE2Gjvg</t>
-  </si>
-  <si>
-    <t>yA_oTmUyBY8</t>
-  </si>
-  <si>
-    <t>4YSldeXmuXw</t>
-  </si>
-  <si>
-    <t>qMRttHiPiLs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VLM6zkuzvt0&amp;t=30s</t>
+    <t>ffFz9TaVIuY</t>
+  </si>
+  <si>
+    <t>JYKbPslmXek</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wmaUIif5ifM&amp;t=2063s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nt5R2jwtxx4&amp;t=171s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zbmcJiZ5fno&amp;t=161s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fK39cuorTzE&amp;t=310s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=cElhIDdGz7M&amp;t=0s</t>
+    <t>https://www.youtube.com/watch?v=loL9z89lf28&amp;t=707s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lO7BdU_5RR8&amp;t=219s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XU6Ly4feqCM&amp;t=160s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ewyhf2C7Z50&amp;t=835s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=F0uYZ4uI47w&amp;t=3497s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=uJhEbO42qRo&amp;t=13876s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P2rFpOB6ZKI&amp;t=3592s</t>
+    <t>https://www.youtube.com/watch?v=BoaYsdPtJYA&amp;t=111s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q-8I-uMUMYA&amp;t=0s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=WlJ12LESGP0&amp;t=888s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=F0uYZ4uI47w&amp;t=66s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wXPMglvtwJE&amp;t=327s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a4TDV_IDUMM&amp;t=159s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6b2CjjmooDA&amp;t=106s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=flv8b2UzJaY&amp;t=292s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=loL9z89lf28&amp;t=707s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s_MPfmMt7Rw&amp;t=202s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZNmu2g6lyC4&amp;t=4s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NGL5pzrcRKI&amp;t=242s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0rYa2WvEAEo&amp;t=51s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JqSppQf6wMU&amp;t=168s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vnbjQq2DZpg&amp;t=2498s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MNCyjl4jaxY&amp;t=3613s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XhcjYIknnfA&amp;t=1359s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6QhQ4GVUhmI&amp;t=426s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UvDi1HCeLpc&amp;t=129s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2Ckh4LjX38g&amp;t=5180s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gK0_yZDGIgw&amp;t=449s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MAIVQd4EF20&amp;t=382s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=20969s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=16195s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JSDirXX40cU&amp;t=145s</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=biKaNGgB3H8&amp;t=3720s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=BzY7jtXJgm4&amp;t=32s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zlwWA9dFD1A&amp;t=33s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PltmSE2Gjvg&amp;t=298s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yA_oTmUyBY8&amp;t=47s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4YSldeXmuXw&amp;t=460s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qMRttHiPiLs&amp;t=2248s</t>
+    <t>https://www.youtube.com/watch?v=robgEk58nx4&amp;t=2745s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PPEVhlDaJlg&amp;t=266s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1ynvcN8RuFQ&amp;t=314s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BoaYsdPtJYA&amp;t=116s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qMRttHiPiLs&amp;t=672s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jjPzTzlWQE0&amp;t=515s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R4Q1cNbNKU0&amp;t=6985s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=20891s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ffFz9TaVIuY&amp;t=99s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JYKbPslmXek&amp;t=148s</t>
   </si>
 </sst>
 </file>
@@ -828,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,19 +706,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>2063</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>2064</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -879,19 +726,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>2063</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>2064</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -899,239 +746,239 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>2063</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>2064</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>2063</v>
       </c>
       <c r="C5">
-        <v>311</v>
+        <v>2064</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2063</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>2064</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3497</v>
+        <v>2063</v>
       </c>
       <c r="C7">
-        <v>3499</v>
+        <v>2064</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2063</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>2064</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>13876</v>
+        <v>171</v>
       </c>
       <c r="C9">
-        <v>13877</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>3592</v>
+        <v>171</v>
       </c>
       <c r="C11">
-        <v>3593</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>888</v>
+        <v>171</v>
       </c>
       <c r="C13">
-        <v>889</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15">
+        <v>171</v>
+      </c>
+      <c r="C15">
+        <v>172</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="C15">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1139,99 +986,99 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="C17">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="C19">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>310</v>
+        <v>161</v>
       </c>
       <c r="C20">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1239,279 +1086,279 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>13876</v>
+        <v>161</v>
       </c>
       <c r="C22">
-        <v>13877</v>
+        <v>163</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C24">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="C26">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="C28">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>66</v>
+        <v>707</v>
       </c>
       <c r="C30">
-        <v>68</v>
+        <v>709</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>707</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>709</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>292</v>
+        <v>707</v>
       </c>
       <c r="C32">
-        <v>294</v>
+        <v>709</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>292</v>
+        <v>707</v>
       </c>
       <c r="C33">
-        <v>294</v>
+        <v>709</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>292</v>
+        <v>707</v>
       </c>
       <c r="C34">
-        <v>294</v>
+        <v>709</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1519,824 +1366,824 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>13876</v>
+        <v>707</v>
       </c>
       <c r="C35">
-        <v>13877</v>
+        <v>709</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>707</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>709</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>707</v>
+        <v>219</v>
       </c>
       <c r="C37">
-        <v>709</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>13876</v>
+        <v>219</v>
       </c>
       <c r="C39">
-        <v>13877</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C41">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="C45">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="C47">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="C48">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="C49">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="C50">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>836</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>3497</v>
+        <v>835</v>
       </c>
       <c r="C52">
-        <v>3499</v>
+        <v>836</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>836</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>13876</v>
+        <v>835</v>
       </c>
       <c r="C54">
-        <v>13877</v>
+        <v>836</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>836</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>202</v>
+        <v>835</v>
       </c>
       <c r="C56">
-        <v>203</v>
+        <v>836</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>836</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <v>888</v>
+        <v>310</v>
       </c>
       <c r="C58">
-        <v>889</v>
+        <v>311</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="C60">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>51</v>
+        <v>310</v>
       </c>
       <c r="C62">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>51</v>
+        <v>310</v>
       </c>
       <c r="C63">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>51</v>
+        <v>310</v>
       </c>
       <c r="C64">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>168</v>
+        <v>3497</v>
       </c>
       <c r="C65">
-        <v>169</v>
+        <v>3499</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>3497</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>3499</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>2498</v>
+        <v>3497</v>
       </c>
       <c r="C67">
-        <v>2499</v>
+        <v>3499</v>
       </c>
       <c r="D67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" t="s">
         <v>60</v>
       </c>
-      <c r="E67" t="s">
-        <v>95</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>3497</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>3499</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>3613</v>
+        <v>3497</v>
       </c>
       <c r="C69">
-        <v>3614</v>
+        <v>3499</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E69" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>3497</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>3499</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>1359</v>
+        <v>3497</v>
       </c>
       <c r="C71">
-        <v>1361</v>
+        <v>3499</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E72" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>426</v>
+        <v>111</v>
       </c>
       <c r="C73">
-        <v>428</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C74">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B75">
-        <v>51</v>
+        <v>2063</v>
       </c>
       <c r="C75">
-        <v>53</v>
+        <v>2064</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -2345,398 +2192,398 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B77">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C77">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B78">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="C78">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B79">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C79">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B80">
-        <v>5180</v>
+        <v>5</v>
       </c>
       <c r="C80">
-        <v>5182</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="D81" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B82">
-        <v>449</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>451</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E82" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>707</v>
       </c>
       <c r="C83">
-        <v>9</v>
+        <v>709</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B84">
-        <v>382</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>384</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E84" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="D85" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B86">
-        <v>20969</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>20971</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B88">
-        <v>16195</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>16198</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <v>836</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B90">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E91" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B92">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B93">
-        <v>145</v>
+        <v>3497</v>
       </c>
       <c r="C93">
-        <v>148</v>
+        <v>3499</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B94">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B95">
-        <v>3720</v>
+        <v>888</v>
       </c>
       <c r="C95">
-        <v>3721</v>
+        <v>889</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E95" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -2745,38 +2592,38 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E96" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B97">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C97">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -2785,473 +2632,2073 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B99">
-        <v>33</v>
+        <v>3720</v>
       </c>
       <c r="C99">
-        <v>35</v>
+        <v>3721</v>
       </c>
       <c r="D99" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>3720</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>3721</v>
       </c>
       <c r="D100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B101">
-        <v>1359</v>
+        <v>3720</v>
       </c>
       <c r="C101">
-        <v>1361</v>
+        <v>3721</v>
       </c>
       <c r="D101" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E101" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>3720</v>
       </c>
       <c r="C102">
-        <v>9</v>
+        <v>3721</v>
       </c>
       <c r="D102" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B103">
-        <v>145</v>
+        <v>3720</v>
       </c>
       <c r="C103">
-        <v>148</v>
+        <v>3721</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>3720</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>3721</v>
       </c>
       <c r="D104" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E104" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B105">
-        <v>298</v>
+        <v>3720</v>
       </c>
       <c r="C105">
-        <v>301</v>
+        <v>3721</v>
       </c>
       <c r="D105" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E105" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B106">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C106">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D106" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B107">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C107">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D107" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B108">
+        <v>310</v>
+      </c>
+      <c r="C108">
+        <v>311</v>
+      </c>
+      <c r="D108" t="s">
         <v>32</v>
       </c>
-      <c r="C108">
-        <v>34</v>
-      </c>
-      <c r="D108" t="s">
-        <v>72</v>
-      </c>
       <c r="E108" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="D109" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E109" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B110">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="C110">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="D110" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E110" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C111">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="D111" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E111" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B112">
-        <v>47</v>
+        <v>310</v>
       </c>
       <c r="C112">
-        <v>49</v>
+        <v>311</v>
       </c>
       <c r="D112" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E112" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>2745</v>
       </c>
       <c r="C113">
-        <v>9</v>
+        <v>2746</v>
       </c>
       <c r="D113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E113" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B114">
-        <v>449</v>
+        <v>2745</v>
       </c>
       <c r="C114">
-        <v>451</v>
+        <v>2746</v>
       </c>
       <c r="D114" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E114" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>2745</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>2746</v>
       </c>
       <c r="D115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E115" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B116">
-        <v>298</v>
+        <v>2745</v>
       </c>
       <c r="C116">
-        <v>301</v>
+        <v>2746</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E116" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>2745</v>
       </c>
       <c r="C117">
-        <v>9</v>
+        <v>2746</v>
       </c>
       <c r="D117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E117" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B118">
-        <v>460</v>
+        <v>2745</v>
       </c>
       <c r="C118">
-        <v>462</v>
+        <v>2746</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E118" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B119">
-        <v>460</v>
+        <v>2745</v>
       </c>
       <c r="C119">
-        <v>462</v>
+        <v>2746</v>
       </c>
       <c r="D119" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E119" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B120">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="C120">
-        <v>462</v>
+        <v>311</v>
       </c>
       <c r="D120" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E120" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121">
+        <v>310</v>
+      </c>
+      <c r="C121">
+        <v>311</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>310</v>
+      </c>
+      <c r="C122">
+        <v>311</v>
+      </c>
+      <c r="D122" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>310</v>
+      </c>
+      <c r="C123">
+        <v>311</v>
+      </c>
+      <c r="D123" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" t="s">
+        <v>55</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>310</v>
+      </c>
+      <c r="C124">
+        <v>311</v>
+      </c>
+      <c r="D124" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" t="s">
+        <v>55</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125">
+        <v>310</v>
+      </c>
+      <c r="C125">
+        <v>311</v>
+      </c>
+      <c r="D125" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" t="s">
+        <v>55</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126">
+        <v>310</v>
+      </c>
+      <c r="C126">
+        <v>311</v>
+      </c>
+      <c r="D126" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" t="s">
+        <v>55</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127">
+        <v>266</v>
+      </c>
+      <c r="C127">
+        <v>268</v>
+      </c>
+      <c r="D127" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" t="s">
+        <v>66</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128">
+        <v>266</v>
+      </c>
+      <c r="C128">
+        <v>268</v>
+      </c>
+      <c r="D128" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" t="s">
+        <v>66</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129">
+        <v>266</v>
+      </c>
+      <c r="C129">
+        <v>268</v>
+      </c>
+      <c r="D129" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" t="s">
+        <v>66</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130">
+        <v>266</v>
+      </c>
+      <c r="C130">
+        <v>268</v>
+      </c>
+      <c r="D130" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130" t="s">
+        <v>66</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131">
+        <v>266</v>
+      </c>
+      <c r="C131">
+        <v>268</v>
+      </c>
+      <c r="D131" t="s">
+        <v>43</v>
+      </c>
+      <c r="E131" t="s">
+        <v>66</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132">
+        <v>266</v>
+      </c>
+      <c r="C132">
+        <v>268</v>
+      </c>
+      <c r="D132" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" t="s">
+        <v>66</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133">
+        <v>266</v>
+      </c>
+      <c r="C133">
+        <v>268</v>
+      </c>
+      <c r="D133" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134">
+        <v>314</v>
+      </c>
+      <c r="C134">
+        <v>315</v>
+      </c>
+      <c r="D134" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" t="s">
+        <v>67</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135">
+        <v>314</v>
+      </c>
+      <c r="C135">
+        <v>315</v>
+      </c>
+      <c r="D135" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" t="s">
+        <v>67</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136">
+        <v>314</v>
+      </c>
+      <c r="C136">
+        <v>315</v>
+      </c>
+      <c r="D136" t="s">
+        <v>44</v>
+      </c>
+      <c r="E136" t="s">
+        <v>67</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137">
+        <v>314</v>
+      </c>
+      <c r="C137">
+        <v>315</v>
+      </c>
+      <c r="D137" t="s">
+        <v>44</v>
+      </c>
+      <c r="E137" t="s">
+        <v>67</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138">
+        <v>314</v>
+      </c>
+      <c r="C138">
+        <v>315</v>
+      </c>
+      <c r="D138" t="s">
+        <v>44</v>
+      </c>
+      <c r="E138" t="s">
+        <v>67</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139">
+        <v>314</v>
+      </c>
+      <c r="C139">
+        <v>315</v>
+      </c>
+      <c r="D139" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" t="s">
+        <v>67</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140">
+        <v>314</v>
+      </c>
+      <c r="C140">
+        <v>315</v>
+      </c>
+      <c r="D140" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" t="s">
+        <v>67</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141">
+        <v>116</v>
+      </c>
+      <c r="C141">
+        <v>118</v>
+      </c>
+      <c r="D141" t="s">
+        <v>45</v>
+      </c>
+      <c r="E141" t="s">
+        <v>61</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>22</v>
+      </c>
+      <c r="B142">
+        <v>116</v>
+      </c>
+      <c r="C142">
+        <v>118</v>
+      </c>
+      <c r="D142" t="s">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>61</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B143">
+        <v>116</v>
+      </c>
+      <c r="C143">
+        <v>118</v>
+      </c>
+      <c r="D143" t="s">
+        <v>45</v>
+      </c>
+      <c r="E143" t="s">
+        <v>61</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144">
+        <v>3720</v>
+      </c>
+      <c r="C144">
+        <v>3721</v>
+      </c>
+      <c r="D144" t="s">
         <v>41</v>
       </c>
-      <c r="B121">
-        <v>2248</v>
-      </c>
-      <c r="C121">
-        <v>2250</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="E144" t="s">
+        <v>64</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>39</v>
+      </c>
+      <c r="E145" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146">
+        <v>310</v>
+      </c>
+      <c r="C146">
+        <v>311</v>
+      </c>
+      <c r="D146" t="s">
+        <v>32</v>
+      </c>
+      <c r="E146" t="s">
+        <v>55</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E121" t="s">
-        <v>111</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>147</v>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" t="s">
+        <v>62</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148">
+        <v>2745</v>
+      </c>
+      <c r="C148">
+        <v>2746</v>
+      </c>
+      <c r="D148" t="s">
+        <v>42</v>
+      </c>
+      <c r="E148" t="s">
+        <v>65</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>9</v>
+      </c>
+      <c r="D149" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" t="s">
+        <v>62</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150">
+        <v>310</v>
+      </c>
+      <c r="C150">
+        <v>311</v>
+      </c>
+      <c r="D150" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" t="s">
+        <v>55</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" t="s">
+        <v>62</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152">
+        <v>266</v>
+      </c>
+      <c r="C152">
+        <v>268</v>
+      </c>
+      <c r="D152" t="s">
+        <v>43</v>
+      </c>
+      <c r="E152" t="s">
+        <v>66</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" t="s">
+        <v>62</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154">
+        <v>314</v>
+      </c>
+      <c r="C154">
+        <v>315</v>
+      </c>
+      <c r="D154" t="s">
+        <v>44</v>
+      </c>
+      <c r="E154" t="s">
+        <v>67</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" t="s">
+        <v>62</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156">
+        <v>116</v>
+      </c>
+      <c r="C156">
+        <v>118</v>
+      </c>
+      <c r="D156" t="s">
+        <v>45</v>
+      </c>
+      <c r="E156" t="s">
+        <v>61</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>39</v>
+      </c>
+      <c r="E157" t="s">
+        <v>62</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158">
+        <v>672</v>
+      </c>
+      <c r="C158">
+        <v>674</v>
+      </c>
+      <c r="D158" t="s">
+        <v>46</v>
+      </c>
+      <c r="E158" t="s">
+        <v>68</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159">
+        <v>672</v>
+      </c>
+      <c r="C159">
+        <v>674</v>
+      </c>
+      <c r="D159" t="s">
+        <v>46</v>
+      </c>
+      <c r="E159" t="s">
+        <v>68</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160">
+        <v>672</v>
+      </c>
+      <c r="C160">
+        <v>674</v>
+      </c>
+      <c r="D160" t="s">
+        <v>46</v>
+      </c>
+      <c r="E160" t="s">
+        <v>68</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161">
+        <v>672</v>
+      </c>
+      <c r="C161">
+        <v>674</v>
+      </c>
+      <c r="D161" t="s">
+        <v>46</v>
+      </c>
+      <c r="E161" t="s">
+        <v>68</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162">
+        <v>672</v>
+      </c>
+      <c r="C162">
+        <v>674</v>
+      </c>
+      <c r="D162" t="s">
+        <v>46</v>
+      </c>
+      <c r="E162" t="s">
+        <v>68</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163">
+        <v>672</v>
+      </c>
+      <c r="C163">
+        <v>674</v>
+      </c>
+      <c r="D163" t="s">
+        <v>46</v>
+      </c>
+      <c r="E163" t="s">
+        <v>68</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164">
+        <v>672</v>
+      </c>
+      <c r="C164">
+        <v>674</v>
+      </c>
+      <c r="D164" t="s">
+        <v>46</v>
+      </c>
+      <c r="E164" t="s">
+        <v>68</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165">
+        <v>515</v>
+      </c>
+      <c r="C165">
+        <v>517</v>
+      </c>
+      <c r="D165" t="s">
+        <v>47</v>
+      </c>
+      <c r="E165" t="s">
+        <v>69</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166">
+        <v>515</v>
+      </c>
+      <c r="C166">
+        <v>517</v>
+      </c>
+      <c r="D166" t="s">
+        <v>47</v>
+      </c>
+      <c r="E166" t="s">
+        <v>69</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167">
+        <v>515</v>
+      </c>
+      <c r="C167">
+        <v>517</v>
+      </c>
+      <c r="D167" t="s">
+        <v>47</v>
+      </c>
+      <c r="E167" t="s">
+        <v>69</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168">
+        <v>515</v>
+      </c>
+      <c r="C168">
+        <v>517</v>
+      </c>
+      <c r="D168" t="s">
+        <v>47</v>
+      </c>
+      <c r="E168" t="s">
+        <v>69</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169">
+        <v>515</v>
+      </c>
+      <c r="C169">
+        <v>517</v>
+      </c>
+      <c r="D169" t="s">
+        <v>47</v>
+      </c>
+      <c r="E169" t="s">
+        <v>69</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170">
+        <v>515</v>
+      </c>
+      <c r="C170">
+        <v>517</v>
+      </c>
+      <c r="D170" t="s">
+        <v>47</v>
+      </c>
+      <c r="E170" t="s">
+        <v>69</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171">
+        <v>515</v>
+      </c>
+      <c r="C171">
+        <v>517</v>
+      </c>
+      <c r="D171" t="s">
+        <v>47</v>
+      </c>
+      <c r="E171" t="s">
+        <v>69</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B172">
+        <v>6985</v>
+      </c>
+      <c r="C172">
+        <v>6986</v>
+      </c>
+      <c r="D172" t="s">
+        <v>48</v>
+      </c>
+      <c r="E172" t="s">
+        <v>70</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>25</v>
+      </c>
+      <c r="B173">
+        <v>6985</v>
+      </c>
+      <c r="C173">
+        <v>6986</v>
+      </c>
+      <c r="D173" t="s">
+        <v>48</v>
+      </c>
+      <c r="E173" t="s">
+        <v>70</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174">
+        <v>6985</v>
+      </c>
+      <c r="C174">
+        <v>6986</v>
+      </c>
+      <c r="D174" t="s">
+        <v>48</v>
+      </c>
+      <c r="E174" t="s">
+        <v>70</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>25</v>
+      </c>
+      <c r="B175">
+        <v>6985</v>
+      </c>
+      <c r="C175">
+        <v>6986</v>
+      </c>
+      <c r="D175" t="s">
+        <v>48</v>
+      </c>
+      <c r="E175" t="s">
+        <v>70</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>25</v>
+      </c>
+      <c r="B176">
+        <v>6985</v>
+      </c>
+      <c r="C176">
+        <v>6986</v>
+      </c>
+      <c r="D176" t="s">
+        <v>48</v>
+      </c>
+      <c r="E176" t="s">
+        <v>70</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177">
+        <v>6985</v>
+      </c>
+      <c r="C177">
+        <v>6986</v>
+      </c>
+      <c r="D177" t="s">
+        <v>48</v>
+      </c>
+      <c r="E177" t="s">
+        <v>70</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178">
+        <v>6985</v>
+      </c>
+      <c r="C178">
+        <v>6986</v>
+      </c>
+      <c r="D178" t="s">
+        <v>48</v>
+      </c>
+      <c r="E178" t="s">
+        <v>70</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>26</v>
+      </c>
+      <c r="B179">
+        <v>20891</v>
+      </c>
+      <c r="C179">
+        <v>20892</v>
+      </c>
+      <c r="D179" t="s">
+        <v>49</v>
+      </c>
+      <c r="E179" t="s">
+        <v>71</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>26</v>
+      </c>
+      <c r="B180">
+        <v>20891</v>
+      </c>
+      <c r="C180">
+        <v>20892</v>
+      </c>
+      <c r="D180" t="s">
+        <v>49</v>
+      </c>
+      <c r="E180" t="s">
+        <v>71</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>26</v>
+      </c>
+      <c r="B181">
+        <v>20891</v>
+      </c>
+      <c r="C181">
+        <v>20892</v>
+      </c>
+      <c r="D181" t="s">
+        <v>49</v>
+      </c>
+      <c r="E181" t="s">
+        <v>71</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>26</v>
+      </c>
+      <c r="B182">
+        <v>20891</v>
+      </c>
+      <c r="C182">
+        <v>20892</v>
+      </c>
+      <c r="D182" t="s">
+        <v>49</v>
+      </c>
+      <c r="E182" t="s">
+        <v>71</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>26</v>
+      </c>
+      <c r="B183">
+        <v>20891</v>
+      </c>
+      <c r="C183">
+        <v>20892</v>
+      </c>
+      <c r="D183" t="s">
+        <v>49</v>
+      </c>
+      <c r="E183" t="s">
+        <v>71</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>26</v>
+      </c>
+      <c r="B184">
+        <v>20891</v>
+      </c>
+      <c r="C184">
+        <v>20892</v>
+      </c>
+      <c r="D184" t="s">
+        <v>49</v>
+      </c>
+      <c r="E184" t="s">
+        <v>71</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>26</v>
+      </c>
+      <c r="B185">
+        <v>20891</v>
+      </c>
+      <c r="C185">
+        <v>20892</v>
+      </c>
+      <c r="D185" t="s">
+        <v>49</v>
+      </c>
+      <c r="E185" t="s">
+        <v>71</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186">
+        <v>99</v>
+      </c>
+      <c r="C186">
+        <v>101</v>
+      </c>
+      <c r="D186" t="s">
+        <v>50</v>
+      </c>
+      <c r="E186" t="s">
+        <v>72</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187">
+        <v>99</v>
+      </c>
+      <c r="C187">
+        <v>101</v>
+      </c>
+      <c r="D187" t="s">
+        <v>50</v>
+      </c>
+      <c r="E187" t="s">
+        <v>72</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188">
+        <v>99</v>
+      </c>
+      <c r="C188">
+        <v>101</v>
+      </c>
+      <c r="D188" t="s">
+        <v>50</v>
+      </c>
+      <c r="E188" t="s">
+        <v>72</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189">
+        <v>99</v>
+      </c>
+      <c r="C189">
+        <v>101</v>
+      </c>
+      <c r="D189" t="s">
+        <v>50</v>
+      </c>
+      <c r="E189" t="s">
+        <v>72</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190">
+        <v>99</v>
+      </c>
+      <c r="C190">
+        <v>101</v>
+      </c>
+      <c r="D190" t="s">
+        <v>50</v>
+      </c>
+      <c r="E190" t="s">
+        <v>72</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191">
+        <v>99</v>
+      </c>
+      <c r="C191">
+        <v>101</v>
+      </c>
+      <c r="D191" t="s">
+        <v>50</v>
+      </c>
+      <c r="E191" t="s">
+        <v>72</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192">
+        <v>99</v>
+      </c>
+      <c r="C192">
+        <v>101</v>
+      </c>
+      <c r="D192" t="s">
+        <v>50</v>
+      </c>
+      <c r="E192" t="s">
+        <v>72</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193">
+        <v>310</v>
+      </c>
+      <c r="C193">
+        <v>311</v>
+      </c>
+      <c r="D193" t="s">
+        <v>32</v>
+      </c>
+      <c r="E193" t="s">
+        <v>55</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194">
+        <v>310</v>
+      </c>
+      <c r="C194">
+        <v>311</v>
+      </c>
+      <c r="D194" t="s">
+        <v>32</v>
+      </c>
+      <c r="E194" t="s">
+        <v>55</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195">
+        <v>310</v>
+      </c>
+      <c r="C195">
+        <v>311</v>
+      </c>
+      <c r="D195" t="s">
+        <v>32</v>
+      </c>
+      <c r="E195" t="s">
+        <v>55</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196">
+        <v>310</v>
+      </c>
+      <c r="C196">
+        <v>311</v>
+      </c>
+      <c r="D196" t="s">
+        <v>32</v>
+      </c>
+      <c r="E196" t="s">
+        <v>55</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197">
+        <v>310</v>
+      </c>
+      <c r="C197">
+        <v>311</v>
+      </c>
+      <c r="D197" t="s">
+        <v>32</v>
+      </c>
+      <c r="E197" t="s">
+        <v>55</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198">
+        <v>310</v>
+      </c>
+      <c r="C198">
+        <v>311</v>
+      </c>
+      <c r="D198" t="s">
+        <v>32</v>
+      </c>
+      <c r="E198" t="s">
+        <v>55</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199">
+        <v>310</v>
+      </c>
+      <c r="C199">
+        <v>311</v>
+      </c>
+      <c r="D199" t="s">
+        <v>32</v>
+      </c>
+      <c r="E199" t="s">
+        <v>55</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200">
+        <v>148</v>
+      </c>
+      <c r="C200">
+        <v>149</v>
+      </c>
+      <c r="D200" t="s">
+        <v>51</v>
+      </c>
+      <c r="E200" t="s">
+        <v>73</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>28</v>
+      </c>
+      <c r="B201">
+        <v>148</v>
+      </c>
+      <c r="C201">
+        <v>149</v>
+      </c>
+      <c r="D201" t="s">
+        <v>51</v>
+      </c>
+      <c r="E201" t="s">
+        <v>73</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3376,6 +4823,86 @@
     <hyperlink ref="F119" r:id="rId118"/>
     <hyperlink ref="F120" r:id="rId119"/>
     <hyperlink ref="F121" r:id="rId120"/>
+    <hyperlink ref="F122" r:id="rId121"/>
+    <hyperlink ref="F123" r:id="rId122"/>
+    <hyperlink ref="F124" r:id="rId123"/>
+    <hyperlink ref="F125" r:id="rId124"/>
+    <hyperlink ref="F126" r:id="rId125"/>
+    <hyperlink ref="F127" r:id="rId126"/>
+    <hyperlink ref="F128" r:id="rId127"/>
+    <hyperlink ref="F129" r:id="rId128"/>
+    <hyperlink ref="F130" r:id="rId129"/>
+    <hyperlink ref="F131" r:id="rId130"/>
+    <hyperlink ref="F132" r:id="rId131"/>
+    <hyperlink ref="F133" r:id="rId132"/>
+    <hyperlink ref="F134" r:id="rId133"/>
+    <hyperlink ref="F135" r:id="rId134"/>
+    <hyperlink ref="F136" r:id="rId135"/>
+    <hyperlink ref="F137" r:id="rId136"/>
+    <hyperlink ref="F138" r:id="rId137"/>
+    <hyperlink ref="F139" r:id="rId138"/>
+    <hyperlink ref="F140" r:id="rId139"/>
+    <hyperlink ref="F141" r:id="rId140"/>
+    <hyperlink ref="F142" r:id="rId141"/>
+    <hyperlink ref="F143" r:id="rId142"/>
+    <hyperlink ref="F144" r:id="rId143"/>
+    <hyperlink ref="F145" r:id="rId144"/>
+    <hyperlink ref="F146" r:id="rId145"/>
+    <hyperlink ref="F147" r:id="rId146"/>
+    <hyperlink ref="F148" r:id="rId147"/>
+    <hyperlink ref="F149" r:id="rId148"/>
+    <hyperlink ref="F150" r:id="rId149"/>
+    <hyperlink ref="F151" r:id="rId150"/>
+    <hyperlink ref="F152" r:id="rId151"/>
+    <hyperlink ref="F153" r:id="rId152"/>
+    <hyperlink ref="F154" r:id="rId153"/>
+    <hyperlink ref="F155" r:id="rId154"/>
+    <hyperlink ref="F156" r:id="rId155"/>
+    <hyperlink ref="F157" r:id="rId156"/>
+    <hyperlink ref="F158" r:id="rId157"/>
+    <hyperlink ref="F159" r:id="rId158"/>
+    <hyperlink ref="F160" r:id="rId159"/>
+    <hyperlink ref="F161" r:id="rId160"/>
+    <hyperlink ref="F162" r:id="rId161"/>
+    <hyperlink ref="F163" r:id="rId162"/>
+    <hyperlink ref="F164" r:id="rId163"/>
+    <hyperlink ref="F165" r:id="rId164"/>
+    <hyperlink ref="F166" r:id="rId165"/>
+    <hyperlink ref="F167" r:id="rId166"/>
+    <hyperlink ref="F168" r:id="rId167"/>
+    <hyperlink ref="F169" r:id="rId168"/>
+    <hyperlink ref="F170" r:id="rId169"/>
+    <hyperlink ref="F171" r:id="rId170"/>
+    <hyperlink ref="F172" r:id="rId171"/>
+    <hyperlink ref="F173" r:id="rId172"/>
+    <hyperlink ref="F174" r:id="rId173"/>
+    <hyperlink ref="F175" r:id="rId174"/>
+    <hyperlink ref="F176" r:id="rId175"/>
+    <hyperlink ref="F177" r:id="rId176"/>
+    <hyperlink ref="F178" r:id="rId177"/>
+    <hyperlink ref="F179" r:id="rId178"/>
+    <hyperlink ref="F180" r:id="rId179"/>
+    <hyperlink ref="F181" r:id="rId180"/>
+    <hyperlink ref="F182" r:id="rId181"/>
+    <hyperlink ref="F183" r:id="rId182"/>
+    <hyperlink ref="F184" r:id="rId183"/>
+    <hyperlink ref="F185" r:id="rId184"/>
+    <hyperlink ref="F186" r:id="rId185"/>
+    <hyperlink ref="F187" r:id="rId186"/>
+    <hyperlink ref="F188" r:id="rId187"/>
+    <hyperlink ref="F189" r:id="rId188"/>
+    <hyperlink ref="F190" r:id="rId189"/>
+    <hyperlink ref="F191" r:id="rId190"/>
+    <hyperlink ref="F192" r:id="rId191"/>
+    <hyperlink ref="F193" r:id="rId192"/>
+    <hyperlink ref="F194" r:id="rId193"/>
+    <hyperlink ref="F195" r:id="rId194"/>
+    <hyperlink ref="F196" r:id="rId195"/>
+    <hyperlink ref="F197" r:id="rId196"/>
+    <hyperlink ref="F198" r:id="rId197"/>
+    <hyperlink ref="F199" r:id="rId198"/>
+    <hyperlink ref="F200" r:id="rId199"/>
+    <hyperlink ref="F201" r:id="rId200"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Test.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="205">
   <si>
     <t>search_string</t>
   </si>
@@ -34,136 +34,148 @@
     <t>video_url</t>
   </si>
   <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>wat</t>
+  </si>
+  <si>
+    <t>zou</t>
+  </si>
+  <si>
+    <t>dat</t>
+  </si>
+  <si>
+    <t>nou</t>
+  </si>
+  <si>
+    <t>voor</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>van wat zou dat nou voor de</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
     <t>en</t>
   </si>
   <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>daar</t>
+  </si>
+  <si>
+    <t>hebben</t>
+  </si>
+  <si>
+    <t>wij</t>
+  </si>
+  <si>
+    <t>een</t>
+  </si>
+  <si>
+    <t>en we daar hebben wij een</t>
+  </si>
+  <si>
+    <t>weer</t>
+  </si>
+  <si>
+    <t>heel</t>
+  </si>
+  <si>
+    <t>en we hebben weer een heel</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>wel</t>
+  </si>
+  <si>
+    <t>goed</t>
+  </si>
+  <si>
+    <t>komen</t>
+  </si>
+  <si>
+    <t>me af of dat wel goed zou komen</t>
+  </si>
+  <si>
     <t>dus</t>
   </si>
   <si>
-    <t>dacht</t>
-  </si>
-  <si>
-    <t>ik</t>
-  </si>
-  <si>
-    <t>dat</t>
-  </si>
-  <si>
-    <t>je</t>
-  </si>
-  <si>
-    <t>weet</t>
-  </si>
-  <si>
-    <t>wat</t>
-  </si>
-  <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>en dus dacht ik dat je weet wat ik ga</t>
-  </si>
-  <si>
-    <t>repeat</t>
-  </si>
-  <si>
-    <t>ik ga</t>
-  </si>
-  <si>
-    <t>en dus</t>
-  </si>
-  <si>
-    <t>je weet</t>
-  </si>
-  <si>
-    <t>weet wat</t>
-  </si>
-  <si>
-    <t>je weet wat</t>
-  </si>
-  <si>
-    <t>dus dacht ik</t>
-  </si>
-  <si>
-    <t>dat je weet</t>
-  </si>
-  <si>
-    <t>waar</t>
-  </si>
-  <si>
-    <t>ben</t>
-  </si>
-  <si>
-    <t>zou</t>
-  </si>
-  <si>
-    <t>mijn</t>
-  </si>
-  <si>
-    <t>waar ik ben ik zou mijn</t>
-  </si>
-  <si>
-    <t>ik ben</t>
-  </si>
-  <si>
-    <t>ben ik</t>
-  </si>
-  <si>
-    <t>ik zou</t>
-  </si>
-  <si>
-    <t>ik ben ik</t>
-  </si>
-  <si>
-    <t>waar ik ben</t>
-  </si>
-  <si>
-    <t>ben ik zou</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>meer</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>dan</t>
-  </si>
-  <si>
-    <t>heb</t>
-  </si>
-  <si>
-    <t>die al meer is dan ik heb</t>
-  </si>
-  <si>
-    <t>ik heb</t>
-  </si>
-  <si>
-    <t>die al</t>
-  </si>
-  <si>
-    <t>hoe</t>
-  </si>
-  <si>
-    <t>ook</t>
-  </si>
-  <si>
-    <t>zo</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>hoe dan ook zo in de</t>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>zijn</t>
+  </si>
+  <si>
+    <t>veel</t>
+  </si>
+  <si>
+    <t>mensen</t>
+  </si>
+  <si>
+    <t>net zoals in het seizoen van</t>
+  </si>
+  <si>
+    <t>van over hele de wereld</t>
+  </si>
+  <si>
+    <t>hem en dit zou wel eens al mijn vooroordelen waarin ik vaak heb gedacht wat moeten we met</t>
+  </si>
+  <si>
+    <t>nee waar ging het mis ging de wel stimuleren het was nog een vraag wat ze dan eerdere plicht</t>
+  </si>
+  <si>
+    <t>zou ik in een aantal settings meer willen testen</t>
+  </si>
+  <si>
+    <t>als je zegt dat iets hoe dan ook zou toenemen ja uit de glazen bol</t>
+  </si>
+  <si>
+    <t>die stap houdt in dat er bij de opkoopregeling twee tranches zijn</t>
+  </si>
+  <si>
+    <t>de kamer gehoord de beraadslaging constaterende dat de regering per</t>
+  </si>
+  <si>
+    <t>geld niet ter wat er nou zegt nu dat kan eigenlijk niet</t>
+  </si>
+  <si>
+    <t>mensen die mijn videos kijken niet geabonneerd zijn op mijn kanaal en mocht je nou denken van ja</t>
+  </si>
+  <si>
+    <t>wat zaken voor gerealiseerd</t>
+  </si>
+  <si>
+    <t>ik heb daar geen motief voor</t>
+  </si>
+  <si>
+    <t>verantwoordelijkheid bij de eu terechtkomt</t>
+  </si>
+  <si>
+    <t>achter de corona informatielijn zaten studenten op de coronapoli hielpen ze mee met het afnemen van testen</t>
+  </si>
+  <si>
+    <t>maar ik heb wel beter nagedacht van wat zou dat nou voor de efteling kunnen zijn</t>
+  </si>
+  <si>
+    <t>repeat_again</t>
   </si>
   <si>
     <t>jaar en niet heel realistisch zijn geworden over techniek in het onderwijs en dat betekent</t>
@@ -172,196 +184,169 @@
     <t>cultureel echt serieus meedeed en je ziet ook dat later in de negentiende eeuw</t>
   </si>
   <si>
+    <t>beurs trooststraat en evertsenweg tuin van daarom zijn we</t>
+  </si>
+  <si>
+    <t>en we kunnen in de photobooth</t>
+  </si>
+  <si>
+    <t>de uitdaging van het daar moeten leven als gendernormdoorbrekend persoon nog steeds</t>
+  </si>
+  <si>
+    <t>voorzitter ik ben blij dat iedereen daar vol belangstelling naar uitkijkt</t>
+  </si>
+  <si>
+    <t>wie weet komt er ooit weer verbetering je weet het niet hé we gaan het nu hebben</t>
+  </si>
+  <si>
+    <t>hebben allemaal wel de essentie van het vrouwen kunnen begrijpen en als ook</t>
+  </si>
+  <si>
+    <t>van het overzicht van ook andere campings meegestuurd wij liggen daar zoals u zelf</t>
+  </si>
+  <si>
+    <t>en wij doen nog een rondje goed plan</t>
+  </si>
+  <si>
+    <t>dan zie je ook vaak dat ze rond een thema of rond een plek geordend zijn en dat heeft</t>
+  </si>
+  <si>
+    <t>en ik heb nog een nieuwtje de horekadobon</t>
+  </si>
+  <si>
+    <t>en we daar hebben wij een efteling variant van gemaakt</t>
+  </si>
+  <si>
+    <t>kijken naar een paar beelden en ik zie je zo dadelijk weer</t>
+  </si>
+  <si>
+    <t>maar we hebben een aantal jaren geleden weer een bus opgeknapt en we zijn weer present de bus ziet er goed uit hij ziet er schitterend uit</t>
+  </si>
+  <si>
+    <t>we hebben een uurtje vooruitgeschoven en dat maakt gewoon dat jamiijn uurbeleving is heel anders</t>
+  </si>
+  <si>
+    <t>we kennen elkaar nog niet zo heel lang ja</t>
+  </si>
+  <si>
+    <t>het staat natuurlijk gewoon in de efteling en we hebben weer een heel leuk verhaal gebruikt</t>
+  </si>
+  <si>
+    <t>dat dit heeft me voor weken energie gegeven ik heb stiekem met iemand</t>
+  </si>
+  <si>
+    <t>wie maar ik vond het zo leuk dat je me een compliment gaf</t>
+  </si>
+  <si>
+    <t>ja ik vroeg me ook af wat doe je dan als je als populist zon beetje</t>
+  </si>
+  <si>
+    <t>je mentale wereld wordt kleiner je zegt je sociale verplichtingen af feestjes barbecues</t>
+  </si>
+  <si>
+    <t>de mamatobe of misschien zelfs op de papatobe met een aantal vrienden en vriendinnen dat wil</t>
+  </si>
+  <si>
+    <t>vaak op moment op mensen verhuizen naar een verpleeghuis of en woonzorgcentra</t>
+  </si>
+  <si>
+    <t>en toch zijn we dus best wel leuk maar toen was paul met de keuze ja gaan we nu investeren in</t>
+  </si>
+  <si>
+    <t>net muziekjes en zo met auteursrecht en ja qua privacy wel gewoon altijd toestemming vragen</t>
+  </si>
+  <si>
+    <t>ja ik beslis het naarmate de test vordert ik weet niet hoe goed ik die maak</t>
+  </si>
+  <si>
+    <t>talent voor hebt ja dan dan voelt het goed voor jezelf dan</t>
+  </si>
+  <si>
+    <t>dan komen we misschien wel langs om een filmpje te maken</t>
+  </si>
+  <si>
+    <t>volgen en komen door die apps zij een andere christen niet juist in gevaar christenen worden</t>
+  </si>
+  <si>
+    <t>dus ik vroeg me af of dat wel goed zou komen</t>
+  </si>
+  <si>
     <t>weer opnieuw een mooie candle en hier zien we dus die prachtige uitbraak richting dus twintigduizend</t>
   </si>
   <si>
     <t>dus zoals gezegd het papenhof is één van de mooie parken hier in de stad</t>
   </si>
   <si>
-    <t>ik thuis en dacht ik ik ga er een journalistiek boek van maken toen was</t>
-  </si>
-  <si>
-    <t>en ik dacht ik koop er nog maar één en dan zal ik hem vragen</t>
-  </si>
-  <si>
-    <t>s avonds kreeg ik al een mail binnen dat het goed was en dat het goedgekeurd was en dat ik</t>
-  </si>
-  <si>
-    <t>veel om mij heen dat er toch veel meer in de cultuur zit ik moet dat zoveel</t>
-  </si>
-  <si>
-    <t>die stap houdt in dat er bij de opkoopregeling twee tranches zijn</t>
-  </si>
-  <si>
-    <t>de kamer gehoord de beraadslaging constaterende dat de regering per</t>
-  </si>
-  <si>
-    <t>is heel groot maar een ander beslag je het yes is bijvoorbeeld het hele kleine meid het je dit een</t>
-  </si>
-  <si>
-    <t>vlammen komen er bovenuit en stralingswarmte zorgt ervoor dat je langzamerhand het hout opwarmt</t>
-  </si>
-  <si>
-    <t>en als je van tevoren weet dat er een bepaalde aanvraag dat er een traject komt</t>
-  </si>
-  <si>
-    <t>zo ja dan weet u ook iets meer over de immuniteit</t>
-  </si>
-  <si>
-    <t>hem en dit zou wel eens al mijn vooroordelen waarin ik vaak heb gedacht wat moeten we met</t>
-  </si>
-  <si>
-    <t>nee waar ging het mis ging de wel stimuleren het was nog een vraag wat ze dan eerdere plicht</t>
-  </si>
-  <si>
-    <t>richten op de implementatie van een kliniek ga je je richten op voedselpakketten zo hebben we</t>
-  </si>
-  <si>
-    <t>nou ga ik vragen wat wilt u ontvangen is een totaal andere benadering</t>
-  </si>
-  <si>
-    <t>dus ik heb een grote liefde voor het merk en dus dacht ik dat je weet wat ik ga</t>
-  </si>
-  <si>
-    <t>repeat_again</t>
-  </si>
-  <si>
-    <t>ik ga daarop klikken en dan krijg ik de mogelijkheid om de routes die ik al aangemaakt heb dat is mijn route naar de fietsersbond ik heb er twee</t>
-  </si>
-  <si>
-    <t>mogelijkheden en dus wat kun je allemaal</t>
-  </si>
-  <si>
-    <t>ja we houden het praktisch zeker je weet ik ben een man van de praktijk</t>
-  </si>
-  <si>
-    <t>u weet wat je wel en wat je niet mag doorberekenen via de servicekosten</t>
-  </si>
-  <si>
-    <t>je weet wat te doen dankjewel</t>
-  </si>
-  <si>
-    <t>fotograferen bij zacht licht en dus dacht ik laat ik een aantal compositie ideeën met jullie delen</t>
-  </si>
-  <si>
-    <t>alles ik vond het leuk dat je standen kan herstellen en dat je weet je met de wind kan spelen</t>
-  </si>
-  <si>
-    <t>een beetje beetje overdreven over maar we hebben daar echt waar ervaring mee</t>
-  </si>
-  <si>
-    <t>nou goed wij zoeken uiteindelijk vinden we een bord waarop staat waar we naar toe moeten</t>
-  </si>
-  <si>
-    <t>mijn naam is jeffrey noordermeer en ik ben al jaren werkzaam in de mediabranche een aantal</t>
-  </si>
-  <si>
-    <t>ik ben niet de uitbater maar wel de bedenker van het idee</t>
-  </si>
-  <si>
-    <t>zou ik in een aantal settings meer willen testen</t>
-  </si>
-  <si>
-    <t>als je zegt dat iets hoe dan ook zou toenemen ja uit de glazen bol</t>
-  </si>
-  <si>
-    <t>en hij had gereageerd op mijn vorige dat het hem een keer leuk lijkt dat we een keer</t>
-  </si>
-  <si>
-    <t>bent kunt zo over die stil zitten dus dat is wel hoe het hoe mijn ouders zijn hoe u zelf op zijn</t>
-  </si>
-  <si>
-    <t>waar ik ben ik zou mijn fiets moeten en ik ga ze vragen</t>
-  </si>
-  <si>
-    <t>nooit in positieve zin en daarom ben ik op een gegeven ogenblik gestopt met mijn werk ik ben</t>
-  </si>
-  <si>
-    <t>bijvoorbeeld dit is getatoeëerd en dat heb ik van een vriendin cadeau gekregen maar wat ben ik daar blij mee</t>
-  </si>
-  <si>
-    <t>en voert uit die reeks ik zou zeggen werk gemeentelijk terrein ik denk dat we daar</t>
-  </si>
-  <si>
-    <t>alleen ben ik nog wel heel lang bezig en ik ben ik voorlopig ook nog niet klaar maar dat</t>
-  </si>
-  <si>
-    <t>de kleinste begint ja ik ben ik zou willen dat ik een beter antwoord dat we hebben hier een winnaar</t>
-  </si>
-  <si>
-    <t>maar dan ga ik zoeken of ik andere bronnen tegenkom die het waarschijnlijk maken van wat</t>
-  </si>
-  <si>
-    <t>ja die zijn specifiek voor mensen met een arbeidsbeperking wel breder dan uitsluitend</t>
-  </si>
-  <si>
-    <t>voor dat onderzoek wat ook al eens</t>
-  </si>
-  <si>
-    <t>organisaties bieden nu al een cursus aan van hoe krijg ik vanuit word een</t>
-  </si>
-  <si>
-    <t>gelaten mogen meer aandacht aan besteden albers zaterdag niet dag</t>
-  </si>
-  <si>
-    <t>iets meer aan de zijkant is een fietsenstalling hier tref je ook de bluebike aan de deelfietsen van de belgische spoorwegen</t>
-  </si>
-  <si>
-    <t>zorg er voor dat de ondergrond droog stof en vetvrij is</t>
-  </si>
-  <si>
-    <t>toename van het aantal drenkelingen is en in nederland met name de langste rivieren dat is</t>
-  </si>
-  <si>
-    <t>de informatie over mensen en dan heb ik het over de meest basale informatie de doop trouw</t>
-  </si>
-  <si>
-    <t>die info gaat dan naar de app toe en in de app komt er een vertaling van</t>
-  </si>
-  <si>
-    <t>hallo ik ben nu in bad ik heb net de douche aangezet maar dat ging best wel moeilijk</t>
-  </si>
-  <si>
-    <t>ik weet niet hoe goed die rest gewoon werkt bla bla bla bla bla bla ik heb vierkant poeder</t>
-  </si>
-  <si>
-    <t>vermogen die al meer is dan ik heb gereden</t>
-  </si>
-  <si>
-    <t>hoe kijk jij daarnaar amber ik heb die spotjes zelf ook gezien dus ik</t>
-  </si>
-  <si>
-    <t>de vakantie te komen mezelf niet te zijn en partijen die al te hoog van de toren</t>
-  </si>
-  <si>
-    <t>ik heb daarna tegen de koepels gezegd laten we kijken hoe we eruit komen maar ik zit nu vanaf</t>
-  </si>
-  <si>
-    <t>we nauw samenwerken met bedrijven die vanuit de praktijk weten hoe je in mengsels kan afstemmen</t>
-  </si>
-  <si>
-    <t>sprake van gelijkwaardigheid ook op school dat was niet gehandicapte jeske</t>
-  </si>
-  <si>
-    <t>wel een probleem want die overdracht werd heel duur ging ook kuur uitbetalen via de blokje een</t>
-  </si>
-  <si>
-    <t>en dat doen wij met zo min mogelijk windmolens</t>
-  </si>
-  <si>
-    <t>vond ik eigenlijk helemaal niet zo leuk</t>
-  </si>
-  <si>
-    <t>van wat er in dat gebied nodig is om te zorgen dat de natuur robuuster wordt</t>
-  </si>
-  <si>
-    <t>is dat gewoon in een stabiele situatie als het goed gaat</t>
-  </si>
-  <si>
-    <t>verantwoordelijkheid bij de eu terechtkomt</t>
-  </si>
-  <si>
-    <t>achter de corona informatielijn zaten studenten op de coronapoli hielpen ze mee met het afnemen van testen</t>
+    <t>minieme belegging is bewijs spreken en milieu ja dan ga je daar toch anders mee om ja en dan heb je</t>
+  </si>
+  <si>
+    <t>ja de laatste voorzitter</t>
+  </si>
+  <si>
+    <t>om de taken te kunnen financieren en er werden geschriften voor de diensten gebruikt niet alles</t>
+  </si>
+  <si>
+    <t>wat brugge afbreken omdat er geen budget</t>
+  </si>
+  <si>
+    <t>voorzitter vandaag zijn de financiële beschouwingen en dan gaat het natuurlijk over geld maar ten</t>
+  </si>
+  <si>
+    <t>secundaire arbeidsvoorwaarden moeten goed zijn je moet samen activiteiten doen</t>
+  </si>
+  <si>
+    <t>het brengt heel vaak ook veel goede dingen dat gaan we nog meer horen</t>
+  </si>
+  <si>
+    <t>maar zo veel mogelijk zelf wil uitbesteden</t>
+  </si>
+  <si>
+    <t>nee zo zeg ik tegen de heer dijkhoff als wij signalen krijgen van mensen die zeggen het gaat uit</t>
+  </si>
+  <si>
+    <t>HNqNQNMXio4</t>
+  </si>
+  <si>
+    <t>18QgUSnRjxo</t>
+  </si>
+  <si>
+    <t>g01V_H0TU8o</t>
+  </si>
+  <si>
+    <t>6QhQ4GVUhmI</t>
+  </si>
+  <si>
+    <t>QAjt9liE_a4</t>
+  </si>
+  <si>
+    <t>biKaNGgB3H8</t>
+  </si>
+  <si>
+    <t>JRhFqrIDklA</t>
+  </si>
+  <si>
+    <t>9uOFhXkzEQQ</t>
+  </si>
+  <si>
+    <t>vwUaEiSxeko</t>
+  </si>
+  <si>
+    <t>zbmcJiZ5fno</t>
+  </si>
+  <si>
+    <t>LmFZFyWx8Gc</t>
+  </si>
+  <si>
+    <t>mdNyTqKmEMs</t>
+  </si>
+  <si>
+    <t>aky6sGXP8fE</t>
+  </si>
+  <si>
+    <t>JUQTVKIBFns</t>
+  </si>
+  <si>
+    <t>Q-8I-uMUMYA</t>
   </si>
   <si>
     <t>A0Fij7grUvs</t>
@@ -370,181 +355,154 @@
     <t>AaVi4igmpYQ</t>
   </si>
   <si>
+    <t>6b2CjjmooDA</t>
+  </si>
+  <si>
+    <t>dMd0RQ5lGYE</t>
+  </si>
+  <si>
+    <t>txs2EeEypQk</t>
+  </si>
+  <si>
+    <t>k1up2KLkuaM</t>
+  </si>
+  <si>
+    <t>LyPygt9GFlk</t>
+  </si>
+  <si>
+    <t>2Ckh4LjX38g</t>
+  </si>
+  <si>
+    <t>uJhEbO42qRo</t>
+  </si>
+  <si>
+    <t>l_1T3uIi4sc</t>
+  </si>
+  <si>
+    <t>4X7rfCia4yI</t>
+  </si>
+  <si>
+    <t>RV_22SjePOY</t>
+  </si>
+  <si>
+    <t>_ZAvJpr0xjk</t>
+  </si>
+  <si>
+    <t>K6lyGqxN5Uw</t>
+  </si>
+  <si>
+    <t>7SZgZ8ubuuE</t>
+  </si>
+  <si>
+    <t>4n6Edzd6LoA</t>
+  </si>
+  <si>
+    <t>4aCdvnELXGQ</t>
+  </si>
+  <si>
+    <t>COlIItbPopY</t>
+  </si>
+  <si>
+    <t>OPIgxnSYfgQ</t>
+  </si>
+  <si>
+    <t>MsqekqLZq5M</t>
+  </si>
+  <si>
+    <t>O1MO3NjngNk</t>
+  </si>
+  <si>
+    <t>0dI_EMaZG94</t>
+  </si>
+  <si>
+    <t>iLJg6UP0y_8</t>
+  </si>
+  <si>
+    <t>jUUQNc8_5T0</t>
+  </si>
+  <si>
+    <t>vnbjQq2DZpg</t>
+  </si>
+  <si>
+    <t>ZWsp0zoZJCM</t>
+  </si>
+  <si>
+    <t>s1Iy1dpIyIA</t>
+  </si>
+  <si>
+    <t>Co4vE_sSnZM</t>
+  </si>
+  <si>
+    <t>UltPsmBVTV0</t>
+  </si>
+  <si>
     <t>po3SMpTUHow</t>
   </si>
   <si>
     <t>6aNez9olqMU</t>
   </si>
   <si>
-    <t>ADgBtBV3dIw</t>
-  </si>
-  <si>
-    <t>EHhSaFkudSQ</t>
-  </si>
-  <si>
-    <t>yp87TXXhJnI</t>
-  </si>
-  <si>
-    <t>yFcDwWMXCRk</t>
-  </si>
-  <si>
-    <t>JRhFqrIDklA</t>
-  </si>
-  <si>
-    <t>9uOFhXkzEQQ</t>
-  </si>
-  <si>
-    <t>RFoMMSvriYg</t>
-  </si>
-  <si>
-    <t>w1YZE6nWaWU</t>
-  </si>
-  <si>
-    <t>MAIVQd4EF20</t>
-  </si>
-  <si>
-    <t>g01V_H0TU8o</t>
-  </si>
-  <si>
-    <t>6QhQ4GVUhmI</t>
-  </si>
-  <si>
-    <t>EZMgSCfbiGs</t>
-  </si>
-  <si>
-    <t>BHfZRmk3n6w</t>
-  </si>
-  <si>
-    <t>BoaYsdPtJYA</t>
-  </si>
-  <si>
-    <t>Q-8I-uMUMYA</t>
-  </si>
-  <si>
-    <t>p4Xe249nsTU</t>
-  </si>
-  <si>
-    <t>3TI4Ce_ckO0</t>
-  </si>
-  <si>
-    <t>EiyFf3Ip18E</t>
-  </si>
-  <si>
-    <t>ypbGtkT8Jfo</t>
-  </si>
-  <si>
-    <t>tHFynkakpVk</t>
-  </si>
-  <si>
-    <t>5XGbMbvvfyY</t>
-  </si>
-  <si>
-    <t>bjKUUIiC7NM</t>
-  </si>
-  <si>
-    <t>kO1qdcgodY0</t>
-  </si>
-  <si>
-    <t>vnbjQq2DZpg</t>
-  </si>
-  <si>
-    <t>KhdP3Q0IpRY</t>
-  </si>
-  <si>
-    <t>vjaP0sAIp7g</t>
-  </si>
-  <si>
-    <t>QAjt9liE_a4</t>
-  </si>
-  <si>
-    <t>biKaNGgB3H8</t>
-  </si>
-  <si>
-    <t>Grus9PScjRM</t>
-  </si>
-  <si>
-    <t>1JRauSMWBww</t>
-  </si>
-  <si>
-    <t>8oxf7nVWqIE</t>
-  </si>
-  <si>
-    <t>jP8ee6ulenE</t>
-  </si>
-  <si>
-    <t>71PKVXuCQj8</t>
-  </si>
-  <si>
-    <t>NxX9X3tkSXw</t>
-  </si>
-  <si>
-    <t>Fn5erRPierY</t>
-  </si>
-  <si>
-    <t>ZWsp0zoZJCM</t>
-  </si>
-  <si>
-    <t>24EWdb4zZv4</t>
+    <t>NITqK_fKv5o</t>
+  </si>
+  <si>
+    <t>gK0_yZDGIgw</t>
   </si>
   <si>
     <t>R4Q1cNbNKU0</t>
   </si>
   <si>
-    <t>KFkJCia8L5M</t>
-  </si>
-  <si>
-    <t>siB4bwrbWJ8</t>
-  </si>
-  <si>
-    <t>znl_LpOcfVw</t>
-  </si>
-  <si>
-    <t>aEICbq3QzvU</t>
-  </si>
-  <si>
-    <t>gK0_yZDGIgw</t>
-  </si>
-  <si>
-    <t>htPOIqQYZ6E</t>
-  </si>
-  <si>
-    <t>A8EXbpOKPGk</t>
-  </si>
-  <si>
-    <t>ftwsaGlOEdA</t>
-  </si>
-  <si>
-    <t>Ud7n8yMn_h8</t>
-  </si>
-  <si>
-    <t>6b2CjjmooDA</t>
-  </si>
-  <si>
-    <t>UH5OpEpuBCA</t>
-  </si>
-  <si>
-    <t>xKNDkrAQ3iM</t>
-  </si>
-  <si>
-    <t>wqAziYhui4I</t>
-  </si>
-  <si>
-    <t>iLJg6UP0y_8</t>
-  </si>
-  <si>
-    <t>PP6Oi6xQQOo</t>
-  </si>
-  <si>
-    <t>PzqrzEue4Ec</t>
-  </si>
-  <si>
-    <t>k1up2KLkuaM</t>
-  </si>
-  <si>
-    <t>mdNyTqKmEMs</t>
-  </si>
-  <si>
-    <t>aky6sGXP8fE</t>
+    <t>b9krUZxyRxc</t>
+  </si>
+  <si>
+    <t>t35fwDbZyiQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HNqNQNMXio4&amp;t=90s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=18QgUSnRjxo&amp;t=315s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g01V_H0TU8o&amp;t=932s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6QhQ4GVUhmI&amp;t=1539s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QAjt9liE_a4&amp;t=17842s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=biKaNGgB3H8&amp;t=1857s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JRhFqrIDklA&amp;t=5264s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=23845s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vwUaEiSxeko&amp;t=857s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zbmcJiZ5fno&amp;t=577s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LmFZFyWx8Gc&amp;t=120s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QAjt9liE_a4&amp;t=10713s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mdNyTqKmEMs&amp;t=6081s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aky6sGXP8fE&amp;t=104s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JUQTVKIBFns&amp;t=141s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q-8I-uMUMYA&amp;t=0s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=A0Fij7grUvs&amp;t=2592s</t>
@@ -553,199 +511,124 @@
     <t>https://www.youtube.com/watch?v=AaVi4igmpYQ&amp;t=818s</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=6b2CjjmooDA&amp;t=2393s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dMd0RQ5lGYE&amp;t=184s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=txs2EeEypQk&amp;t=2321s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k1up2KLkuaM&amp;t=15553s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LyPygt9GFlk&amp;t=378s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2Ckh4LjX38g&amp;t=2270s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uJhEbO42qRo&amp;t=2010s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l_1T3uIi4sc&amp;t=451s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4X7rfCia4yI&amp;t=850s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RV_22SjePOY&amp;t=756s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JUQTVKIBFns&amp;t=167s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ZAvJpr0xjk&amp;t=278s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K6lyGqxN5Uw&amp;t=1842s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7SZgZ8ubuuE&amp;t=273s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4n6Edzd6LoA&amp;t=98s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JUQTVKIBFns&amp;t=332s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4aCdvnELXGQ&amp;t=137s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=COlIItbPopY&amp;t=1227s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OPIgxnSYfgQ&amp;t=14s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsqekqLZq5M&amp;t=133s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O1MO3NjngNk&amp;t=95s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0dI_EMaZG94&amp;t=61s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iLJg6UP0y_8&amp;t=3383s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jUUQNc8_5T0&amp;t=984s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vnbjQq2DZpg&amp;t=2451s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZWsp0zoZJCM&amp;t=3349s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s1Iy1dpIyIA&amp;t=315s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Co4vE_sSnZM&amp;t=4836s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UltPsmBVTV0&amp;t=230s</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=po3SMpTUHow&amp;t=1998s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=6aNez9olqMU&amp;t=148s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ADgBtBV3dIw&amp;t=240s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EHhSaFkudSQ&amp;t=141s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yp87TXXhJnI&amp;t=194s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yFcDwWMXCRk&amp;t=281s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JRhFqrIDklA&amp;t=5264s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=23845s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RFoMMSvriYg&amp;t=1501s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1YZE6nWaWU&amp;t=779s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MAIVQd4EF20&amp;t=419s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=15775s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=g01V_H0TU8o&amp;t=932s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6QhQ4GVUhmI&amp;t=1539s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EZMgSCfbiGs&amp;t=2450s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BHfZRmk3n6w&amp;t=633s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BoaYsdPtJYA&amp;t=111s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Q-8I-uMUMYA&amp;t=0s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=p4Xe249nsTU&amp;t=1137s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3TI4Ce_ckO0&amp;t=4414s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EiyFf3Ip18E&amp;t=76s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ypbGtkT8Jfo&amp;t=104s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tHFynkakpVk&amp;t=264s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5XGbMbvvfyY&amp;t=173s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bjKUUIiC7NM&amp;t=164s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kO1qdcgodY0&amp;t=450s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vnbjQq2DZpg&amp;t=469s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KhdP3Q0IpRY&amp;t=8s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vjaP0sAIp7g&amp;t=475s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QAjt9liE_a4&amp;t=17842s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=biKaNGgB3H8&amp;t=1857s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Grus9PScjRM&amp;t=26s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1JRauSMWBww&amp;t=474s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BoaYsdPtJYA&amp;t=116s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8oxf7nVWqIE&amp;t=68s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jP8ee6ulenE&amp;t=368s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=71PKVXuCQj8&amp;t=4490s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NxX9X3tkSXw&amp;t=430s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Fn5erRPierY&amp;t=424s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZWsp0zoZJCM&amp;t=569s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=24EWdb4zZv4&amp;t=1217s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=R4Q1cNbNKU0&amp;t=13848s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KFkJCia8L5M&amp;t=4124s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=siB4bwrbWJ8&amp;t=1344s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=znl_LpOcfVw&amp;t=344s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aEICbq3QzvU&amp;t=53s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=71PKVXuCQj8&amp;t=5109s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gK0_yZDGIgw&amp;t=1770s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=htPOIqQYZ6E&amp;t=168s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A8EXbpOKPGk&amp;t=411s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ftwsaGlOEdA&amp;t=240s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BoaYsdPtJYA&amp;t=267s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ud7n8yMn_h8&amp;t=129s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6b2CjjmooDA&amp;t=3510s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UH5OpEpuBCA&amp;t=1116s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xKNDkrAQ3iM&amp;t=1291s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wqAziYhui4I&amp;t=770s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iLJg6UP0y_8&amp;t=3220s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PP6Oi6xQQOo&amp;t=88s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PzqrzEue4Ec&amp;t=92s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JRhFqrIDklA&amp;t=4494s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k1up2KLkuaM&amp;t=5445s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mdNyTqKmEMs&amp;t=6081s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aky6sGXP8fE&amp;t=104s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BoaYsdPtJYA&amp;t=557s</t>
+    <t>https://www.youtube.com/watch?v=NITqK_fKv5o&amp;t=514s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QAjt9liE_a4&amp;t=5551s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gK0_yZDGIgw&amp;t=328s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R4Q1cNbNKU0&amp;t=9577s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k1up2KLkuaM&amp;t=9236s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b9krUZxyRxc&amp;t=85s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t35fwDbZyiQ&amp;t=2262s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t35fwDbZyiQ&amp;t=3856s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QAjt9liE_a4&amp;t=1721s</t>
   </si>
 </sst>
 </file>
@@ -1147,19 +1030,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2592</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>2593</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1167,19 +1050,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2592</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>2593</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1187,19 +1070,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2592</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>2593</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1207,19 +1090,19 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2592</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>2593</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1227,19 +1110,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>818</v>
+        <v>315</v>
       </c>
       <c r="C6">
-        <v>820</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1247,19 +1130,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>818</v>
+        <v>315</v>
       </c>
       <c r="C7">
-        <v>820</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1267,19 +1150,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>818</v>
+        <v>315</v>
       </c>
       <c r="C8">
-        <v>820</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1287,19 +1170,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1998</v>
+        <v>932</v>
       </c>
       <c r="C9">
-        <v>1999</v>
+        <v>933</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1307,19 +1190,19 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1998</v>
+        <v>932</v>
       </c>
       <c r="C10">
-        <v>1999</v>
+        <v>933</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1327,19 +1210,19 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1998</v>
+        <v>932</v>
       </c>
       <c r="C11">
-        <v>1999</v>
+        <v>933</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1347,19 +1230,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>1998</v>
+        <v>932</v>
       </c>
       <c r="C12">
-        <v>1999</v>
+        <v>933</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1367,19 +1250,19 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>148</v>
+        <v>1539</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>1540</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1387,19 +1270,19 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>148</v>
+        <v>1539</v>
       </c>
       <c r="C14">
-        <v>149</v>
+        <v>1540</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1407,19 +1290,19 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>148</v>
+        <v>1539</v>
       </c>
       <c r="C15">
-        <v>149</v>
+        <v>1540</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1427,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>240</v>
+        <v>17842</v>
       </c>
       <c r="C16">
-        <v>242</v>
+        <v>17843</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1447,19 +1330,19 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>240</v>
+        <v>17842</v>
       </c>
       <c r="C17">
-        <v>242</v>
+        <v>17843</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1467,19 +1350,19 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>240</v>
+        <v>17842</v>
       </c>
       <c r="C18">
-        <v>242</v>
+        <v>17843</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1487,19 +1370,19 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>240</v>
+        <v>17842</v>
       </c>
       <c r="C19">
-        <v>242</v>
+        <v>17843</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1507,19 +1390,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>141</v>
+        <v>1857</v>
       </c>
       <c r="C20">
-        <v>143</v>
+        <v>1859</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1527,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>141</v>
+        <v>1857</v>
       </c>
       <c r="C21">
-        <v>143</v>
+        <v>1859</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1547,19 +1430,19 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>141</v>
+        <v>1857</v>
       </c>
       <c r="C22">
-        <v>143</v>
+        <v>1859</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1567,19 +1450,19 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>194</v>
+        <v>5264</v>
       </c>
       <c r="C23">
-        <v>195</v>
+        <v>5265</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1587,19 +1470,19 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>194</v>
+        <v>5264</v>
       </c>
       <c r="C24">
-        <v>195</v>
+        <v>5265</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1607,19 +1490,19 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <v>194</v>
+        <v>5264</v>
       </c>
       <c r="C25">
-        <v>195</v>
+        <v>5265</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1627,19 +1510,19 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>194</v>
+        <v>5264</v>
       </c>
       <c r="C26">
-        <v>195</v>
+        <v>5265</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1647,19 +1530,19 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>281</v>
+        <v>23845</v>
       </c>
       <c r="C27">
-        <v>282</v>
+        <v>23846</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1667,19 +1550,19 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>281</v>
+        <v>23845</v>
       </c>
       <c r="C28">
-        <v>282</v>
+        <v>23846</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1687,19 +1570,19 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>281</v>
+        <v>23845</v>
       </c>
       <c r="C29">
-        <v>282</v>
+        <v>23846</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1707,19 +1590,19 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>5264</v>
+        <v>857</v>
       </c>
       <c r="C30">
-        <v>5265</v>
+        <v>858</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1727,19 +1610,19 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>5264</v>
+        <v>857</v>
       </c>
       <c r="C31">
-        <v>5265</v>
+        <v>858</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1747,19 +1630,19 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>5264</v>
+        <v>857</v>
       </c>
       <c r="C32">
-        <v>5265</v>
+        <v>858</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1767,19 +1650,19 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>5264</v>
+        <v>857</v>
       </c>
       <c r="C33">
-        <v>5265</v>
+        <v>858</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1787,19 +1670,19 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>23845</v>
+        <v>577</v>
       </c>
       <c r="C34">
-        <v>23846</v>
+        <v>578</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1807,19 +1690,19 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>23845</v>
+        <v>577</v>
       </c>
       <c r="C35">
-        <v>23846</v>
+        <v>578</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1827,19 +1710,19 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>23845</v>
+        <v>577</v>
       </c>
       <c r="C36">
-        <v>23846</v>
+        <v>578</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1847,19 +1730,19 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>1501</v>
+        <v>120</v>
       </c>
       <c r="C37">
-        <v>1502</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1867,19 +1750,19 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>1501</v>
+        <v>120</v>
       </c>
       <c r="C38">
-        <v>1502</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1887,19 +1770,19 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>1501</v>
+        <v>120</v>
       </c>
       <c r="C39">
-        <v>1502</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1907,19 +1790,19 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>1501</v>
+        <v>120</v>
       </c>
       <c r="C40">
-        <v>1502</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1927,19 +1810,19 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>779</v>
+        <v>10713</v>
       </c>
       <c r="C41">
-        <v>780</v>
+        <v>10714</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1947,19 +1830,19 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>779</v>
+        <v>10713</v>
       </c>
       <c r="C42">
-        <v>780</v>
+        <v>10714</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1967,19 +1850,19 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>779</v>
+        <v>10713</v>
       </c>
       <c r="C43">
-        <v>780</v>
+        <v>10714</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1987,19 +1870,19 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>419</v>
+        <v>6081</v>
       </c>
       <c r="C44">
-        <v>421</v>
+        <v>6083</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2007,19 +1890,19 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>419</v>
+        <v>6081</v>
       </c>
       <c r="C45">
-        <v>421</v>
+        <v>6083</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2027,19 +1910,19 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>419</v>
+        <v>6081</v>
       </c>
       <c r="C46">
-        <v>421</v>
+        <v>6083</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2047,19 +1930,19 @@
         <v>12</v>
       </c>
       <c r="B47">
-        <v>419</v>
+        <v>6081</v>
       </c>
       <c r="C47">
-        <v>421</v>
+        <v>6083</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2067,19 +1950,19 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>15775</v>
+        <v>104</v>
       </c>
       <c r="C48">
-        <v>15777</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2087,19 +1970,19 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>15775</v>
+        <v>104</v>
       </c>
       <c r="C49">
-        <v>15777</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2107,19 +1990,19 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>15775</v>
+        <v>104</v>
       </c>
       <c r="C50">
-        <v>15777</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2127,19 +2010,19 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>932</v>
+        <v>141</v>
       </c>
       <c r="C51">
-        <v>933</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2147,19 +2030,19 @@
         <v>13</v>
       </c>
       <c r="B52">
-        <v>932</v>
+        <v>141</v>
       </c>
       <c r="C52">
-        <v>933</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2167,139 +2050,139 @@
         <v>13</v>
       </c>
       <c r="B53">
-        <v>932</v>
+        <v>141</v>
       </c>
       <c r="C53">
-        <v>933</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>932</v>
+        <v>90</v>
       </c>
       <c r="C54">
-        <v>933</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>1539</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>1540</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>1539</v>
+        <v>932</v>
       </c>
       <c r="C56">
-        <v>1540</v>
+        <v>933</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>1539</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>1540</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>194</v>
+        <v>1857</v>
       </c>
       <c r="C58">
-        <v>195</v>
+        <v>1859</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
         <v>9</v>
       </c>
-      <c r="B59">
-        <v>194</v>
-      </c>
-      <c r="C59">
-        <v>195</v>
-      </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2307,99 +2190,99 @@
         <v>9</v>
       </c>
       <c r="B60">
-        <v>194</v>
+        <v>23845</v>
       </c>
       <c r="C60">
-        <v>195</v>
+        <v>23846</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
         <v>9</v>
       </c>
-      <c r="B61">
-        <v>194</v>
-      </c>
-      <c r="C61">
-        <v>195</v>
-      </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>281</v>
+        <v>857</v>
       </c>
       <c r="C62">
-        <v>282</v>
+        <v>858</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
         <v>9</v>
       </c>
-      <c r="B63">
-        <v>281</v>
-      </c>
-      <c r="C63">
-        <v>282</v>
-      </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>281</v>
+        <v>10713</v>
       </c>
       <c r="C64">
-        <v>282</v>
+        <v>10714</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2407,39 +2290,39 @@
         <v>14</v>
       </c>
       <c r="B65">
-        <v>2450</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>2451</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B66">
-        <v>2450</v>
+        <v>104</v>
       </c>
       <c r="C66">
-        <v>2451</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2447,39 +2330,39 @@
         <v>14</v>
       </c>
       <c r="B67">
-        <v>2450</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>2451</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>2450</v>
+        <v>141</v>
       </c>
       <c r="C68">
-        <v>2451</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2487,59 +2370,59 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>633</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>634</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>633</v>
+        <v>2592</v>
       </c>
       <c r="C70">
-        <v>634</v>
+        <v>2593</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B71">
-        <v>633</v>
+        <v>2592</v>
       </c>
       <c r="C71">
-        <v>634</v>
+        <v>2593</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2547,19 +2430,19 @@
         <v>15</v>
       </c>
       <c r="B72">
+        <v>2592</v>
+      </c>
+      <c r="C72">
+        <v>2593</v>
+      </c>
+      <c r="D72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" t="s">
         <v>111</v>
       </c>
-      <c r="C72">
-        <v>114</v>
-      </c>
-      <c r="D72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" t="s">
-        <v>133</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2567,19 +2450,19 @@
         <v>15</v>
       </c>
       <c r="B73">
+        <v>2592</v>
+      </c>
+      <c r="C73">
+        <v>2593</v>
+      </c>
+      <c r="D73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" t="s">
         <v>111</v>
       </c>
-      <c r="C73">
-        <v>114</v>
-      </c>
-      <c r="D73" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" t="s">
-        <v>133</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2587,24 +2470,24 @@
         <v>15</v>
       </c>
       <c r="B74">
-        <v>111</v>
+        <v>818</v>
       </c>
       <c r="C74">
-        <v>114</v>
+        <v>820</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B75">
         <v>818</v>
@@ -2613,53 +2496,53 @@
         <v>820</v>
       </c>
       <c r="D75" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E75" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>818</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>820</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B77">
-        <v>148</v>
+        <v>2393</v>
       </c>
       <c r="C77">
-        <v>149</v>
+        <v>2395</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E77" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2667,39 +2550,39 @@
         <v>16</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>2393</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>2395</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E78" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B79">
-        <v>240</v>
+        <v>2393</v>
       </c>
       <c r="C79">
-        <v>242</v>
+        <v>2395</v>
       </c>
       <c r="D79" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2707,39 +2590,39 @@
         <v>16</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>2393</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>2395</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E80" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B81">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="C81">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="D81" t="s">
         <v>57</v>
       </c>
       <c r="E81" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2747,299 +2630,299 @@
         <v>16</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E82" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B83">
-        <v>5264</v>
+        <v>184</v>
       </c>
       <c r="C83">
-        <v>5265</v>
+        <v>185</v>
       </c>
       <c r="D83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E83" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>2321</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>2322</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B85">
-        <v>779</v>
+        <v>2321</v>
       </c>
       <c r="C85">
-        <v>780</v>
+        <v>2322</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E85" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>2321</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>2322</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E86" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>419</v>
+        <v>2321</v>
       </c>
       <c r="C87">
-        <v>421</v>
+        <v>2322</v>
       </c>
       <c r="D87" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E87" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>15553</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>15555</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E88" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B89">
-        <v>1539</v>
+        <v>15553</v>
       </c>
       <c r="C89">
-        <v>1540</v>
+        <v>15555</v>
       </c>
       <c r="D89" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E89" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>15553</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>15555</v>
       </c>
       <c r="D90" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B91">
-        <v>194</v>
+        <v>378</v>
       </c>
       <c r="C91">
-        <v>195</v>
+        <v>380</v>
       </c>
       <c r="D91" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="C92">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E92" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B93">
-        <v>633</v>
+        <v>378</v>
       </c>
       <c r="C93">
-        <v>634</v>
+        <v>380</v>
       </c>
       <c r="D93" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E93" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E94" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B95">
-        <v>1137</v>
+        <v>2270</v>
       </c>
       <c r="C95">
-        <v>1139</v>
+        <v>2272</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E95" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>2270</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>2272</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E96" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3047,39 +2930,39 @@
         <v>18</v>
       </c>
       <c r="B97">
-        <v>4414</v>
+        <v>2270</v>
       </c>
       <c r="C97">
-        <v>4416</v>
+        <v>2272</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E97" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>2010</v>
       </c>
       <c r="C98">
-        <v>9</v>
+        <v>2012</v>
       </c>
       <c r="D98" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E98" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3087,1524 +2970,1524 @@
         <v>19</v>
       </c>
       <c r="B99">
-        <v>76</v>
+        <v>2010</v>
       </c>
       <c r="C99">
-        <v>78</v>
+        <v>2012</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E99" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>2010</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>2012</v>
       </c>
       <c r="D100" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E100" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101">
-        <v>104</v>
+        <v>2010</v>
       </c>
       <c r="C101">
-        <v>105</v>
+        <v>2012</v>
       </c>
       <c r="D101" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E101" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>451</v>
       </c>
       <c r="C102">
-        <v>9</v>
+        <v>453</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E102" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B103">
-        <v>264</v>
+        <v>451</v>
       </c>
       <c r="C103">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="D103" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E103" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>451</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>453</v>
       </c>
       <c r="D104" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E104" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B105">
+        <v>850</v>
+      </c>
+      <c r="C105">
+        <v>851</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" t="s">
+        <v>121</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C105">
-        <v>175</v>
-      </c>
-      <c r="D105" t="s">
-        <v>75</v>
-      </c>
-      <c r="E105" t="s">
-        <v>140</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>850</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>851</v>
       </c>
       <c r="D106" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E106" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B107">
-        <v>164</v>
+        <v>850</v>
       </c>
       <c r="C107">
-        <v>166</v>
+        <v>851</v>
       </c>
       <c r="D107" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>850</v>
       </c>
       <c r="C108">
-        <v>9</v>
+        <v>851</v>
       </c>
       <c r="D108" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E108" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B109">
-        <v>111</v>
+        <v>756</v>
       </c>
       <c r="C109">
-        <v>114</v>
+        <v>757</v>
       </c>
       <c r="D109" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>756</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="D110" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E110" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B111">
-        <v>450</v>
+        <v>756</v>
       </c>
       <c r="C111">
-        <v>452</v>
+        <v>757</v>
       </c>
       <c r="D111" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E111" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B112">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="C112">
-        <v>452</v>
+        <v>168</v>
       </c>
       <c r="D112" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E112" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B113">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="C113">
-        <v>452</v>
+        <v>168</v>
       </c>
       <c r="D113" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E113" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B114">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="C114">
-        <v>452</v>
+        <v>168</v>
       </c>
       <c r="D114" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E114" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B115">
-        <v>469</v>
+        <v>818</v>
       </c>
       <c r="C115">
-        <v>470</v>
+        <v>820</v>
       </c>
       <c r="D115" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E115" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B116">
-        <v>469</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>470</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E116" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B117">
-        <v>469</v>
+        <v>184</v>
       </c>
       <c r="C117">
-        <v>470</v>
+        <v>185</v>
       </c>
       <c r="D117" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E117" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
         <v>9</v>
       </c>
-      <c r="B118">
-        <v>194</v>
-      </c>
-      <c r="C118">
-        <v>195</v>
-      </c>
       <c r="D118" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E118" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B119">
-        <v>194</v>
+        <v>2321</v>
       </c>
       <c r="C119">
-        <v>195</v>
+        <v>2322</v>
       </c>
       <c r="D119" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E119" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
         <v>9</v>
       </c>
-      <c r="B120">
-        <v>194</v>
-      </c>
-      <c r="C120">
-        <v>195</v>
-      </c>
       <c r="D120" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E120" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B121">
-        <v>194</v>
+        <v>378</v>
       </c>
       <c r="C121">
-        <v>195</v>
+        <v>380</v>
       </c>
       <c r="D121" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E121" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
         <v>9</v>
       </c>
-      <c r="B122">
-        <v>281</v>
-      </c>
-      <c r="C122">
-        <v>282</v>
-      </c>
       <c r="D122" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E122" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B123">
-        <v>281</v>
+        <v>451</v>
       </c>
       <c r="C123">
-        <v>282</v>
+        <v>453</v>
       </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E123" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
         <v>9</v>
       </c>
-      <c r="B124">
-        <v>281</v>
-      </c>
-      <c r="C124">
-        <v>282</v>
-      </c>
       <c r="D124" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E124" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B125">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="C125">
-        <v>9</v>
+        <v>851</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E125" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B126">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126">
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E126" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B127">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="C127">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="D127" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E127" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E128" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B129">
-        <v>475</v>
+        <v>2592</v>
       </c>
       <c r="C129">
-        <v>477</v>
+        <v>2593</v>
       </c>
       <c r="D129" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E129" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B130">
-        <v>475</v>
+        <v>2592</v>
       </c>
       <c r="C130">
-        <v>477</v>
+        <v>2593</v>
       </c>
       <c r="D130" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E130" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B131">
-        <v>475</v>
+        <v>2592</v>
       </c>
       <c r="C131">
-        <v>477</v>
+        <v>2593</v>
       </c>
       <c r="D131" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E131" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B132">
-        <v>194</v>
+        <v>2592</v>
       </c>
       <c r="C132">
-        <v>195</v>
+        <v>2593</v>
       </c>
       <c r="D132" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E132" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B133">
-        <v>194</v>
+        <v>818</v>
       </c>
       <c r="C133">
-        <v>195</v>
+        <v>820</v>
       </c>
       <c r="D133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E133" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B134">
-        <v>194</v>
+        <v>818</v>
       </c>
       <c r="C134">
-        <v>195</v>
+        <v>820</v>
       </c>
       <c r="D134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E134" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B135">
-        <v>194</v>
+        <v>818</v>
       </c>
       <c r="C135">
-        <v>195</v>
+        <v>820</v>
       </c>
       <c r="D135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E135" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B136">
-        <v>281</v>
+        <v>2393</v>
       </c>
       <c r="C136">
-        <v>282</v>
+        <v>2395</v>
       </c>
       <c r="D136" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E136" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B137">
-        <v>281</v>
+        <v>2393</v>
       </c>
       <c r="C137">
-        <v>282</v>
+        <v>2395</v>
       </c>
       <c r="D137" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E137" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B138">
-        <v>281</v>
+        <v>2393</v>
       </c>
       <c r="C138">
-        <v>282</v>
+        <v>2395</v>
       </c>
       <c r="D138" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E138" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B139">
-        <v>17842</v>
+        <v>2393</v>
       </c>
       <c r="C139">
-        <v>17843</v>
+        <v>2395</v>
       </c>
       <c r="D139" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E139" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B140">
-        <v>17842</v>
+        <v>184</v>
       </c>
       <c r="C140">
-        <v>17843</v>
+        <v>185</v>
       </c>
       <c r="D140" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E140" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B141">
-        <v>17842</v>
+        <v>184</v>
       </c>
       <c r="C141">
-        <v>17843</v>
+        <v>185</v>
       </c>
       <c r="D141" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E141" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B142">
-        <v>17842</v>
+        <v>184</v>
       </c>
       <c r="C142">
-        <v>17843</v>
+        <v>185</v>
       </c>
       <c r="D142" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E142" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B143">
-        <v>1857</v>
+        <v>378</v>
       </c>
       <c r="C143">
-        <v>1859</v>
+        <v>380</v>
       </c>
       <c r="D143" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E143" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B144">
-        <v>1857</v>
+        <v>378</v>
       </c>
       <c r="C144">
-        <v>1859</v>
+        <v>380</v>
       </c>
       <c r="D144" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E144" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B145">
-        <v>1857</v>
+        <v>378</v>
       </c>
       <c r="C145">
-        <v>1859</v>
+        <v>380</v>
       </c>
       <c r="D145" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E145" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B146">
-        <v>26</v>
+        <v>378</v>
       </c>
       <c r="C146">
-        <v>27</v>
+        <v>380</v>
       </c>
       <c r="D146" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E146" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B147">
-        <v>26</v>
+        <v>2270</v>
       </c>
       <c r="C147">
-        <v>27</v>
+        <v>2272</v>
       </c>
       <c r="D147" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E147" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B148">
-        <v>26</v>
+        <v>2270</v>
       </c>
       <c r="C148">
-        <v>27</v>
+        <v>2272</v>
       </c>
       <c r="D148" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E148" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B149">
-        <v>26</v>
+        <v>2270</v>
       </c>
       <c r="C149">
-        <v>27</v>
+        <v>2272</v>
       </c>
       <c r="D149" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E149" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B150">
-        <v>474</v>
+        <v>278</v>
       </c>
       <c r="C150">
-        <v>476</v>
+        <v>280</v>
       </c>
       <c r="D150" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E150" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B151">
-        <v>474</v>
+        <v>278</v>
       </c>
       <c r="C151">
-        <v>476</v>
+        <v>280</v>
       </c>
       <c r="D151" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E151" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B152">
-        <v>474</v>
+        <v>278</v>
       </c>
       <c r="C152">
-        <v>476</v>
+        <v>280</v>
       </c>
       <c r="D152" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E152" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B153">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="C153">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="D153" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E153" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B154">
-        <v>116</v>
+        <v>1842</v>
       </c>
       <c r="C154">
-        <v>118</v>
+        <v>1843</v>
       </c>
       <c r="D154" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E154" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B155">
-        <v>116</v>
+        <v>1842</v>
       </c>
       <c r="C155">
-        <v>118</v>
+        <v>1843</v>
       </c>
       <c r="D155" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E155" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B156">
-        <v>450</v>
+        <v>1842</v>
       </c>
       <c r="C156">
-        <v>452</v>
+        <v>1843</v>
       </c>
       <c r="D156" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E156" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B157">
-        <v>5</v>
+        <v>850</v>
       </c>
       <c r="C157">
-        <v>9</v>
+        <v>851</v>
       </c>
       <c r="D157" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E157" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B158">
-        <v>281</v>
+        <v>850</v>
       </c>
       <c r="C158">
-        <v>282</v>
+        <v>851</v>
       </c>
       <c r="D158" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E158" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>850</v>
       </c>
       <c r="C159">
-        <v>9</v>
+        <v>851</v>
       </c>
       <c r="D159" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E159" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B160">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>851</v>
       </c>
       <c r="D160" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E160" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B161">
-        <v>5</v>
+        <v>756</v>
       </c>
       <c r="C161">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="D161" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E161" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B162">
-        <v>281</v>
+        <v>756</v>
       </c>
       <c r="C162">
-        <v>282</v>
+        <v>757</v>
       </c>
       <c r="D162" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E162" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>756</v>
       </c>
       <c r="C163">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="D163" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E163" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B164">
-        <v>1857</v>
+        <v>273</v>
       </c>
       <c r="C164">
-        <v>1859</v>
+        <v>274</v>
       </c>
       <c r="D164" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E164" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>273</v>
       </c>
       <c r="C165">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="D165" t="s">
         <v>69</v>
       </c>
       <c r="E165" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B166">
-        <v>474</v>
+        <v>273</v>
       </c>
       <c r="C166">
-        <v>476</v>
+        <v>274</v>
       </c>
       <c r="D166" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E166" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>273</v>
       </c>
       <c r="C167">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="D167" t="s">
         <v>69</v>
       </c>
       <c r="E167" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B168">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C168">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D168" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E168" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B169">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C169">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D169" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E169" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B170">
-        <v>368</v>
+        <v>98</v>
       </c>
       <c r="C170">
-        <v>369</v>
+        <v>100</v>
       </c>
       <c r="D170" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E170" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B171">
-        <v>5</v>
+        <v>332</v>
       </c>
       <c r="C171">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="D171" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E171" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B172">
-        <v>4490</v>
+        <v>332</v>
       </c>
       <c r="C172">
-        <v>4492</v>
+        <v>334</v>
       </c>
       <c r="D172" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E172" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B173">
-        <v>5</v>
+        <v>332</v>
       </c>
       <c r="C173">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="D173" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E173" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B174">
-        <v>430</v>
+        <v>818</v>
       </c>
       <c r="C174">
-        <v>432</v>
+        <v>820</v>
       </c>
       <c r="D174" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E174" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B175">
         <v>5</v>
@@ -4613,38 +4496,38 @@
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E175" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B176">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="C176">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="D176" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E176" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B177">
         <v>5</v>
@@ -4653,38 +4536,38 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E177" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B178">
-        <v>424</v>
+        <v>2270</v>
       </c>
       <c r="C178">
-        <v>426</v>
+        <v>2272</v>
       </c>
       <c r="D178" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E178" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B179">
         <v>5</v>
@@ -4693,38 +4576,38 @@
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E179" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B180">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="C180">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="D180" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E180" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B181">
         <v>5</v>
@@ -4733,2413 +4616,2413 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E181" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B182">
-        <v>569</v>
+        <v>850</v>
       </c>
       <c r="C182">
-        <v>571</v>
+        <v>851</v>
       </c>
       <c r="D182" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E182" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B183">
-        <v>569</v>
+        <v>5</v>
       </c>
       <c r="C183">
-        <v>571</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E183" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B184">
-        <v>569</v>
+        <v>273</v>
       </c>
       <c r="C184">
-        <v>571</v>
+        <v>274</v>
       </c>
       <c r="D184" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E184" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B185">
-        <v>569</v>
+        <v>5</v>
       </c>
       <c r="C185">
-        <v>571</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E185" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B186">
-        <v>1217</v>
+        <v>332</v>
       </c>
       <c r="C186">
-        <v>1218</v>
+        <v>334</v>
       </c>
       <c r="D186" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E186" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B187">
-        <v>1217</v>
+        <v>5</v>
       </c>
       <c r="C187">
-        <v>1218</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="E187" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B188">
-        <v>1217</v>
+        <v>137</v>
       </c>
       <c r="C188">
-        <v>1218</v>
+        <v>139</v>
       </c>
       <c r="D188" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E188" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B189">
-        <v>13848</v>
+        <v>137</v>
       </c>
       <c r="C189">
-        <v>13849</v>
+        <v>139</v>
       </c>
       <c r="D189" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E189" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B190">
-        <v>13848</v>
+        <v>137</v>
       </c>
       <c r="C190">
-        <v>13849</v>
+        <v>139</v>
       </c>
       <c r="D190" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E190" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B191">
-        <v>13848</v>
+        <v>137</v>
       </c>
       <c r="C191">
-        <v>13849</v>
+        <v>139</v>
       </c>
       <c r="D191" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E191" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B192">
-        <v>13848</v>
+        <v>1227</v>
       </c>
       <c r="C192">
-        <v>13849</v>
+        <v>1228</v>
       </c>
       <c r="D192" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E192" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B193">
-        <v>4124</v>
+        <v>1227</v>
       </c>
       <c r="C193">
-        <v>4125</v>
+        <v>1228</v>
       </c>
       <c r="D193" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E193" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B194">
-        <v>4124</v>
+        <v>1227</v>
       </c>
       <c r="C194">
-        <v>4125</v>
+        <v>1228</v>
       </c>
       <c r="D194" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E194" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B195">
-        <v>4124</v>
+        <v>14</v>
       </c>
       <c r="C195">
-        <v>4125</v>
+        <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E195" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B196">
-        <v>1344</v>
+        <v>14</v>
       </c>
       <c r="C196">
-        <v>1346</v>
+        <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E196" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B197">
-        <v>1344</v>
+        <v>14</v>
       </c>
       <c r="C197">
-        <v>1346</v>
+        <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E197" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B198">
-        <v>1344</v>
+        <v>14</v>
       </c>
       <c r="C198">
-        <v>1346</v>
+        <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E198" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B199">
-        <v>1344</v>
+        <v>133</v>
       </c>
       <c r="C199">
-        <v>1346</v>
+        <v>135</v>
       </c>
       <c r="D199" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E199" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B200">
-        <v>344</v>
+        <v>133</v>
       </c>
       <c r="C200">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="D200" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E200" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B201">
-        <v>344</v>
+        <v>133</v>
       </c>
       <c r="C201">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="D201" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E201" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B202">
-        <v>344</v>
+        <v>95</v>
       </c>
       <c r="C202">
-        <v>346</v>
+        <v>97</v>
       </c>
       <c r="D202" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E202" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B203">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C203">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D203" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E203" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B204">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C204">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D204" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E204" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B205">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C205">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D205" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E205" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B206">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C206">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D206" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E206" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B207">
-        <v>5109</v>
+        <v>61</v>
       </c>
       <c r="C207">
-        <v>5111</v>
+        <v>63</v>
       </c>
       <c r="D207" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E207" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B208">
-        <v>5109</v>
+        <v>61</v>
       </c>
       <c r="C208">
-        <v>5111</v>
+        <v>63</v>
       </c>
       <c r="D208" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E208" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B209">
-        <v>5109</v>
+        <v>5264</v>
       </c>
       <c r="C209">
-        <v>5111</v>
+        <v>5265</v>
       </c>
       <c r="D209" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E209" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B210">
-        <v>1770</v>
+        <v>5264</v>
       </c>
       <c r="C210">
-        <v>1771</v>
+        <v>5265</v>
       </c>
       <c r="D210" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="E210" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B211">
-        <v>1770</v>
+        <v>5264</v>
       </c>
       <c r="C211">
-        <v>1771</v>
+        <v>5265</v>
       </c>
       <c r="D211" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="E211" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B212">
-        <v>1770</v>
+        <v>5264</v>
       </c>
       <c r="C212">
-        <v>1771</v>
+        <v>5265</v>
       </c>
       <c r="D212" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="E212" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B213">
-        <v>1770</v>
+        <v>23845</v>
       </c>
       <c r="C213">
-        <v>1771</v>
+        <v>23846</v>
       </c>
       <c r="D213" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E213" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B214">
-        <v>168</v>
+        <v>23845</v>
       </c>
       <c r="C214">
-        <v>169</v>
+        <v>23846</v>
       </c>
       <c r="D214" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E214" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B215">
-        <v>168</v>
+        <v>23845</v>
       </c>
       <c r="C215">
-        <v>169</v>
+        <v>23846</v>
       </c>
       <c r="D215" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E215" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B216">
-        <v>168</v>
+        <v>3383</v>
       </c>
       <c r="C216">
-        <v>169</v>
+        <v>3384</v>
       </c>
       <c r="D216" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E216" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B217">
-        <v>194</v>
+        <v>3383</v>
       </c>
       <c r="C217">
-        <v>195</v>
+        <v>3384</v>
       </c>
       <c r="D217" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E217" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B218">
-        <v>194</v>
+        <v>3383</v>
       </c>
       <c r="C218">
-        <v>195</v>
+        <v>3384</v>
       </c>
       <c r="D218" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E218" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B219">
-        <v>194</v>
+        <v>3383</v>
       </c>
       <c r="C219">
-        <v>195</v>
+        <v>3384</v>
       </c>
       <c r="D219" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E219" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B220">
-        <v>194</v>
+        <v>984</v>
       </c>
       <c r="C220">
-        <v>195</v>
+        <v>986</v>
       </c>
       <c r="D220" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E220" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B221">
-        <v>281</v>
+        <v>984</v>
       </c>
       <c r="C221">
-        <v>282</v>
+        <v>986</v>
       </c>
       <c r="D221" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E221" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B222">
-        <v>281</v>
+        <v>984</v>
       </c>
       <c r="C222">
-        <v>282</v>
+        <v>986</v>
       </c>
       <c r="D222" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E222" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B223">
-        <v>281</v>
+        <v>2451</v>
       </c>
       <c r="C223">
-        <v>282</v>
+        <v>2453</v>
       </c>
       <c r="D223" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E223" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B224">
-        <v>411</v>
+        <v>2451</v>
       </c>
       <c r="C224">
-        <v>413</v>
+        <v>2453</v>
       </c>
       <c r="D224" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E224" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B225">
-        <v>411</v>
+        <v>2451</v>
       </c>
       <c r="C225">
-        <v>413</v>
+        <v>2453</v>
       </c>
       <c r="D225" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E225" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B226">
-        <v>411</v>
+        <v>2451</v>
       </c>
       <c r="C226">
-        <v>413</v>
+        <v>2453</v>
       </c>
       <c r="D226" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E226" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B227">
-        <v>411</v>
+        <v>3349</v>
       </c>
       <c r="C227">
-        <v>413</v>
+        <v>3351</v>
       </c>
       <c r="D227" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E227" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B228">
-        <v>240</v>
+        <v>3349</v>
       </c>
       <c r="C228">
-        <v>242</v>
+        <v>3351</v>
       </c>
       <c r="D228" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E228" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B229">
-        <v>240</v>
+        <v>3349</v>
       </c>
       <c r="C229">
-        <v>242</v>
+        <v>3351</v>
       </c>
       <c r="D229" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E229" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B230">
-        <v>240</v>
+        <v>17842</v>
       </c>
       <c r="C230">
-        <v>242</v>
+        <v>17843</v>
       </c>
       <c r="D230" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="E230" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B231">
-        <v>267</v>
+        <v>17842</v>
       </c>
       <c r="C231">
-        <v>270</v>
+        <v>17843</v>
       </c>
       <c r="D231" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E231" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B232">
-        <v>267</v>
+        <v>17842</v>
       </c>
       <c r="C232">
-        <v>270</v>
+        <v>17843</v>
       </c>
       <c r="D232" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E232" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B233">
-        <v>267</v>
+        <v>17842</v>
       </c>
       <c r="C233">
-        <v>270</v>
+        <v>17843</v>
       </c>
       <c r="D233" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E233" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B234">
-        <v>1217</v>
+        <v>1857</v>
       </c>
       <c r="C234">
-        <v>1218</v>
+        <v>1859</v>
       </c>
       <c r="D234" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E234" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B235">
-        <v>5</v>
+        <v>1857</v>
       </c>
       <c r="C235">
-        <v>9</v>
+        <v>1859</v>
       </c>
       <c r="D235" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E235" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B236">
-        <v>13848</v>
+        <v>1857</v>
       </c>
       <c r="C236">
-        <v>13849</v>
+        <v>1859</v>
       </c>
       <c r="D236" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="E236" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B237">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="C237">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="D237" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E237" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B238">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C238">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="D238" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E238" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B239">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="C239">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="D239" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E239" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B240">
-        <v>53</v>
+        <v>315</v>
       </c>
       <c r="C240">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="D240" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E240" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>4836</v>
       </c>
       <c r="C241">
-        <v>9</v>
+        <v>4838</v>
       </c>
       <c r="D241" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E241" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B242">
-        <v>1770</v>
+        <v>4836</v>
       </c>
       <c r="C242">
-        <v>1771</v>
+        <v>4838</v>
       </c>
       <c r="D242" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E242" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B243">
-        <v>5</v>
+        <v>4836</v>
       </c>
       <c r="C243">
-        <v>9</v>
+        <v>4838</v>
       </c>
       <c r="D243" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E243" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B244">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="C244">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="D244" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E244" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B245">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="C245">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="D245" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E245" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B246">
-        <v>411</v>
+        <v>230</v>
       </c>
       <c r="C246">
-        <v>413</v>
+        <v>232</v>
       </c>
       <c r="D246" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E246" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B247">
-        <v>5</v>
+        <v>1227</v>
       </c>
       <c r="C247">
-        <v>9</v>
+        <v>1228</v>
       </c>
       <c r="D247" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E247" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B248">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="C248">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="E248" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="C249">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D249" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E249" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B250">
-        <v>3510</v>
+        <v>5</v>
       </c>
       <c r="C250">
-        <v>3511</v>
+        <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="E250" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B251">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C251">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D251" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E251" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B252">
-        <v>267</v>
+        <v>5</v>
       </c>
       <c r="C252">
-        <v>270</v>
+        <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E252" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B253">
-        <v>5</v>
+        <v>23845</v>
       </c>
       <c r="C253">
-        <v>9</v>
+        <v>23846</v>
       </c>
       <c r="D253" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E253" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B254">
-        <v>1116</v>
+        <v>5</v>
       </c>
       <c r="C254">
-        <v>1118</v>
+        <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="E254" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B255">
-        <v>1116</v>
+        <v>984</v>
       </c>
       <c r="C255">
-        <v>1118</v>
+        <v>986</v>
       </c>
       <c r="D255" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E255" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B256">
-        <v>1116</v>
+        <v>5</v>
       </c>
       <c r="C256">
-        <v>1118</v>
+        <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="E256" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B257">
-        <v>1116</v>
+        <v>3349</v>
       </c>
       <c r="C257">
-        <v>1118</v>
+        <v>3351</v>
       </c>
       <c r="D257" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E257" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B258">
-        <v>1291</v>
+        <v>5</v>
       </c>
       <c r="C258">
-        <v>1292</v>
+        <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E258" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B259">
-        <v>1291</v>
+        <v>1857</v>
       </c>
       <c r="C259">
-        <v>1292</v>
+        <v>1859</v>
       </c>
       <c r="D259" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="E259" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B260">
-        <v>1291</v>
+        <v>5</v>
       </c>
       <c r="C260">
-        <v>1292</v>
+        <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E260" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B261">
-        <v>1770</v>
+        <v>4836</v>
       </c>
       <c r="C261">
-        <v>1771</v>
+        <v>4838</v>
       </c>
       <c r="D261" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E261" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B262">
-        <v>1770</v>
+        <v>5</v>
       </c>
       <c r="C262">
-        <v>1771</v>
+        <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E262" t="s">
+        <v>110</v>
+      </c>
+      <c r="F262" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B263">
-        <v>1770</v>
+        <v>230</v>
       </c>
       <c r="C263">
-        <v>1771</v>
+        <v>232</v>
       </c>
       <c r="D263" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E263" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B264">
-        <v>1770</v>
+        <v>5</v>
       </c>
       <c r="C264">
-        <v>1771</v>
+        <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E264" t="s">
+        <v>110</v>
+      </c>
+      <c r="F264" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B265">
-        <v>168</v>
+        <v>1998</v>
       </c>
       <c r="C265">
-        <v>169</v>
+        <v>1999</v>
       </c>
       <c r="D265" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E265" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B266">
-        <v>168</v>
+        <v>1998</v>
       </c>
       <c r="C266">
-        <v>169</v>
+        <v>1999</v>
       </c>
       <c r="D266" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E266" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B267">
-        <v>168</v>
+        <v>1998</v>
       </c>
       <c r="C267">
-        <v>169</v>
+        <v>1999</v>
       </c>
       <c r="D267" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E267" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B268">
-        <v>770</v>
+        <v>1998</v>
       </c>
       <c r="C268">
-        <v>772</v>
+        <v>1999</v>
       </c>
       <c r="D268" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E268" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B269">
-        <v>770</v>
+        <v>148</v>
       </c>
       <c r="C269">
-        <v>772</v>
+        <v>149</v>
       </c>
       <c r="D269" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E269" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B270">
-        <v>770</v>
+        <v>148</v>
       </c>
       <c r="C270">
-        <v>772</v>
+        <v>149</v>
       </c>
       <c r="D270" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E270" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B271">
-        <v>770</v>
+        <v>148</v>
       </c>
       <c r="C271">
-        <v>772</v>
+        <v>149</v>
       </c>
       <c r="D271" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E271" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B272">
-        <v>3220</v>
+        <v>514</v>
       </c>
       <c r="C272">
-        <v>3221</v>
+        <v>515</v>
       </c>
       <c r="D272" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E272" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B273">
-        <v>3220</v>
+        <v>514</v>
       </c>
       <c r="C273">
-        <v>3221</v>
+        <v>515</v>
       </c>
       <c r="D273" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E273" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B274">
-        <v>3220</v>
+        <v>514</v>
       </c>
       <c r="C274">
-        <v>3221</v>
+        <v>515</v>
       </c>
       <c r="D274" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E274" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B275">
-        <v>88</v>
+        <v>514</v>
       </c>
       <c r="C275">
-        <v>89</v>
+        <v>515</v>
       </c>
       <c r="D275" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E275" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B276">
+        <v>5551</v>
+      </c>
+      <c r="C276">
+        <v>5552</v>
+      </c>
+      <c r="D276" t="s">
         <v>88</v>
       </c>
-      <c r="C276">
-        <v>89</v>
-      </c>
-      <c r="D276" t="s">
-        <v>110</v>
-      </c>
       <c r="E276" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B277">
+        <v>5551</v>
+      </c>
+      <c r="C277">
+        <v>5552</v>
+      </c>
+      <c r="D277" t="s">
         <v>88</v>
       </c>
-      <c r="C277">
-        <v>89</v>
-      </c>
-      <c r="D277" t="s">
-        <v>110</v>
-      </c>
       <c r="E277" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B278">
+        <v>5551</v>
+      </c>
+      <c r="C278">
+        <v>5552</v>
+      </c>
+      <c r="D278" t="s">
         <v>88</v>
       </c>
-      <c r="C278">
-        <v>89</v>
-      </c>
-      <c r="D278" t="s">
-        <v>110</v>
-      </c>
       <c r="E278" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B279">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="C279">
-        <v>93</v>
+        <v>330</v>
       </c>
       <c r="D279" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E279" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B280">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="C280">
-        <v>93</v>
+        <v>330</v>
       </c>
       <c r="D280" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E280" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B281">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="C281">
-        <v>93</v>
+        <v>330</v>
       </c>
       <c r="D281" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E281" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B282">
-        <v>4494</v>
+        <v>328</v>
       </c>
       <c r="C282">
-        <v>4496</v>
+        <v>330</v>
       </c>
       <c r="D282" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E282" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B283">
-        <v>4494</v>
+        <v>9577</v>
       </c>
       <c r="C283">
-        <v>4496</v>
+        <v>9578</v>
       </c>
       <c r="D283" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E283" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B284">
-        <v>4494</v>
+        <v>9577</v>
       </c>
       <c r="C284">
-        <v>4496</v>
+        <v>9578</v>
       </c>
       <c r="D284" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E284" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B285">
-        <v>4494</v>
+        <v>9577</v>
       </c>
       <c r="C285">
-        <v>4496</v>
+        <v>9578</v>
       </c>
       <c r="D285" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E285" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B286">
-        <v>5445</v>
+        <v>9236</v>
       </c>
       <c r="C286">
-        <v>5446</v>
+        <v>9237</v>
       </c>
       <c r="D286" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E286" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B287">
-        <v>5445</v>
+        <v>9236</v>
       </c>
       <c r="C287">
-        <v>5446</v>
+        <v>9237</v>
       </c>
       <c r="D287" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E287" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B288">
-        <v>5445</v>
+        <v>9236</v>
       </c>
       <c r="C288">
-        <v>5446</v>
+        <v>9237</v>
       </c>
       <c r="D288" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E288" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B289">
-        <v>6081</v>
+        <v>9236</v>
       </c>
       <c r="C289">
-        <v>6083</v>
+        <v>9237</v>
       </c>
       <c r="D289" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E289" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B290">
-        <v>6081</v>
+        <v>85</v>
       </c>
       <c r="C290">
-        <v>6083</v>
+        <v>87</v>
       </c>
       <c r="D290" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E290" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B291">
-        <v>6081</v>
+        <v>85</v>
       </c>
       <c r="C291">
-        <v>6083</v>
+        <v>87</v>
       </c>
       <c r="D291" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E291" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B292">
-        <v>6081</v>
+        <v>85</v>
       </c>
       <c r="C292">
-        <v>6083</v>
+        <v>87</v>
       </c>
       <c r="D292" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E292" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B293">
-        <v>104</v>
+        <v>2262</v>
       </c>
       <c r="C293">
-        <v>105</v>
+        <v>2263</v>
       </c>
       <c r="D293" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E293" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B294">
-        <v>104</v>
+        <v>2262</v>
       </c>
       <c r="C294">
-        <v>105</v>
+        <v>2263</v>
       </c>
       <c r="D294" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E294" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B295">
-        <v>104</v>
+        <v>2262</v>
       </c>
       <c r="C295">
-        <v>105</v>
+        <v>2263</v>
       </c>
       <c r="D295" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E295" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B296">
-        <v>557</v>
+        <v>2262</v>
       </c>
       <c r="C296">
-        <v>559</v>
+        <v>2263</v>
       </c>
       <c r="D296" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E296" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B297">
-        <v>557</v>
+        <v>3856</v>
       </c>
       <c r="C297">
-        <v>559</v>
+        <v>3857</v>
       </c>
       <c r="D297" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E297" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B298">
-        <v>557</v>
+        <v>3856</v>
       </c>
       <c r="C298">
-        <v>559</v>
+        <v>3857</v>
       </c>
       <c r="D298" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E298" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B299">
-        <v>1291</v>
+        <v>3856</v>
       </c>
       <c r="C299">
-        <v>1292</v>
+        <v>3857</v>
       </c>
       <c r="D299" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E299" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B300">
-        <v>5</v>
+        <v>1721</v>
       </c>
       <c r="C300">
-        <v>9</v>
+        <v>1722</v>
       </c>
       <c r="D300" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E300" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B301">
-        <v>1770</v>
+        <v>1721</v>
       </c>
       <c r="C301">
-        <v>1771</v>
+        <v>1722</v>
       </c>
       <c r="D301" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E301" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Test.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="428">
   <si>
     <t>search_string</t>
   </si>
@@ -130,46 +130,109 @@
     <t>mensen</t>
   </si>
   <si>
-    <t>net zoals in het seizoen van</t>
-  </si>
-  <si>
-    <t>van over hele de wereld</t>
-  </si>
-  <si>
-    <t>hem en dit zou wel eens al mijn vooroordelen waarin ik vaak heb gedacht wat moeten we met</t>
-  </si>
-  <si>
-    <t>nee waar ging het mis ging de wel stimuleren het was nog een vraag wat ze dan eerdere plicht</t>
-  </si>
-  <si>
-    <t>zou ik in een aantal settings meer willen testen</t>
-  </si>
-  <si>
-    <t>als je zegt dat iets hoe dan ook zou toenemen ja uit de glazen bol</t>
-  </si>
-  <si>
-    <t>die stap houdt in dat er bij de opkoopregeling twee tranches zijn</t>
-  </si>
-  <si>
-    <t>de kamer gehoord de beraadslaging constaterende dat de regering per</t>
-  </si>
-  <si>
-    <t>geld niet ter wat er nou zegt nu dat kan eigenlijk niet</t>
-  </si>
-  <si>
-    <t>mensen die mijn videos kijken niet geabonneerd zijn op mijn kanaal en mocht je nou denken van ja</t>
-  </si>
-  <si>
-    <t>wat zaken voor gerealiseerd</t>
-  </si>
-  <si>
-    <t>ik heb daar geen motief voor</t>
-  </si>
-  <si>
-    <t>verantwoordelijkheid bij de eu terechtkomt</t>
-  </si>
-  <si>
-    <t>achter de corona informatielijn zaten studenten op de coronapoli hielpen ze mee met het afnemen van testen</t>
+    <t>en merk je dat je weer kunt genieten van je leven</t>
+  </si>
+  <si>
+    <t>om de kwaliteit van je producten te garanderen</t>
+  </si>
+  <si>
+    <t>ik binnen een halfjaar een woning had terwijl daar zijn heel veel vrienden van</t>
+  </si>
+  <si>
+    <t>nou linda oh ja het hangt echt heel erg van het moment af dus op sommige moment momenten denk</t>
+  </si>
+  <si>
+    <t>ik vind het echt onverstandig want daarmee beschadig je ook de naam van het rivm</t>
+  </si>
+  <si>
+    <t>en wat verplegenden en verzorgenden samen met directies en leidinggevenden</t>
+  </si>
+  <si>
+    <t>dus wat zijn een soort van immuniteitsfactoren en en wat zijn nou factoren die organisaties extra</t>
+  </si>
+  <si>
+    <t>gezegd niet weten waarom het nu ineens wel goed zou gaan afloop ja dus dat dat dat wat wat voor</t>
+  </si>
+  <si>
+    <t>nou ben ik benieuwd wat de volgende is</t>
+  </si>
+  <si>
+    <t>ik wilde nog even noemen oh ja in verband met die bidt kan treasuries wat daar volgens mij</t>
+  </si>
+  <si>
+    <t>dat zou ik graag aan u willen geven</t>
+  </si>
+  <si>
+    <t>zou moeten het is het logisch dat wel naar een ander nadeel dat er gebeurt</t>
+  </si>
+  <si>
+    <t>pakken dat je dat ook wel ongeveer kan zien zou dus kunnen stellen dat dit een soort van neer</t>
+  </si>
+  <si>
+    <t>antwoord maar het is ook gewoon ja de keuzes die je zou kunnen maken die bij bereid zijn om</t>
+  </si>
+  <si>
+    <t>hoe mooi zou het zijn om met u in stijl</t>
+  </si>
+  <si>
+    <t>mij graag terugzien dan zijn dat toch wel persoonlijke</t>
+  </si>
+  <si>
+    <t>dat klopt dat klopt dat mensen daarover gesproken eduard</t>
+  </si>
+  <si>
+    <t>ze dus ook dat ze hier nou als af door gekeken hebben en dat ze dus vinden dat dit niet dat ze</t>
+  </si>
+  <si>
+    <t>maar we weten dat er een grote behoefte aan vaccins is niet alleen de volgende maand maar ook nog</t>
+  </si>
+  <si>
+    <t>alleen hebben wij gezegd dat we giften zeker niet uitsluiten voor de zuidelijke landen</t>
+  </si>
+  <si>
+    <t>in het centrumgebouw vinden wat zit daar allemaal nou daar zijn daar zijn zwembad activiteiten de</t>
+  </si>
+  <si>
+    <t>of zo ze hebben nou eenmaal wat je maximaal</t>
+  </si>
+  <si>
+    <t>merken we even een vraag tussendoor want wat is nou het doel van de snel als alle engel als zijn</t>
+  </si>
+  <si>
+    <t>nou ze hebben daar volop tips en ervaringen met elkaar over uitgewisseld</t>
+  </si>
+  <si>
+    <t>ja dat is absoluut waar nou ja je noemde het al de bezoekregeling in de verpleeghuizen</t>
+  </si>
+  <si>
+    <t>weet je het is niet voor niets dat cliëntenbelang amsterdam mij</t>
+  </si>
+  <si>
+    <t>voor nu wens ik jullie alvast een hele fijne avond en wie weet tot morgen of misschien tot straks</t>
+  </si>
+  <si>
+    <t>en verwarm de oven voor op</t>
+  </si>
+  <si>
+    <t>ik ben nena en ik ben teamleider van de afdeling behandeling ik zorg er eigenlijk voor dat de</t>
+  </si>
+  <si>
+    <t>ondanks dat ik wist dat ze voor mij veel betekende</t>
+  </si>
+  <si>
+    <t>toch wel de wens is om nog even erbij te gaan zitten om even te</t>
+  </si>
+  <si>
+    <t>we nemen ook allemaal de drang vanuit de eu waar om eigenstandig belasting te gaan heffen via</t>
+  </si>
+  <si>
+    <t>waar ik naartoe zou kunnen dus wat doe ik ik ga van de maartenskliniek</t>
+  </si>
+  <si>
+    <t>ook prachtig kwam de dag dat we</t>
+  </si>
+  <si>
+    <t>de volgende stap is de komkommer</t>
   </si>
   <si>
     <t>maar ik heb wel beter nagedacht van wat zou dat nou voor de efteling kunnen zijn</t>
@@ -178,325 +241,760 @@
     <t>repeat_again</t>
   </si>
   <si>
-    <t>jaar en niet heel realistisch zijn geworden over techniek in het onderwijs en dat betekent</t>
-  </si>
-  <si>
-    <t>cultureel echt serieus meedeed en je ziet ook dat later in de negentiende eeuw</t>
-  </si>
-  <si>
-    <t>beurs trooststraat en evertsenweg tuin van daarom zijn we</t>
-  </si>
-  <si>
-    <t>en we kunnen in de photobooth</t>
-  </si>
-  <si>
-    <t>de uitdaging van het daar moeten leven als gendernormdoorbrekend persoon nog steeds</t>
-  </si>
-  <si>
-    <t>voorzitter ik ben blij dat iedereen daar vol belangstelling naar uitkijkt</t>
-  </si>
-  <si>
-    <t>wie weet komt er ooit weer verbetering je weet het niet hé we gaan het nu hebben</t>
-  </si>
-  <si>
-    <t>hebben allemaal wel de essentie van het vrouwen kunnen begrijpen en als ook</t>
-  </si>
-  <si>
-    <t>van het overzicht van ook andere campings meegestuurd wij liggen daar zoals u zelf</t>
-  </si>
-  <si>
-    <t>en wij doen nog een rondje goed plan</t>
-  </si>
-  <si>
-    <t>dan zie je ook vaak dat ze rond een thema of rond een plek geordend zijn en dat heeft</t>
-  </si>
-  <si>
-    <t>en ik heb nog een nieuwtje de horekadobon</t>
+    <t>opnieuw bedraad net mening de normale tot begint in de bioscoop en dat ik dan wat meteen opvalt</t>
+  </si>
+  <si>
+    <t>gedaan naar de vraag in hoeverre de ambities en doelen uit het integraal veiligheidsplan zijn</t>
+  </si>
+  <si>
+    <t>junk ja dan kun je vanaf worden geholpen en en je ziet dat ook gebeuren bij deutsche dus dood</t>
+  </si>
+  <si>
+    <t>en het is eigenlijk het ideale plekje om je oude dag door te brengen we zullen het zo maar noemen</t>
+  </si>
+  <si>
+    <t>wij zochten naar iets groters wij woonden op een boot in amsterdam en dat was best wel klein</t>
+  </si>
+  <si>
+    <t>hier moet het gebeurt zijn we hadden wel een paar signalen</t>
+  </si>
+  <si>
+    <t>wat pvda groenlinks al aangaf we waren op basis daarvan van het college</t>
+  </si>
+  <si>
+    <t>vroeger had de kerkklok nog een andere functie die we tegenwoordig zijn vergeten</t>
+  </si>
+  <si>
+    <t>zeggen hoe vervelend we het zelf vinden dat we die wensen niet kunnen vervullen daar aandacht aan</t>
+  </si>
+  <si>
+    <t>en tegelijkertijd moeten we verder kijken hoe we de economie moeten herstellen</t>
+  </si>
+  <si>
+    <t>een staatsschuld is niet per definitie slecht en is soms zelfs nuttig maar net zoals de vvd daar nu</t>
+  </si>
+  <si>
+    <t>om daar gebruiken maar ik kan het zo dat doen</t>
+  </si>
+  <si>
+    <t>daar beperk ik me verder toe</t>
+  </si>
+  <si>
+    <t>en daar de nodige dingen aan veranderd</t>
+  </si>
+  <si>
+    <t>dat hoeft niet altijd maar als je langskomt en daar staan</t>
+  </si>
+  <si>
+    <t>de overige fases hebben wij het plan voor klaar</t>
+  </si>
+  <si>
+    <t>we hebben de taken geprobeerd te verdelen</t>
+  </si>
+  <si>
+    <t>van de partij daglicht dat we hier hebben we moeten even opletten want we komen hier op de hoofdvaarwegen op mijn aissysteem</t>
+  </si>
+  <si>
+    <t>dus die sleepten me erdoorheen en we hebben een huis gekocht dus we zijn aan het verbouwen</t>
+  </si>
+  <si>
+    <t>helpdesk hebben die en moet worden ondersteund dat ze impa structuur hebben die gemeenschappelijk</t>
+  </si>
+  <si>
+    <t>een van de mogelijkheden voor u om ons daarmee te helpen is dat wij</t>
+  </si>
+  <si>
+    <t>want dat is wel boeiend zoals wij ernaar kijken</t>
+  </si>
+  <si>
+    <t>wij besparen enorm veel kosten nu wij over zijn gegaan</t>
+  </si>
+  <si>
+    <t>wij de laatste video opname uit deze reeks dat was de eerste video waarin het grote publiek</t>
+  </si>
+  <si>
+    <t>kiezen wij ervoor om dit kabinet zijn gang te laten gaan met deze strategie</t>
+  </si>
+  <si>
+    <t>van hen die zelfs al tegen faillissement aan je muziek en inderdaad wordt dit vind ik wel een</t>
+  </si>
+  <si>
+    <t>als naar nergens een stap naar graatmager verhaal</t>
+  </si>
+  <si>
+    <t>èn een muzikant of een band moet maar net op tournee zijn in de juiste periode er komen heel veel ook geluksfactoren bij kijken of zoiets lukt</t>
+  </si>
+  <si>
+    <t>en bij voorbaat al dank en excuus voor al die momenten dat wij de komende jaren een</t>
+  </si>
+  <si>
+    <t>dit is helemaal kijk wat een berg</t>
   </si>
   <si>
     <t>en we daar hebben wij een efteling variant van gemaakt</t>
   </si>
   <si>
-    <t>kijken naar een paar beelden en ik zie je zo dadelijk weer</t>
-  </si>
-  <si>
-    <t>maar we hebben een aantal jaren geleden weer een bus opgeknapt en we zijn weer present de bus ziet er goed uit hij ziet er schitterend uit</t>
-  </si>
-  <si>
-    <t>we hebben een uurtje vooruitgeschoven en dat maakt gewoon dat jamiijn uurbeleving is heel anders</t>
-  </si>
-  <si>
-    <t>we kennen elkaar nog niet zo heel lang ja</t>
+    <t>kan weer gewoon fatsoenlijk eten maken s avonds woonkamer is rechtgetrokken en alles is wel dus</t>
+  </si>
+  <si>
+    <t>maar later achteraf zijn ze weer goed gereden</t>
+  </si>
+  <si>
+    <t>want dan mis je geen enkele melding als ik de volgende keer weer een nieuwe</t>
+  </si>
+  <si>
+    <t>ik noem ze toch maar even weer de bestuurders in de huizen</t>
+  </si>
+  <si>
+    <t>krijg je notifications als wij weer een nieuwe gave video van schildersvaktv</t>
+  </si>
+  <si>
+    <t>ik vind het hele mooie week wil ik heel graag nog wat aftrek van hele lap zoals rieten de favoriete</t>
+  </si>
+  <si>
+    <t>er is dus een heel duidelijke surplusafspraak gemaakt met de huisartsen</t>
+  </si>
+  <si>
+    <t>maar ja dan ben je wel heel lang bezig</t>
+  </si>
+  <si>
+    <t>klimaat gesprek maar de slaap die in de grond als hij paloma trekt overeind houdt u hem heel</t>
+  </si>
+  <si>
+    <t>actief als onderwaterfotograaf als professioneel onderwaterfotograaf heel veel boeken gemaakt</t>
   </si>
   <si>
     <t>het staat natuurlijk gewoon in de efteling en we hebben weer een heel leuk verhaal gebruikt</t>
   </si>
   <si>
-    <t>dat dit heeft me voor weken energie gegeven ik heb stiekem met iemand</t>
-  </si>
-  <si>
-    <t>wie maar ik vond het zo leuk dat je me een compliment gaf</t>
-  </si>
-  <si>
-    <t>ja ik vroeg me ook af wat doe je dan als je als populist zon beetje</t>
-  </si>
-  <si>
-    <t>je mentale wereld wordt kleiner je zegt je sociale verplichtingen af feestjes barbecues</t>
-  </si>
-  <si>
-    <t>de mamatobe of misschien zelfs op de papatobe met een aantal vrienden en vriendinnen dat wil</t>
-  </si>
-  <si>
-    <t>vaak op moment op mensen verhuizen naar een verpleeghuis of en woonzorgcentra</t>
-  </si>
-  <si>
-    <t>en toch zijn we dus best wel leuk maar toen was paul met de keuze ja gaan we nu investeren in</t>
-  </si>
-  <si>
-    <t>net muziekjes en zo met auteursrecht en ja qua privacy wel gewoon altijd toestemming vragen</t>
-  </si>
-  <si>
-    <t>ja ik beslis het naarmate de test vordert ik weet niet hoe goed ik die maak</t>
-  </si>
-  <si>
-    <t>talent voor hebt ja dan dan voelt het goed voor jezelf dan</t>
-  </si>
-  <si>
-    <t>dan komen we misschien wel langs om een filmpje te maken</t>
-  </si>
-  <si>
-    <t>volgen en komen door die apps zij een andere christen niet juist in gevaar christenen worden</t>
+    <t>dit een mannelijke voor zodat er een beetje voor een beetje vervelend zeg maar ik me veel</t>
+  </si>
+  <si>
+    <t>u doet nogal wat uitspraken dus dan lijkt het me heel duidelijk</t>
+  </si>
+  <si>
+    <t>het is niet als een garantie dus dat geeft me</t>
+  </si>
+  <si>
+    <t>wie weet het lijkt me ook goed om een keer te horen van gehandicapte jongeren</t>
+  </si>
+  <si>
+    <t>opletten wel want het is neem me het is niet neem mij</t>
+  </si>
+  <si>
+    <t>goed omdat zo af en toe eens te laten checken maar je kunt ook natuurlijk</t>
+  </si>
+  <si>
+    <t>we lopen daarbij inderdaad af en toe tegen begrenzingen aan als het gaat om hoe je een uitruil</t>
+  </si>
+  <si>
+    <t>schitterende colleges ik weet niet waar die toe leidt we blijven in elkaars buurt je komt af en toe bericht in de uitzendingen langs met</t>
+  </si>
+  <si>
+    <t>dit is af te breken door kort twee keer op de bovenste drukknop te drukken</t>
+  </si>
+  <si>
+    <t>kom van dat dak af hee zwarte piet</t>
+  </si>
+  <si>
+    <t>dat kan per sectie anders zijn of per groepen maar je moet het wel in beeld hebben</t>
+  </si>
+  <si>
+    <t>of nieuwe partij of een lokale partij</t>
+  </si>
+  <si>
+    <t>van het studieprogramma juist ook om ervoor te zorgen dat kandidaten die in deze tijd priester of</t>
+  </si>
+  <si>
+    <t>als ik weet wat de korting is kan ik namelijk uitrekenen of ik al genoeg gespaard heb om het product te gaan kopen</t>
+  </si>
+  <si>
+    <t>met hepatitis c of leveraandoeningen</t>
+  </si>
+  <si>
+    <t>je moet wel alles eruit halen wat erin zit en dat heeft hij ook</t>
+  </si>
+  <si>
+    <t>sommige dingen hebben we wel halverwege nog een beetje aangepast om dat dat</t>
+  </si>
+  <si>
+    <t>dank u wel</t>
+  </si>
+  <si>
+    <t>dan ergens anders in neurenberg maar ik vind het wel leuk om een keer aan</t>
+  </si>
+  <si>
+    <t>we hebben gekeken naar de beperkingen die misschien wel wat extra hulp nodig hadden</t>
+  </si>
+  <si>
+    <t>als je het goed vindt dan geef ik nog even voor de kijkers aan wat de opzet is voor deze middag ik zet mn bril nog even op</t>
+  </si>
+  <si>
+    <t>en toen ging ik lekker in het café schrijven en dat doet me heel goed ja</t>
+  </si>
+  <si>
+    <t>werkveld waar alle docenten bezig zijn om hun kinderen zo goed mogelijk</t>
+  </si>
+  <si>
+    <t>daar staat heel goed in wat we straks niet meer mogen doen</t>
+  </si>
+  <si>
+    <t>als je een goed proces in gaat en je neemt de tijd om het te ontwikkelen</t>
+  </si>
+  <si>
+    <t>moeten heel dichtbij komen heel veel mensen ze moet er heel diep in de portemonnee gaan voelen</t>
+  </si>
+  <si>
+    <t>als je bij ons de afdeling wilt komen werken dan moet je in ieder geval willen winnen</t>
+  </si>
+  <si>
+    <t>we komen onze eigen belofte niet na u krijgt maar een halve bonus</t>
+  </si>
+  <si>
+    <t>er komen veel mensen bij ons in huis bij burn out poli met angst zeker het afgelopen</t>
+  </si>
+  <si>
+    <t>dat wordt heel goed bezocht er komen echt grote groepen mensen op af</t>
   </si>
   <si>
     <t>dus ik vroeg me af of dat wel goed zou komen</t>
   </si>
   <si>
-    <t>weer opnieuw een mooie candle en hier zien we dus die prachtige uitbraak richting dus twintigduizend</t>
-  </si>
-  <si>
-    <t>dus zoals gezegd het papenhof is één van de mooie parken hier in de stad</t>
-  </si>
-  <si>
-    <t>minieme belegging is bewijs spreken en milieu ja dan ga je daar toch anders mee om ja en dan heb je</t>
-  </si>
-  <si>
-    <t>ja de laatste voorzitter</t>
-  </si>
-  <si>
-    <t>om de taken te kunnen financieren en er werden geschriften voor de diensten gebruikt niet alles</t>
-  </si>
-  <si>
-    <t>wat brugge afbreken omdat er geen budget</t>
-  </si>
-  <si>
-    <t>voorzitter vandaag zijn de financiële beschouwingen en dan gaat het natuurlijk over geld maar ten</t>
-  </si>
-  <si>
-    <t>secundaire arbeidsvoorwaarden moeten goed zijn je moet samen activiteiten doen</t>
-  </si>
-  <si>
-    <t>het brengt heel vaak ook veel goede dingen dat gaan we nog meer horen</t>
-  </si>
-  <si>
-    <t>maar zo veel mogelijk zelf wil uitbesteden</t>
-  </si>
-  <si>
-    <t>nee zo zeg ik tegen de heer dijkhoff als wij signalen krijgen van mensen die zeggen het gaat uit</t>
+    <t>bij opkomen zeg maar en dus de zijn ze zijn niet bemand dat hij het ook geen auto overheen viaduct</t>
+  </si>
+  <si>
+    <t>nietessentiële reizen worden afgeraden dit is geen bindend reisadvies dus je</t>
+  </si>
+  <si>
+    <t>af dus in die situatie waren de mensen die naar uw mening kregen maar ik niet konden betalen en die</t>
+  </si>
+  <si>
+    <t>en dus dan krijgen dus laten zeggen</t>
+  </si>
+  <si>
+    <t>maar ook wordt vernietigd en dus moeten we daar rekening mee houden</t>
+  </si>
+  <si>
+    <t>lezen eigenlijk je geniet van ja de ochtend het ontbijt</t>
+  </si>
+  <si>
+    <t>hij is nu groen ja dus rij maar een stukje vooruit</t>
+  </si>
+  <si>
+    <t>ja incasseringsvermogen</t>
+  </si>
+  <si>
+    <t>en ja dat het gewoon allemaal niet goed gaat en dat we er echt allemaal bij stil</t>
+  </si>
+  <si>
+    <t>hebben waarvan de zijden ja die markt die trekt aan de aandelenmarkt trek kamer om het te zien we</t>
+  </si>
+  <si>
+    <t>leeftijd die ik om mijn sea en niet toe dat het gezicht aan super bewust van zijn er is niet dat</t>
+  </si>
+  <si>
+    <t>ik kijk even rond in de raad of er nog op dit punt anderen zijn dat is meneer hofstra</t>
+  </si>
+  <si>
+    <t>er zien dat er steeds meer geld richting goud en zilver vloeit en dat zien de</t>
+  </si>
+  <si>
+    <t>en u heeft dorst of je hebt honger dan is er hier meer dan genoeg aan brasseries en restaurants</t>
+  </si>
+  <si>
+    <t>ik vond hem er wat vriendelijker uitzien dan ik had verwacht</t>
+  </si>
+  <si>
+    <t>uiteindelijk zijn loop krijgt</t>
+  </si>
+  <si>
+    <t>allereerst zijn we natuurlijk een accountantskantoor maar daarnaast geven</t>
+  </si>
+  <si>
+    <t>als er andere mensen bij zijn</t>
+  </si>
+  <si>
+    <t>overal in het station zijn tal van schermen met informatie over vertrekkende treinen</t>
+  </si>
+  <si>
+    <t>omdat die teams die zijn dat van nature niet gewend om dat te doen</t>
+  </si>
+  <si>
+    <t>maar ze gingen wel met heel veel positieve energie</t>
+  </si>
+  <si>
+    <t>er zijn heel veel kantoorruimtes verdeeld over het land zul je zien dat er steeds</t>
+  </si>
+  <si>
+    <t>dus je krijgt eigenlijk heel veel informatie door het jaar heen ja</t>
+  </si>
+  <si>
+    <t>meer kneedbaar veel meer toegankelijk en jij kan er mee aan de slag op een manier dat jij ermee aan de slag wíl</t>
+  </si>
+  <si>
+    <t>ja heel veel eigenlijk te veel vertel eens wat wat zijn je hobbys</t>
+  </si>
+  <si>
+    <t>mij zeg voor mensen in een rolstoel voor andere type handicaps is</t>
+  </si>
+  <si>
+    <t>Imj3JLDlIZE</t>
+  </si>
+  <si>
+    <t>mgH9ulHIsd8</t>
+  </si>
+  <si>
+    <t>miouy02UT58</t>
+  </si>
+  <si>
+    <t>MNCyjl4jaxY</t>
+  </si>
+  <si>
+    <t>QAjt9liE_a4</t>
+  </si>
+  <si>
+    <t>1r9RSVe90xI</t>
+  </si>
+  <si>
+    <t>EZMgSCfbiGs</t>
+  </si>
+  <si>
+    <t>P2rFpOB6ZKI</t>
+  </si>
+  <si>
+    <t>vfNcRSsv_5g</t>
+  </si>
+  <si>
+    <t>Yrh7Bmlq7uA</t>
+  </si>
+  <si>
+    <t>zgdAEBSgTTk</t>
+  </si>
+  <si>
+    <t>EmxRrMXp3UY</t>
+  </si>
+  <si>
+    <t>plOs9Rlvsig</t>
+  </si>
+  <si>
+    <t>TXprEFB2urU</t>
+  </si>
+  <si>
+    <t>WB2jYe9y_Lk</t>
+  </si>
+  <si>
+    <t>COlIItbPopY</t>
+  </si>
+  <si>
+    <t>robgEk58nx4</t>
+  </si>
+  <si>
+    <t>3qFeoZQwQtw</t>
+  </si>
+  <si>
+    <t>9uOFhXkzEQQ</t>
+  </si>
+  <si>
+    <t>mdNyTqKmEMs</t>
+  </si>
+  <si>
+    <t>6EcMZtA1EKs</t>
+  </si>
+  <si>
+    <t>hZlJt9CRSn4</t>
+  </si>
+  <si>
+    <t>TvZ_IRJyp40</t>
+  </si>
+  <si>
+    <t>AXQBbFhcRvw</t>
+  </si>
+  <si>
+    <t>Tkcyx1tI3EE</t>
+  </si>
+  <si>
+    <t>dn0j8bcHoII</t>
+  </si>
+  <si>
+    <t>lApJy0bJNk0</t>
+  </si>
+  <si>
+    <t>zmweL9DediI</t>
+  </si>
+  <si>
+    <t>JuAk7ch3vHI</t>
+  </si>
+  <si>
+    <t>P9u2BkJamhg</t>
+  </si>
+  <si>
+    <t>dIevT4Gkov4</t>
+  </si>
+  <si>
+    <t>gKvIVk9KP2c</t>
+  </si>
+  <si>
+    <t>fPzfhneNmcc</t>
+  </si>
+  <si>
+    <t>RHT10hMwKMY</t>
+  </si>
+  <si>
+    <t>JUQTVKIBFns</t>
+  </si>
+  <si>
+    <t>Q-8I-uMUMYA</t>
+  </si>
+  <si>
+    <t>uN97AqTW4Mw</t>
+  </si>
+  <si>
+    <t>AFi3OjLEqDg</t>
+  </si>
+  <si>
+    <t>WpLsRtnfzuo</t>
+  </si>
+  <si>
+    <t>Y2u22naXMJU</t>
+  </si>
+  <si>
+    <t>zb9mrqt8ZUw</t>
+  </si>
+  <si>
+    <t>fs9Vcsy3h7Q</t>
+  </si>
+  <si>
+    <t>2Ckh4LjX38g</t>
+  </si>
+  <si>
+    <t>k1up2KLkuaM</t>
+  </si>
+  <si>
+    <t>JRhFqrIDklA</t>
+  </si>
+  <si>
+    <t>bzYTCisoPCk</t>
+  </si>
+  <si>
+    <t>hXMn1yLeCzU</t>
+  </si>
+  <si>
+    <t>8qTFcL1LClI</t>
+  </si>
+  <si>
+    <t>httogT63gE0</t>
+  </si>
+  <si>
+    <t>qpTps9jjTHs</t>
+  </si>
+  <si>
+    <t>t35fwDbZyiQ</t>
+  </si>
+  <si>
+    <t>3EtUTpXWCKI</t>
+  </si>
+  <si>
+    <t>jbcojw0HKYU</t>
+  </si>
+  <si>
+    <t>WlJ12LESGP0</t>
+  </si>
+  <si>
+    <t>8M969UpmN_s</t>
+  </si>
+  <si>
+    <t>ldFpIdQPQb4</t>
+  </si>
+  <si>
+    <t>Ewyhf2C7Z50</t>
+  </si>
+  <si>
+    <t>4pJ1agAJnkg</t>
+  </si>
+  <si>
+    <t>BeWGEED5vdU</t>
+  </si>
+  <si>
+    <t>73EiZCbh29c</t>
+  </si>
+  <si>
+    <t>wb9hFg11aHE</t>
+  </si>
+  <si>
+    <t>LdGAIw6dg3U</t>
+  </si>
+  <si>
+    <t>iOl9vutUDFM</t>
   </si>
   <si>
     <t>HNqNQNMXio4</t>
   </si>
   <si>
-    <t>18QgUSnRjxo</t>
-  </si>
-  <si>
-    <t>g01V_H0TU8o</t>
+    <t>n49WNtcDAMo</t>
+  </si>
+  <si>
+    <t>zpvcP46jzF4</t>
+  </si>
+  <si>
+    <t>xKNDkrAQ3iM</t>
+  </si>
+  <si>
+    <t>qFmXQ000zP0</t>
+  </si>
+  <si>
+    <t>71PKVXuCQj8</t>
+  </si>
+  <si>
+    <t>8oxf7nVWqIE</t>
+  </si>
+  <si>
+    <t>ufi_jKz5Ds4</t>
+  </si>
+  <si>
+    <t>B2cCnRVFU9g</t>
+  </si>
+  <si>
+    <t>OPIgxnSYfgQ</t>
+  </si>
+  <si>
+    <t>KFkJCia8L5M</t>
+  </si>
+  <si>
+    <t>EnSZyvxgPqA</t>
+  </si>
+  <si>
+    <t>XRBb17aWENc</t>
+  </si>
+  <si>
+    <t>UmrKOEpAOjo</t>
+  </si>
+  <si>
+    <t>UbIX71sXnSY</t>
+  </si>
+  <si>
+    <t>6cLyrvpM1hg</t>
+  </si>
+  <si>
+    <t>3TI4Ce_ckO0</t>
+  </si>
+  <si>
+    <t>J63OIhyV6T0</t>
+  </si>
+  <si>
+    <t>HSvcc0uNxQ4</t>
+  </si>
+  <si>
+    <t>3Nj4Kvd5zAI</t>
+  </si>
+  <si>
+    <t>GP9vbMkEKdI</t>
+  </si>
+  <si>
+    <t>ujhJfqOxD_g</t>
+  </si>
+  <si>
+    <t>UH5OpEpuBCA</t>
+  </si>
+  <si>
+    <t>_oGvpbjsJk0</t>
+  </si>
+  <si>
+    <t>24EWdb4zZv4</t>
+  </si>
+  <si>
+    <t>biKaNGgB3H8</t>
+  </si>
+  <si>
+    <t>cvsjmYm1mAE</t>
+  </si>
+  <si>
+    <t>R8S7DB_ZaVU</t>
+  </si>
+  <si>
+    <t>ufQenq834F4</t>
+  </si>
+  <si>
+    <t>olV0Z7BJ3XE</t>
   </si>
   <si>
     <t>6QhQ4GVUhmI</t>
   </si>
   <si>
-    <t>QAjt9liE_a4</t>
-  </si>
-  <si>
-    <t>biKaNGgB3H8</t>
-  </si>
-  <si>
-    <t>JRhFqrIDklA</t>
-  </si>
-  <si>
-    <t>9uOFhXkzEQQ</t>
-  </si>
-  <si>
-    <t>vwUaEiSxeko</t>
-  </si>
-  <si>
-    <t>zbmcJiZ5fno</t>
-  </si>
-  <si>
-    <t>LmFZFyWx8Gc</t>
-  </si>
-  <si>
-    <t>mdNyTqKmEMs</t>
-  </si>
-  <si>
-    <t>aky6sGXP8fE</t>
-  </si>
-  <si>
-    <t>JUQTVKIBFns</t>
-  </si>
-  <si>
-    <t>Q-8I-uMUMYA</t>
-  </si>
-  <si>
-    <t>A0Fij7grUvs</t>
-  </si>
-  <si>
-    <t>AaVi4igmpYQ</t>
-  </si>
-  <si>
-    <t>6b2CjjmooDA</t>
-  </si>
-  <si>
-    <t>dMd0RQ5lGYE</t>
-  </si>
-  <si>
-    <t>txs2EeEypQk</t>
-  </si>
-  <si>
-    <t>k1up2KLkuaM</t>
-  </si>
-  <si>
-    <t>LyPygt9GFlk</t>
-  </si>
-  <si>
-    <t>2Ckh4LjX38g</t>
+    <t>TPRxRe8p2H0</t>
+  </si>
+  <si>
+    <t>nFJ1QkFC088</t>
+  </si>
+  <si>
+    <t>hQMLSrwC2Tg</t>
+  </si>
+  <si>
+    <t>UltPsmBVTV0</t>
+  </si>
+  <si>
+    <t>kcGQpH_YE9I</t>
+  </si>
+  <si>
+    <t>PPEVhlDaJlg</t>
+  </si>
+  <si>
+    <t>loL9z89lf28</t>
+  </si>
+  <si>
+    <t>MFy7CJfATmA</t>
+  </si>
+  <si>
+    <t>xdzB8v6JcOA</t>
+  </si>
+  <si>
+    <t>z83TmA9J618</t>
+  </si>
+  <si>
+    <t>F3DzUvWohpA</t>
+  </si>
+  <si>
+    <t>QMWx_rVnlwU</t>
   </si>
   <si>
     <t>uJhEbO42qRo</t>
   </si>
   <si>
-    <t>l_1T3uIi4sc</t>
-  </si>
-  <si>
-    <t>4X7rfCia4yI</t>
-  </si>
-  <si>
-    <t>RV_22SjePOY</t>
-  </si>
-  <si>
-    <t>_ZAvJpr0xjk</t>
-  </si>
-  <si>
-    <t>K6lyGqxN5Uw</t>
-  </si>
-  <si>
-    <t>7SZgZ8ubuuE</t>
-  </si>
-  <si>
-    <t>4n6Edzd6LoA</t>
-  </si>
-  <si>
-    <t>4aCdvnELXGQ</t>
-  </si>
-  <si>
-    <t>COlIItbPopY</t>
-  </si>
-  <si>
-    <t>OPIgxnSYfgQ</t>
-  </si>
-  <si>
-    <t>MsqekqLZq5M</t>
-  </si>
-  <si>
-    <t>O1MO3NjngNk</t>
-  </si>
-  <si>
-    <t>0dI_EMaZG94</t>
-  </si>
-  <si>
-    <t>iLJg6UP0y_8</t>
-  </si>
-  <si>
-    <t>jUUQNc8_5T0</t>
-  </si>
-  <si>
-    <t>vnbjQq2DZpg</t>
-  </si>
-  <si>
-    <t>ZWsp0zoZJCM</t>
-  </si>
-  <si>
-    <t>s1Iy1dpIyIA</t>
-  </si>
-  <si>
-    <t>Co4vE_sSnZM</t>
-  </si>
-  <si>
-    <t>UltPsmBVTV0</t>
-  </si>
-  <si>
-    <t>po3SMpTUHow</t>
-  </si>
-  <si>
-    <t>6aNez9olqMU</t>
-  </si>
-  <si>
-    <t>NITqK_fKv5o</t>
-  </si>
-  <si>
-    <t>gK0_yZDGIgw</t>
-  </si>
-  <si>
-    <t>R4Q1cNbNKU0</t>
-  </si>
-  <si>
-    <t>b9krUZxyRxc</t>
-  </si>
-  <si>
-    <t>t35fwDbZyiQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HNqNQNMXio4&amp;t=90s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=18QgUSnRjxo&amp;t=315s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=g01V_H0TU8o&amp;t=932s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6QhQ4GVUhmI&amp;t=1539s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QAjt9liE_a4&amp;t=17842s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=biKaNGgB3H8&amp;t=1857s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JRhFqrIDklA&amp;t=5264s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=23845s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vwUaEiSxeko&amp;t=857s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zbmcJiZ5fno&amp;t=577s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LmFZFyWx8Gc&amp;t=120s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QAjt9liE_a4&amp;t=10713s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mdNyTqKmEMs&amp;t=6081s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aky6sGXP8fE&amp;t=104s</t>
+    <t>OZYwsdRH2Qg</t>
+  </si>
+  <si>
+    <t>ZJeXekMsQOU</t>
+  </si>
+  <si>
+    <t>oC2lalTIU5U</t>
+  </si>
+  <si>
+    <t>7cfypoXRR4U</t>
+  </si>
+  <si>
+    <t>qC9tws_Li_o</t>
+  </si>
+  <si>
+    <t>znl_LpOcfVw</t>
+  </si>
+  <si>
+    <t>OqiXdNT9R8Y</t>
+  </si>
+  <si>
+    <t>Pu4gkfBQpjk</t>
+  </si>
+  <si>
+    <t>pruDyt__jYs</t>
+  </si>
+  <si>
+    <t>tfzC9AvItfg</t>
+  </si>
+  <si>
+    <t>1KaoCu5SII8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Imj3JLDlIZE&amp;t=376s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mgH9ulHIsd8&amp;t=60s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=miouy02UT58&amp;t=612s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MNCyjl4jaxY&amp;t=296s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QAjt9liE_a4&amp;t=9634s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1r9RSVe90xI&amp;t=2970s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EZMgSCfbiGs&amp;t=813s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P2rFpOB6ZKI&amp;t=727s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vfNcRSsv_5g&amp;t=107s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yrh7Bmlq7uA&amp;t=1558s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zgdAEBSgTTk&amp;t=39s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EmxRrMXp3UY&amp;t=4974s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=plOs9Rlvsig&amp;t=2335s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TXprEFB2urU&amp;t=34s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WB2jYe9y_Lk&amp;t=4813s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=COlIItbPopY&amp;t=585s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=robgEk58nx4&amp;t=2007s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3qFeoZQwQtw&amp;t=1353s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=19660s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mdNyTqKmEMs&amp;t=5037s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6EcMZtA1EKs&amp;t=620s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hZlJt9CRSn4&amp;t=332s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TvZ_IRJyp40&amp;t=385s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AXQBbFhcRvw&amp;t=45s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tkcyx1tI3EE&amp;t=97s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dn0j8bcHoII&amp;t=392s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lApJy0bJNk0&amp;t=7908s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zmweL9DediI&amp;t=321s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JuAk7ch3vHI&amp;t=14s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P9u2BkJamhg&amp;t=858s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dIevT4Gkov4&amp;t=30s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mdNyTqKmEMs&amp;t=10298s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gKvIVk9KP2c&amp;t=382s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fPzfhneNmcc&amp;t=2083s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RHT10hMwKMY&amp;t=387s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JUQTVKIBFns&amp;t=141s</t>
@@ -505,130 +1003,301 @@
     <t>https://www.youtube.com/watch?v=Q-8I-uMUMYA&amp;t=0s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=A0Fij7grUvs&amp;t=2592s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AaVi4igmpYQ&amp;t=818s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6b2CjjmooDA&amp;t=2393s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dMd0RQ5lGYE&amp;t=184s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=txs2EeEypQk&amp;t=2321s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k1up2KLkuaM&amp;t=15553s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LyPygt9GFlk&amp;t=378s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2Ckh4LjX38g&amp;t=2270s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uJhEbO42qRo&amp;t=2010s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=l_1T3uIi4sc&amp;t=451s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4X7rfCia4yI&amp;t=850s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RV_22SjePOY&amp;t=756s</t>
+    <t>https://www.youtube.com/watch?v=uN97AqTW4Mw&amp;t=708s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFi3OjLEqDg&amp;t=17s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WpLsRtnfzuo&amp;t=235s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y2u22naXMJU&amp;t=89s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zb9mrqt8ZUw&amp;t=64s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fs9Vcsy3h7Q&amp;t=258s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2Ckh4LjX38g&amp;t=2079s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zb9mrqt8ZUw&amp;t=322s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EZMgSCfbiGs&amp;t=5351s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k1up2KLkuaM&amp;t=3928s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k1up2KLkuaM&amp;t=844s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2Ckh4LjX38g&amp;t=4304s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JRhFqrIDklA&amp;t=8217s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bzYTCisoPCk&amp;t=14s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hXMn1yLeCzU&amp;t=3162s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8qTFcL1LClI&amp;t=53s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=httogT63gE0&amp;t=361s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qpTps9jjTHs&amp;t=209s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t35fwDbZyiQ&amp;t=3404s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3EtUTpXWCKI&amp;t=416s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jbcojw0HKYU&amp;t=42s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WlJ12LESGP0&amp;t=1151s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8M969UpmN_s&amp;t=81s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ldFpIdQPQb4&amp;t=95s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=8217s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ewyhf2C7Z50&amp;t=957s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4pJ1agAJnkg&amp;t=1014s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BeWGEED5vdU&amp;t=89s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73EiZCbh29c&amp;t=1457s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wb9hFg11aHE&amp;t=54s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JUQTVKIBFns&amp;t=167s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=_ZAvJpr0xjk&amp;t=278s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=K6lyGqxN5Uw&amp;t=1842s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7SZgZ8ubuuE&amp;t=273s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4n6Edzd6LoA&amp;t=98s</t>
+    <t>https://www.youtube.com/watch?v=LdGAIw6dg3U&amp;t=1230s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iOl9vutUDFM&amp;t=363s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HNqNQNMXio4&amp;t=1174s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n49WNtcDAMo&amp;t=337s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zpvcP46jzF4&amp;t=120s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xKNDkrAQ3iM&amp;t=1122s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=19080s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qFmXQ000zP0&amp;t=4569s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=71PKVXuCQj8&amp;t=1702s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8oxf7nVWqIE&amp;t=688s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JUQTVKIBFns&amp;t=332s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=4aCdvnELXGQ&amp;t=137s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=COlIItbPopY&amp;t=1227s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OPIgxnSYfgQ&amp;t=14s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsqekqLZq5M&amp;t=133s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=O1MO3NjngNk&amp;t=95s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0dI_EMaZG94&amp;t=61s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iLJg6UP0y_8&amp;t=3383s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jUUQNc8_5T0&amp;t=984s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vnbjQq2DZpg&amp;t=2451s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZWsp0zoZJCM&amp;t=3349s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s1Iy1dpIyIA&amp;t=315s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Co4vE_sSnZM&amp;t=4836s</t>
+    <t>https://www.youtube.com/watch?v=lApJy0bJNk0&amp;t=2438s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=8042s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ufi_jKz5Ds4&amp;t=594s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B2cCnRVFU9g&amp;t=737s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OPIgxnSYfgQ&amp;t=75s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KFkJCia8L5M&amp;t=3158s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EnSZyvxgPqA&amp;t=2521s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XRBb17aWENc&amp;t=2669s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UmrKOEpAOjo&amp;t=105s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UbIX71sXnSY&amp;t=86s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6cLyrvpM1hg&amp;t=60s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3TI4Ce_ckO0&amp;t=2568s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J63OIhyV6T0&amp;t=282s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HSvcc0uNxQ4&amp;t=136s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3Nj4Kvd5zAI&amp;t=149s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GP9vbMkEKdI&amp;t=353s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ujhJfqOxD_g&amp;t=121s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UH5OpEpuBCA&amp;t=3506s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_oGvpbjsJk0&amp;t=446s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=24EWdb4zZv4&amp;t=827s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=biKaNGgB3H8&amp;t=268s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cvsjmYm1mAE&amp;t=79s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R8S7DB_ZaVU&amp;t=93s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ufQenq834F4&amp;t=4587s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=olV0Z7BJ3XE&amp;t=1658s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6QhQ4GVUhmI&amp;t=461s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TPRxRe8p2H0&amp;t=57s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9uOFhXkzEQQ&amp;t=3231s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nFJ1QkFC088&amp;t=0s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hQMLSrwC2Tg&amp;t=178s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=UltPsmBVTV0&amp;t=230s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=po3SMpTUHow&amp;t=1998s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6aNez9olqMU&amp;t=148s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NITqK_fKv5o&amp;t=514s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QAjt9liE_a4&amp;t=5551s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gK0_yZDGIgw&amp;t=328s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=R4Q1cNbNKU0&amp;t=9577s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k1up2KLkuaM&amp;t=9236s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=b9krUZxyRxc&amp;t=85s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t35fwDbZyiQ&amp;t=2262s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t35fwDbZyiQ&amp;t=3856s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QAjt9liE_a4&amp;t=1721s</t>
+    <t>https://www.youtube.com/watch?v=xKNDkrAQ3iM&amp;t=3861s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kcGQpH_YE9I&amp;t=107s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PPEVhlDaJlg&amp;t=1167s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=loL9z89lf28&amp;t=252s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WB2jYe9y_Lk&amp;t=2174s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MFy7CJfATmA&amp;t=303s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xdzB8v6JcOA&amp;t=581s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z83TmA9J618&amp;t=113s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F3DzUvWohpA&amp;t=567s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QMWx_rVnlwU&amp;t=1026s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yrh7Bmlq7uA&amp;t=3774s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uJhEbO42qRo&amp;t=4630s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OZYwsdRH2Qg&amp;t=1862s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZJeXekMsQOU&amp;t=185s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oC2lalTIU5U&amp;t=504s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EnSZyvxgPqA&amp;t=2475s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7cfypoXRR4U&amp;t=13s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qC9tws_Li_o&amp;t=485s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=znl_LpOcfVw&amp;t=436s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OqiXdNT9R8Y&amp;t=55s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=olV0Z7BJ3XE&amp;t=958s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pu4gkfBQpjk&amp;t=160s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pruDyt__jYs&amp;t=1162s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EZMgSCfbiGs&amp;t=5099s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tfzC9AvItfg&amp;t=286s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1KaoCu5SII8&amp;t=108s</t>
   </si>
 </sst>
 </file>
@@ -1030,19 +1699,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="C2">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1050,19 +1719,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1070,19 +1739,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1090,19 +1759,19 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>147</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1110,19 +1779,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>315</v>
+        <v>612</v>
       </c>
       <c r="C6">
-        <v>316</v>
+        <v>614</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1130,19 +1799,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C7">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1150,19 +1819,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>315</v>
+        <v>9634</v>
       </c>
       <c r="C8">
-        <v>316</v>
+        <v>9635</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>148</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1170,19 +1839,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>932</v>
+        <v>2970</v>
       </c>
       <c r="C9">
-        <v>933</v>
+        <v>2972</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>149</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1190,19 +1859,19 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>932</v>
+        <v>2970</v>
       </c>
       <c r="C10">
-        <v>933</v>
+        <v>2972</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>149</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1210,19 +1879,19 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>932</v>
+        <v>2970</v>
       </c>
       <c r="C11">
-        <v>933</v>
+        <v>2972</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>149</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1230,19 +1899,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>932</v>
+        <v>813</v>
       </c>
       <c r="C12">
-        <v>933</v>
+        <v>815</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>149</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1250,19 +1919,19 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1539</v>
+        <v>727</v>
       </c>
       <c r="C13">
-        <v>1540</v>
+        <v>729</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>150</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1270,19 +1939,19 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>1539</v>
+        <v>107</v>
       </c>
       <c r="C14">
-        <v>1540</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1290,19 +1959,19 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>1539</v>
+        <v>1558</v>
       </c>
       <c r="C15">
-        <v>1540</v>
+        <v>1560</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1310,19 +1979,19 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>17842</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>17843</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1330,19 +1999,19 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>17842</v>
+        <v>39</v>
       </c>
       <c r="C17">
-        <v>17843</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1350,19 +2019,19 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>17842</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>17843</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1370,19 +2039,19 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>17842</v>
+        <v>4974</v>
       </c>
       <c r="C19">
-        <v>17843</v>
+        <v>4975</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1390,19 +2059,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>1857</v>
+        <v>2335</v>
       </c>
       <c r="C20">
-        <v>1859</v>
+        <v>2336</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1410,19 +2079,19 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>1857</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>1859</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>152</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1430,19 +2099,19 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>1857</v>
+        <v>4813</v>
       </c>
       <c r="C22">
-        <v>1859</v>
+        <v>4815</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1450,19 +2119,19 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>5264</v>
+        <v>585</v>
       </c>
       <c r="C23">
-        <v>5265</v>
+        <v>587</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1470,19 +2139,19 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>5264</v>
+        <v>585</v>
       </c>
       <c r="C24">
-        <v>5265</v>
+        <v>587</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1490,19 +2159,19 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <v>5264</v>
+        <v>585</v>
       </c>
       <c r="C25">
-        <v>5265</v>
+        <v>587</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1510,19 +2179,19 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>5264</v>
+        <v>2007</v>
       </c>
       <c r="C26">
-        <v>5265</v>
+        <v>2009</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1530,19 +2199,19 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>23845</v>
+        <v>1353</v>
       </c>
       <c r="C27">
-        <v>23846</v>
+        <v>1355</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>154</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1550,19 +2219,19 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>23845</v>
+        <v>19660</v>
       </c>
       <c r="C28">
-        <v>23846</v>
+        <v>19662</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>154</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1570,19 +2239,19 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>23845</v>
+        <v>5037</v>
       </c>
       <c r="C29">
-        <v>23846</v>
+        <v>5039</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1590,19 +2259,19 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>857</v>
+        <v>620</v>
       </c>
       <c r="C30">
-        <v>858</v>
+        <v>621</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1610,19 +2279,19 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>857</v>
+        <v>620</v>
       </c>
       <c r="C31">
-        <v>858</v>
+        <v>621</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1630,19 +2299,19 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>857</v>
+        <v>620</v>
       </c>
       <c r="C32">
-        <v>858</v>
+        <v>621</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1650,19 +2319,19 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>857</v>
+        <v>332</v>
       </c>
       <c r="C33">
-        <v>858</v>
+        <v>333</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1670,19 +2339,19 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>577</v>
+        <v>385</v>
       </c>
       <c r="C34">
-        <v>578</v>
+        <v>387</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1690,19 +2359,19 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>577</v>
+        <v>45</v>
       </c>
       <c r="C35">
-        <v>578</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1710,19 +2379,19 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>577</v>
+        <v>97</v>
       </c>
       <c r="C36">
-        <v>578</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>156</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1730,19 +2399,19 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>120</v>
+        <v>392</v>
       </c>
       <c r="C37">
-        <v>122</v>
+        <v>393</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1750,19 +2419,19 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>120</v>
+        <v>392</v>
       </c>
       <c r="C38">
-        <v>122</v>
+        <v>393</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1770,19 +2439,19 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>392</v>
       </c>
       <c r="C39">
-        <v>122</v>
+        <v>393</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1790,19 +2459,19 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>7908</v>
       </c>
       <c r="C40">
-        <v>122</v>
+        <v>7909</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1810,19 +2479,19 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>10713</v>
+        <v>321</v>
       </c>
       <c r="C41">
-        <v>10714</v>
+        <v>323</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>158</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1830,19 +2499,19 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>10713</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>10714</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1850,19 +2519,19 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>10713</v>
+        <v>858</v>
       </c>
       <c r="C43">
-        <v>10714</v>
+        <v>860</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>158</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1870,19 +2539,19 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>6081</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>6083</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>159</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1890,19 +2559,19 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>6081</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>6083</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>159</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1910,19 +2579,19 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>6081</v>
+        <v>30</v>
       </c>
       <c r="C46">
-        <v>6083</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>159</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1930,19 +2599,19 @@
         <v>12</v>
       </c>
       <c r="B47">
-        <v>6081</v>
+        <v>10298</v>
       </c>
       <c r="C47">
-        <v>6083</v>
+        <v>10299</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1950,19 +2619,19 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="C48">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>160</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1970,19 +2639,19 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>104</v>
+        <v>2083</v>
       </c>
       <c r="C49">
-        <v>105</v>
+        <v>2085</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1990,19 +2659,19 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>104</v>
+        <v>387</v>
       </c>
       <c r="C50">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2016,13 +2685,13 @@
         <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2036,13 +2705,13 @@
         <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2056,13 +2725,13 @@
         <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2070,19 +2739,19 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="C54">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="D54" t="s">
         <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2096,13 +2765,13 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2110,19 +2779,19 @@
         <v>7</v>
       </c>
       <c r="B56">
-        <v>932</v>
+        <v>727</v>
       </c>
       <c r="C56">
-        <v>933</v>
+        <v>729</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2136,13 +2805,13 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2150,19 +2819,19 @@
         <v>8</v>
       </c>
       <c r="B58">
-        <v>1857</v>
+        <v>4813</v>
       </c>
       <c r="C58">
-        <v>1859</v>
+        <v>4815</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2176,13 +2845,13 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2190,19 +2859,19 @@
         <v>9</v>
       </c>
       <c r="B60">
-        <v>23845</v>
+        <v>5037</v>
       </c>
       <c r="C60">
-        <v>23846</v>
+        <v>5039</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2216,13 +2885,13 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2230,19 +2899,19 @@
         <v>10</v>
       </c>
       <c r="B62">
-        <v>857</v>
+        <v>332</v>
       </c>
       <c r="C62">
-        <v>858</v>
+        <v>333</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2256,13 +2925,13 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2270,19 +2939,19 @@
         <v>11</v>
       </c>
       <c r="B64">
-        <v>10713</v>
+        <v>321</v>
       </c>
       <c r="C64">
-        <v>10714</v>
+        <v>323</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>158</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2296,13 +2965,13 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2310,19 +2979,19 @@
         <v>12</v>
       </c>
       <c r="B66">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="C66">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>160</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2336,13 +3005,13 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2356,13 +3025,13 @@
         <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2376,13 +3045,13 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2390,19 +3059,19 @@
         <v>15</v>
       </c>
       <c r="B70">
-        <v>2592</v>
+        <v>708</v>
       </c>
       <c r="C70">
-        <v>2593</v>
+        <v>711</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>163</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2410,19 +3079,19 @@
         <v>15</v>
       </c>
       <c r="B71">
-        <v>2592</v>
+        <v>708</v>
       </c>
       <c r="C71">
-        <v>2593</v>
+        <v>711</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>163</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2430,19 +3099,19 @@
         <v>15</v>
       </c>
       <c r="B72">
-        <v>2592</v>
+        <v>708</v>
       </c>
       <c r="C72">
-        <v>2593</v>
+        <v>711</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>163</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2450,19 +3119,19 @@
         <v>15</v>
       </c>
       <c r="B73">
-        <v>2592</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>2593</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>163</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2470,19 +3139,19 @@
         <v>15</v>
       </c>
       <c r="B74">
-        <v>818</v>
+        <v>235</v>
       </c>
       <c r="C74">
-        <v>820</v>
+        <v>237</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>164</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2490,19 +3159,19 @@
         <v>15</v>
       </c>
       <c r="B75">
-        <v>818</v>
+        <v>89</v>
       </c>
       <c r="C75">
-        <v>820</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>164</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2510,19 +3179,19 @@
         <v>15</v>
       </c>
       <c r="B76">
-        <v>818</v>
+        <v>64</v>
       </c>
       <c r="C76">
-        <v>820</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>164</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2530,19 +3199,19 @@
         <v>16</v>
       </c>
       <c r="B77">
-        <v>2393</v>
+        <v>258</v>
       </c>
       <c r="C77">
-        <v>2395</v>
+        <v>260</v>
       </c>
       <c r="D77" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2550,19 +3219,19 @@
         <v>16</v>
       </c>
       <c r="B78">
-        <v>2393</v>
+        <v>258</v>
       </c>
       <c r="C78">
-        <v>2395</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2570,19 +3239,19 @@
         <v>16</v>
       </c>
       <c r="B79">
-        <v>2393</v>
+        <v>258</v>
       </c>
       <c r="C79">
-        <v>2395</v>
+        <v>260</v>
       </c>
       <c r="D79" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2590,19 +3259,19 @@
         <v>16</v>
       </c>
       <c r="B80">
-        <v>2393</v>
+        <v>2079</v>
       </c>
       <c r="C80">
-        <v>2395</v>
+        <v>2080</v>
       </c>
       <c r="D80" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2610,19 +3279,19 @@
         <v>16</v>
       </c>
       <c r="B81">
-        <v>184</v>
+        <v>322</v>
       </c>
       <c r="C81">
-        <v>185</v>
+        <v>324</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2630,19 +3299,19 @@
         <v>16</v>
       </c>
       <c r="B82">
-        <v>184</v>
+        <v>5351</v>
       </c>
       <c r="C82">
-        <v>185</v>
+        <v>5353</v>
       </c>
       <c r="D82" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2650,19 +3319,19 @@
         <v>16</v>
       </c>
       <c r="B83">
-        <v>184</v>
+        <v>3928</v>
       </c>
       <c r="C83">
-        <v>185</v>
+        <v>3930</v>
       </c>
       <c r="D83" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>166</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2670,19 +3339,19 @@
         <v>17</v>
       </c>
       <c r="B84">
-        <v>2321</v>
+        <v>844</v>
       </c>
       <c r="C84">
-        <v>2322</v>
+        <v>845</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2690,19 +3359,19 @@
         <v>17</v>
       </c>
       <c r="B85">
-        <v>2321</v>
+        <v>844</v>
       </c>
       <c r="C85">
-        <v>2322</v>
+        <v>845</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E85" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2710,19 +3379,19 @@
         <v>17</v>
       </c>
       <c r="B86">
-        <v>2321</v>
+        <v>844</v>
       </c>
       <c r="C86">
-        <v>2322</v>
+        <v>845</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2730,19 +3399,19 @@
         <v>17</v>
       </c>
       <c r="B87">
-        <v>2321</v>
+        <v>4304</v>
       </c>
       <c r="C87">
-        <v>2322</v>
+        <v>4305</v>
       </c>
       <c r="D87" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>167</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2750,19 +3419,19 @@
         <v>17</v>
       </c>
       <c r="B88">
-        <v>15553</v>
+        <v>8217</v>
       </c>
       <c r="C88">
-        <v>15555</v>
+        <v>8218</v>
       </c>
       <c r="D88" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>168</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2770,19 +3439,19 @@
         <v>17</v>
       </c>
       <c r="B89">
-        <v>15553</v>
+        <v>14</v>
       </c>
       <c r="C89">
-        <v>15555</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>168</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2790,19 +3459,19 @@
         <v>17</v>
       </c>
       <c r="B90">
-        <v>15553</v>
+        <v>3162</v>
       </c>
       <c r="C90">
-        <v>15555</v>
+        <v>3164</v>
       </c>
       <c r="D90" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>168</v>
+        <v>343</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2810,19 +3479,19 @@
         <v>18</v>
       </c>
       <c r="B91">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="C91">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2830,19 +3499,19 @@
         <v>18</v>
       </c>
       <c r="B92">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="C92">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2850,19 +3519,19 @@
         <v>18</v>
       </c>
       <c r="B93">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="C93">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2870,19 +3539,19 @@
         <v>18</v>
       </c>
       <c r="B94">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C94">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D94" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E94" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>169</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2890,19 +3559,19 @@
         <v>18</v>
       </c>
       <c r="B95">
-        <v>2270</v>
+        <v>209</v>
       </c>
       <c r="C95">
-        <v>2272</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>170</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2910,19 +3579,19 @@
         <v>18</v>
       </c>
       <c r="B96">
-        <v>2270</v>
+        <v>3404</v>
       </c>
       <c r="C96">
-        <v>2272</v>
+        <v>3405</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>170</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2930,19 +3599,19 @@
         <v>18</v>
       </c>
       <c r="B97">
-        <v>2270</v>
+        <v>416</v>
       </c>
       <c r="C97">
-        <v>2272</v>
+        <v>417</v>
       </c>
       <c r="D97" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E97" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>170</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2950,19 +3619,19 @@
         <v>19</v>
       </c>
       <c r="B98">
-        <v>2010</v>
+        <v>42</v>
       </c>
       <c r="C98">
-        <v>2012</v>
+        <v>43</v>
       </c>
       <c r="D98" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E98" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2970,19 +3639,19 @@
         <v>19</v>
       </c>
       <c r="B99">
-        <v>2010</v>
+        <v>42</v>
       </c>
       <c r="C99">
-        <v>2012</v>
+        <v>43</v>
       </c>
       <c r="D99" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2990,19 +3659,19 @@
         <v>19</v>
       </c>
       <c r="B100">
-        <v>2010</v>
+        <v>42</v>
       </c>
       <c r="C100">
-        <v>2012</v>
+        <v>43</v>
       </c>
       <c r="D100" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E100" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3010,19 +3679,19 @@
         <v>19</v>
       </c>
       <c r="B101">
-        <v>2010</v>
+        <v>1151</v>
       </c>
       <c r="C101">
-        <v>2012</v>
+        <v>1152</v>
       </c>
       <c r="D101" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E101" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3030,19 +3699,19 @@
         <v>19</v>
       </c>
       <c r="B102">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="C102">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="D102" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E102" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3050,19 +3719,19 @@
         <v>19</v>
       </c>
       <c r="B103">
-        <v>451</v>
+        <v>95</v>
       </c>
       <c r="C103">
-        <v>453</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E103" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>172</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3070,19 +3739,19 @@
         <v>19</v>
       </c>
       <c r="B104">
-        <v>451</v>
+        <v>8217</v>
       </c>
       <c r="C104">
-        <v>453</v>
+        <v>8219</v>
       </c>
       <c r="D104" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E104" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>172</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3090,19 +3759,19 @@
         <v>20</v>
       </c>
       <c r="B105">
-        <v>850</v>
+        <v>957</v>
       </c>
       <c r="C105">
-        <v>851</v>
+        <v>958</v>
       </c>
       <c r="D105" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E105" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3110,19 +3779,19 @@
         <v>20</v>
       </c>
       <c r="B106">
-        <v>850</v>
+        <v>957</v>
       </c>
       <c r="C106">
-        <v>851</v>
+        <v>958</v>
       </c>
       <c r="D106" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E106" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3130,19 +3799,19 @@
         <v>20</v>
       </c>
       <c r="B107">
-        <v>850</v>
+        <v>957</v>
       </c>
       <c r="C107">
-        <v>851</v>
+        <v>958</v>
       </c>
       <c r="D107" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E107" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3150,19 +3819,19 @@
         <v>20</v>
       </c>
       <c r="B108">
-        <v>850</v>
+        <v>1014</v>
       </c>
       <c r="C108">
-        <v>851</v>
+        <v>1016</v>
       </c>
       <c r="D108" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E108" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3170,19 +3839,19 @@
         <v>20</v>
       </c>
       <c r="B109">
-        <v>756</v>
+        <v>89</v>
       </c>
       <c r="C109">
-        <v>757</v>
+        <v>90</v>
       </c>
       <c r="D109" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3190,19 +3859,19 @@
         <v>20</v>
       </c>
       <c r="B110">
-        <v>756</v>
+        <v>1457</v>
       </c>
       <c r="C110">
-        <v>757</v>
+        <v>1458</v>
       </c>
       <c r="D110" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E110" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>174</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3210,19 +3879,19 @@
         <v>20</v>
       </c>
       <c r="B111">
-        <v>756</v>
+        <v>54</v>
       </c>
       <c r="C111">
-        <v>757</v>
+        <v>56</v>
       </c>
       <c r="D111" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E111" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>174</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3236,13 +3905,13 @@
         <v>168</v>
       </c>
       <c r="D112" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E112" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>175</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3256,13 +3925,13 @@
         <v>168</v>
       </c>
       <c r="D113" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>175</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3276,13 +3945,13 @@
         <v>168</v>
       </c>
       <c r="D114" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E114" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>175</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3290,19 +3959,19 @@
         <v>15</v>
       </c>
       <c r="B115">
-        <v>818</v>
+        <v>708</v>
       </c>
       <c r="C115">
-        <v>820</v>
+        <v>711</v>
       </c>
       <c r="D115" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E115" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>164</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3316,13 +3985,13 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E116" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3330,19 +3999,19 @@
         <v>16</v>
       </c>
       <c r="B117">
-        <v>184</v>
+        <v>5351</v>
       </c>
       <c r="C117">
-        <v>185</v>
+        <v>5353</v>
       </c>
       <c r="D117" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E117" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3356,13 +4025,13 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E118" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3370,19 +4039,19 @@
         <v>17</v>
       </c>
       <c r="B119">
-        <v>2321</v>
+        <v>14</v>
       </c>
       <c r="C119">
-        <v>2322</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E119" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3396,13 +4065,13 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E120" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3410,19 +4079,19 @@
         <v>18</v>
       </c>
       <c r="B121">
-        <v>378</v>
+        <v>209</v>
       </c>
       <c r="C121">
-        <v>380</v>
+        <v>211</v>
       </c>
       <c r="D121" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E121" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>169</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3436,13 +4105,13 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E122" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3450,19 +4119,19 @@
         <v>19</v>
       </c>
       <c r="B123">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="C123">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="D123" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E123" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3476,13 +4145,13 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E124" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3490,19 +4159,19 @@
         <v>20</v>
       </c>
       <c r="B125">
-        <v>850</v>
+        <v>54</v>
       </c>
       <c r="C125">
-        <v>851</v>
+        <v>56</v>
       </c>
       <c r="D125" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E125" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>173</v>
+        <v>358</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3516,13 +4185,13 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E126" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3536,13 +4205,13 @@
         <v>168</v>
       </c>
       <c r="D127" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E127" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>175</v>
+        <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3556,13 +4225,13 @@
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E128" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3570,19 +4239,19 @@
         <v>15</v>
       </c>
       <c r="B129">
-        <v>2592</v>
+        <v>708</v>
       </c>
       <c r="C129">
-        <v>2593</v>
+        <v>711</v>
       </c>
       <c r="D129" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E129" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>163</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3590,19 +4259,19 @@
         <v>15</v>
       </c>
       <c r="B130">
-        <v>2592</v>
+        <v>708</v>
       </c>
       <c r="C130">
-        <v>2593</v>
+        <v>711</v>
       </c>
       <c r="D130" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E130" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>163</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3610,19 +4279,19 @@
         <v>15</v>
       </c>
       <c r="B131">
-        <v>2592</v>
+        <v>708</v>
       </c>
       <c r="C131">
-        <v>2593</v>
+        <v>711</v>
       </c>
       <c r="D131" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E131" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>163</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3630,19 +4299,19 @@
         <v>15</v>
       </c>
       <c r="B132">
-        <v>2592</v>
+        <v>17</v>
       </c>
       <c r="C132">
-        <v>2593</v>
+        <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E132" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>163</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3650,19 +4319,19 @@
         <v>15</v>
       </c>
       <c r="B133">
-        <v>818</v>
+        <v>235</v>
       </c>
       <c r="C133">
-        <v>820</v>
+        <v>237</v>
       </c>
       <c r="D133" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E133" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>164</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3670,19 +4339,19 @@
         <v>15</v>
       </c>
       <c r="B134">
-        <v>818</v>
+        <v>89</v>
       </c>
       <c r="C134">
-        <v>820</v>
+        <v>90</v>
       </c>
       <c r="D134" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E134" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>164</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3690,19 +4359,19 @@
         <v>15</v>
       </c>
       <c r="B135">
-        <v>818</v>
+        <v>64</v>
       </c>
       <c r="C135">
-        <v>820</v>
+        <v>66</v>
       </c>
       <c r="D135" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E135" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>164</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3710,19 +4379,19 @@
         <v>16</v>
       </c>
       <c r="B136">
-        <v>2393</v>
+        <v>258</v>
       </c>
       <c r="C136">
-        <v>2395</v>
+        <v>260</v>
       </c>
       <c r="D136" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E136" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3730,19 +4399,19 @@
         <v>16</v>
       </c>
       <c r="B137">
-        <v>2393</v>
+        <v>258</v>
       </c>
       <c r="C137">
-        <v>2395</v>
+        <v>260</v>
       </c>
       <c r="D137" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E137" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3750,19 +4419,19 @@
         <v>16</v>
       </c>
       <c r="B138">
-        <v>2393</v>
+        <v>258</v>
       </c>
       <c r="C138">
-        <v>2395</v>
+        <v>260</v>
       </c>
       <c r="D138" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E138" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3770,19 +4439,19 @@
         <v>16</v>
       </c>
       <c r="B139">
-        <v>2393</v>
+        <v>2079</v>
       </c>
       <c r="C139">
-        <v>2395</v>
+        <v>2080</v>
       </c>
       <c r="D139" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E139" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3790,19 +4459,19 @@
         <v>16</v>
       </c>
       <c r="B140">
-        <v>184</v>
+        <v>322</v>
       </c>
       <c r="C140">
-        <v>185</v>
+        <v>324</v>
       </c>
       <c r="D140" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E140" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3810,19 +4479,19 @@
         <v>16</v>
       </c>
       <c r="B141">
-        <v>184</v>
+        <v>5351</v>
       </c>
       <c r="C141">
-        <v>185</v>
+        <v>5353</v>
       </c>
       <c r="D141" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E141" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3830,19 +4499,19 @@
         <v>16</v>
       </c>
       <c r="B142">
-        <v>184</v>
+        <v>3928</v>
       </c>
       <c r="C142">
-        <v>185</v>
+        <v>3930</v>
       </c>
       <c r="D142" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E142" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>166</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3850,19 +4519,19 @@
         <v>18</v>
       </c>
       <c r="B143">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="C143">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="D143" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E143" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3870,19 +4539,19 @@
         <v>18</v>
       </c>
       <c r="B144">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="C144">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="D144" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E144" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3890,19 +4559,19 @@
         <v>18</v>
       </c>
       <c r="B145">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="C145">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="D145" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E145" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3910,19 +4579,19 @@
         <v>18</v>
       </c>
       <c r="B146">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C146">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D146" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E146" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>169</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3930,19 +4599,19 @@
         <v>18</v>
       </c>
       <c r="B147">
-        <v>2270</v>
+        <v>209</v>
       </c>
       <c r="C147">
-        <v>2272</v>
+        <v>211</v>
       </c>
       <c r="D147" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E147" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>170</v>
+        <v>346</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3950,19 +4619,19 @@
         <v>18</v>
       </c>
       <c r="B148">
-        <v>2270</v>
+        <v>3404</v>
       </c>
       <c r="C148">
-        <v>2272</v>
+        <v>3405</v>
       </c>
       <c r="D148" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E148" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>170</v>
+        <v>347</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3970,19 +4639,19 @@
         <v>18</v>
       </c>
       <c r="B149">
-        <v>2270</v>
+        <v>416</v>
       </c>
       <c r="C149">
-        <v>2272</v>
+        <v>417</v>
       </c>
       <c r="D149" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E149" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>170</v>
+        <v>348</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3990,19 +4659,19 @@
         <v>22</v>
       </c>
       <c r="B150">
-        <v>278</v>
+        <v>1230</v>
       </c>
       <c r="C150">
-        <v>280</v>
+        <v>1231</v>
       </c>
       <c r="D150" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E150" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4010,19 +4679,19 @@
         <v>22</v>
       </c>
       <c r="B151">
-        <v>278</v>
+        <v>1230</v>
       </c>
       <c r="C151">
-        <v>280</v>
+        <v>1231</v>
       </c>
       <c r="D151" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E151" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4030,19 +4699,19 @@
         <v>22</v>
       </c>
       <c r="B152">
-        <v>278</v>
+        <v>1230</v>
       </c>
       <c r="C152">
-        <v>280</v>
+        <v>1231</v>
       </c>
       <c r="D152" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E152" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4050,19 +4719,19 @@
         <v>22</v>
       </c>
       <c r="B153">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="C153">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="D153" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="E153" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>176</v>
+        <v>361</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4070,19 +4739,19 @@
         <v>22</v>
       </c>
       <c r="B154">
-        <v>1842</v>
+        <v>1174</v>
       </c>
       <c r="C154">
-        <v>1843</v>
+        <v>1176</v>
       </c>
       <c r="D154" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E154" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>177</v>
+        <v>362</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4090,19 +4759,19 @@
         <v>22</v>
       </c>
       <c r="B155">
-        <v>1842</v>
+        <v>337</v>
       </c>
       <c r="C155">
-        <v>1843</v>
+        <v>338</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E155" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>177</v>
+        <v>363</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4110,19 +4779,19 @@
         <v>22</v>
       </c>
       <c r="B156">
-        <v>1842</v>
+        <v>120</v>
       </c>
       <c r="C156">
-        <v>1843</v>
+        <v>122</v>
       </c>
       <c r="D156" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="E156" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4130,19 +4799,19 @@
         <v>20</v>
       </c>
       <c r="B157">
-        <v>850</v>
+        <v>957</v>
       </c>
       <c r="C157">
-        <v>851</v>
+        <v>958</v>
       </c>
       <c r="D157" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E157" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4150,19 +4819,19 @@
         <v>20</v>
       </c>
       <c r="B158">
-        <v>850</v>
+        <v>957</v>
       </c>
       <c r="C158">
-        <v>851</v>
+        <v>958</v>
       </c>
       <c r="D158" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E158" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4170,19 +4839,19 @@
         <v>20</v>
       </c>
       <c r="B159">
-        <v>850</v>
+        <v>957</v>
       </c>
       <c r="C159">
-        <v>851</v>
+        <v>958</v>
       </c>
       <c r="D159" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E159" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4190,19 +4859,19 @@
         <v>20</v>
       </c>
       <c r="B160">
-        <v>850</v>
+        <v>1014</v>
       </c>
       <c r="C160">
-        <v>851</v>
+        <v>1016</v>
       </c>
       <c r="D160" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E160" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4210,19 +4879,19 @@
         <v>20</v>
       </c>
       <c r="B161">
-        <v>756</v>
+        <v>89</v>
       </c>
       <c r="C161">
-        <v>757</v>
+        <v>90</v>
       </c>
       <c r="D161" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E161" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4230,19 +4899,19 @@
         <v>20</v>
       </c>
       <c r="B162">
-        <v>756</v>
+        <v>1457</v>
       </c>
       <c r="C162">
-        <v>757</v>
+        <v>1458</v>
       </c>
       <c r="D162" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E162" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>174</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4250,19 +4919,19 @@
         <v>20</v>
       </c>
       <c r="B163">
-        <v>756</v>
+        <v>54</v>
       </c>
       <c r="C163">
-        <v>757</v>
+        <v>56</v>
       </c>
       <c r="D163" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E163" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>174</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4270,19 +4939,19 @@
         <v>23</v>
       </c>
       <c r="B164">
-        <v>273</v>
+        <v>1122</v>
       </c>
       <c r="C164">
-        <v>274</v>
+        <v>1124</v>
       </c>
       <c r="D164" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="E164" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4290,19 +4959,19 @@
         <v>23</v>
       </c>
       <c r="B165">
-        <v>273</v>
+        <v>1122</v>
       </c>
       <c r="C165">
-        <v>274</v>
+        <v>1124</v>
       </c>
       <c r="D165" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="E165" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4310,19 +4979,19 @@
         <v>23</v>
       </c>
       <c r="B166">
-        <v>273</v>
+        <v>1122</v>
       </c>
       <c r="C166">
-        <v>274</v>
+        <v>1124</v>
       </c>
       <c r="D166" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="E166" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4330,19 +4999,19 @@
         <v>23</v>
       </c>
       <c r="B167">
-        <v>273</v>
+        <v>19080</v>
       </c>
       <c r="C167">
-        <v>274</v>
+        <v>19081</v>
       </c>
       <c r="D167" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="E167" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>178</v>
+        <v>366</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4350,19 +5019,19 @@
         <v>23</v>
       </c>
       <c r="B168">
-        <v>98</v>
+        <v>4569</v>
       </c>
       <c r="C168">
-        <v>100</v>
+        <v>4571</v>
       </c>
       <c r="D168" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E168" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>179</v>
+        <v>367</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4370,19 +5039,19 @@
         <v>23</v>
       </c>
       <c r="B169">
-        <v>98</v>
+        <v>1702</v>
       </c>
       <c r="C169">
-        <v>100</v>
+        <v>1703</v>
       </c>
       <c r="D169" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="E169" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>179</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4390,19 +5059,19 @@
         <v>23</v>
       </c>
       <c r="B170">
-        <v>98</v>
+        <v>688</v>
       </c>
       <c r="C170">
-        <v>100</v>
+        <v>690</v>
       </c>
       <c r="D170" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E170" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>179</v>
+        <v>369</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4416,13 +5085,13 @@
         <v>334</v>
       </c>
       <c r="D171" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E171" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4436,13 +5105,13 @@
         <v>334</v>
       </c>
       <c r="D172" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E172" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4456,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="D173" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E173" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4470,19 +5139,19 @@
         <v>15</v>
       </c>
       <c r="B174">
-        <v>818</v>
+        <v>17</v>
       </c>
       <c r="C174">
-        <v>820</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E174" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>164</v>
+        <v>330</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4496,13 +5165,13 @@
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E175" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4510,19 +5179,19 @@
         <v>16</v>
       </c>
       <c r="B176">
-        <v>184</v>
+        <v>2079</v>
       </c>
       <c r="C176">
-        <v>185</v>
+        <v>2080</v>
       </c>
       <c r="D176" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E176" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>166</v>
+        <v>335</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4536,13 +5205,13 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E177" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4550,19 +5219,19 @@
         <v>18</v>
       </c>
       <c r="B178">
-        <v>2270</v>
+        <v>209</v>
       </c>
       <c r="C178">
-        <v>2272</v>
+        <v>211</v>
       </c>
       <c r="D178" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E178" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>170</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4576,13 +5245,13 @@
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E179" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4590,19 +5259,19 @@
         <v>22</v>
       </c>
       <c r="B180">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="C180">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="D180" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="E180" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4616,13 +5285,13 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E181" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4630,19 +5299,19 @@
         <v>20</v>
       </c>
       <c r="B182">
-        <v>850</v>
+        <v>1014</v>
       </c>
       <c r="C182">
-        <v>851</v>
+        <v>1016</v>
       </c>
       <c r="D182" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E182" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4656,13 +5325,13 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E183" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4670,19 +5339,19 @@
         <v>23</v>
       </c>
       <c r="B184">
-        <v>273</v>
+        <v>1122</v>
       </c>
       <c r="C184">
-        <v>274</v>
+        <v>1124</v>
       </c>
       <c r="D184" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="E184" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4696,13 +5365,13 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E185" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4716,13 +5385,13 @@
         <v>334</v>
       </c>
       <c r="D186" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E186" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4736,13 +5405,13 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E187" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4750,19 +5419,19 @@
         <v>25</v>
       </c>
       <c r="B188">
-        <v>137</v>
+        <v>2438</v>
       </c>
       <c r="C188">
-        <v>139</v>
+        <v>2439</v>
       </c>
       <c r="D188" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E188" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4770,19 +5439,19 @@
         <v>25</v>
       </c>
       <c r="B189">
-        <v>137</v>
+        <v>2438</v>
       </c>
       <c r="C189">
-        <v>139</v>
+        <v>2439</v>
       </c>
       <c r="D189" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E189" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4790,19 +5459,19 @@
         <v>25</v>
       </c>
       <c r="B190">
-        <v>137</v>
+        <v>2438</v>
       </c>
       <c r="C190">
-        <v>139</v>
+        <v>2439</v>
       </c>
       <c r="D190" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E190" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4810,19 +5479,19 @@
         <v>25</v>
       </c>
       <c r="B191">
-        <v>137</v>
+        <v>8042</v>
       </c>
       <c r="C191">
-        <v>139</v>
+        <v>8044</v>
       </c>
       <c r="D191" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E191" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>181</v>
+        <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4830,19 +5499,19 @@
         <v>25</v>
       </c>
       <c r="B192">
-        <v>1227</v>
+        <v>594</v>
       </c>
       <c r="C192">
-        <v>1228</v>
+        <v>596</v>
       </c>
       <c r="D192" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="E192" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>182</v>
+        <v>373</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4850,19 +5519,19 @@
         <v>25</v>
       </c>
       <c r="B193">
-        <v>1227</v>
+        <v>737</v>
       </c>
       <c r="C193">
-        <v>1228</v>
+        <v>738</v>
       </c>
       <c r="D193" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E193" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>182</v>
+        <v>374</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4870,19 +5539,19 @@
         <v>25</v>
       </c>
       <c r="B194">
-        <v>1227</v>
+        <v>75</v>
       </c>
       <c r="C194">
-        <v>1228</v>
+        <v>77</v>
       </c>
       <c r="D194" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E194" t="s">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>182</v>
+        <v>375</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4890,19 +5559,19 @@
         <v>26</v>
       </c>
       <c r="B195">
-        <v>14</v>
+        <v>3158</v>
       </c>
       <c r="C195">
-        <v>15</v>
+        <v>3160</v>
       </c>
       <c r="D195" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="E195" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>183</v>
+        <v>376</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4910,19 +5579,19 @@
         <v>26</v>
       </c>
       <c r="B196">
-        <v>14</v>
+        <v>3158</v>
       </c>
       <c r="C196">
-        <v>15</v>
+        <v>3160</v>
       </c>
       <c r="D196" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="E196" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>183</v>
+        <v>376</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4930,19 +5599,19 @@
         <v>26</v>
       </c>
       <c r="B197">
-        <v>14</v>
+        <v>3158</v>
       </c>
       <c r="C197">
-        <v>15</v>
+        <v>3160</v>
       </c>
       <c r="D197" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="E197" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>183</v>
+        <v>376</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4950,19 +5619,19 @@
         <v>26</v>
       </c>
       <c r="B198">
-        <v>14</v>
+        <v>2521</v>
       </c>
       <c r="C198">
-        <v>15</v>
+        <v>2522</v>
       </c>
       <c r="D198" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E198" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>183</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4970,19 +5639,19 @@
         <v>26</v>
       </c>
       <c r="B199">
-        <v>133</v>
+        <v>2669</v>
       </c>
       <c r="C199">
-        <v>135</v>
+        <v>2671</v>
       </c>
       <c r="D199" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E199" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>184</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4990,19 +5659,19 @@
         <v>26</v>
       </c>
       <c r="B200">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C200">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D200" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E200" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>184</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5010,19 +5679,19 @@
         <v>26</v>
       </c>
       <c r="B201">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="C201">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D201" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E201" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>184</v>
+        <v>380</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5030,19 +5699,19 @@
         <v>27</v>
       </c>
       <c r="B202">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C202">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D202" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="E202" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>185</v>
+        <v>381</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5050,19 +5719,19 @@
         <v>27</v>
       </c>
       <c r="B203">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C203">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D203" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="E203" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>185</v>
+        <v>381</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5070,19 +5739,19 @@
         <v>27</v>
       </c>
       <c r="B204">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C204">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D204" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="E204" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>185</v>
+        <v>381</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5090,19 +5759,19 @@
         <v>27</v>
       </c>
       <c r="B205">
-        <v>95</v>
+        <v>2568</v>
       </c>
       <c r="C205">
-        <v>97</v>
+        <v>2569</v>
       </c>
       <c r="D205" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="E205" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>185</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5110,19 +5779,19 @@
         <v>27</v>
       </c>
       <c r="B206">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="C206">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="D206" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="E206" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>186</v>
+        <v>383</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5130,19 +5799,19 @@
         <v>27</v>
       </c>
       <c r="B207">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C207">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="D207" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E207" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>186</v>
+        <v>384</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5150,19 +5819,19 @@
         <v>27</v>
       </c>
       <c r="B208">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C208">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D208" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E208" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>186</v>
+        <v>385</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5170,19 +5839,19 @@
         <v>9</v>
       </c>
       <c r="B209">
-        <v>5264</v>
+        <v>585</v>
       </c>
       <c r="C209">
-        <v>5265</v>
+        <v>587</v>
       </c>
       <c r="D209" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E209" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5190,19 +5859,19 @@
         <v>9</v>
       </c>
       <c r="B210">
-        <v>5264</v>
+        <v>585</v>
       </c>
       <c r="C210">
-        <v>5265</v>
+        <v>587</v>
       </c>
       <c r="D210" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E210" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5210,19 +5879,19 @@
         <v>9</v>
       </c>
       <c r="B211">
-        <v>5264</v>
+        <v>585</v>
       </c>
       <c r="C211">
-        <v>5265</v>
+        <v>587</v>
       </c>
       <c r="D211" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E211" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5230,19 +5899,19 @@
         <v>9</v>
       </c>
       <c r="B212">
-        <v>5264</v>
+        <v>2007</v>
       </c>
       <c r="C212">
-        <v>5265</v>
+        <v>2009</v>
       </c>
       <c r="D212" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E212" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5250,19 +5919,19 @@
         <v>9</v>
       </c>
       <c r="B213">
-        <v>23845</v>
+        <v>1353</v>
       </c>
       <c r="C213">
-        <v>23846</v>
+        <v>1355</v>
       </c>
       <c r="D213" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E213" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>154</v>
+        <v>309</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5270,19 +5939,19 @@
         <v>9</v>
       </c>
       <c r="B214">
-        <v>23845</v>
+        <v>19660</v>
       </c>
       <c r="C214">
-        <v>23846</v>
+        <v>19662</v>
       </c>
       <c r="D214" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E214" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>154</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5290,19 +5959,19 @@
         <v>9</v>
       </c>
       <c r="B215">
-        <v>23845</v>
+        <v>5037</v>
       </c>
       <c r="C215">
-        <v>23846</v>
+        <v>5039</v>
       </c>
       <c r="D215" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E215" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5310,19 +5979,19 @@
         <v>28</v>
       </c>
       <c r="B216">
-        <v>3383</v>
+        <v>353</v>
       </c>
       <c r="C216">
-        <v>3384</v>
+        <v>355</v>
       </c>
       <c r="D216" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E216" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>187</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5330,19 +5999,19 @@
         <v>28</v>
       </c>
       <c r="B217">
-        <v>3383</v>
+        <v>353</v>
       </c>
       <c r="C217">
-        <v>3384</v>
+        <v>355</v>
       </c>
       <c r="D217" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E217" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>187</v>
+        <v>386</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5350,19 +6019,19 @@
         <v>28</v>
       </c>
       <c r="B218">
-        <v>3383</v>
+        <v>353</v>
       </c>
       <c r="C218">
-        <v>3384</v>
+        <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E218" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>187</v>
+        <v>386</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5370,19 +6039,19 @@
         <v>28</v>
       </c>
       <c r="B219">
-        <v>3383</v>
+        <v>121</v>
       </c>
       <c r="C219">
-        <v>3384</v>
+        <v>122</v>
       </c>
       <c r="D219" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E219" t="s">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>187</v>
+        <v>387</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5390,19 +6059,19 @@
         <v>28</v>
       </c>
       <c r="B220">
-        <v>984</v>
+        <v>3506</v>
       </c>
       <c r="C220">
-        <v>986</v>
+        <v>3508</v>
       </c>
       <c r="D220" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E220" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>188</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5410,19 +6079,19 @@
         <v>28</v>
       </c>
       <c r="B221">
-        <v>984</v>
+        <v>446</v>
       </c>
       <c r="C221">
-        <v>986</v>
+        <v>448</v>
       </c>
       <c r="D221" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E221" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>188</v>
+        <v>389</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5430,19 +6099,19 @@
         <v>28</v>
       </c>
       <c r="B222">
-        <v>984</v>
+        <v>827</v>
       </c>
       <c r="C222">
-        <v>986</v>
+        <v>829</v>
       </c>
       <c r="D222" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E222" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>188</v>
+        <v>390</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5450,19 +6119,19 @@
         <v>29</v>
       </c>
       <c r="B223">
-        <v>2451</v>
+        <v>268</v>
       </c>
       <c r="C223">
-        <v>2453</v>
+        <v>269</v>
       </c>
       <c r="D223" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E223" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>189</v>
+        <v>391</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5470,19 +6139,19 @@
         <v>29</v>
       </c>
       <c r="B224">
-        <v>2451</v>
+        <v>268</v>
       </c>
       <c r="C224">
-        <v>2453</v>
+        <v>269</v>
       </c>
       <c r="D224" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E224" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>189</v>
+        <v>391</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5490,19 +6159,19 @@
         <v>29</v>
       </c>
       <c r="B225">
-        <v>2451</v>
+        <v>268</v>
       </c>
       <c r="C225">
-        <v>2453</v>
+        <v>269</v>
       </c>
       <c r="D225" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E225" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>189</v>
+        <v>391</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5510,19 +6179,19 @@
         <v>29</v>
       </c>
       <c r="B226">
-        <v>2451</v>
+        <v>79</v>
       </c>
       <c r="C226">
-        <v>2453</v>
+        <v>81</v>
       </c>
       <c r="D226" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="E226" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>189</v>
+        <v>392</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5530,19 +6199,19 @@
         <v>29</v>
       </c>
       <c r="B227">
-        <v>3349</v>
+        <v>93</v>
       </c>
       <c r="C227">
-        <v>3351</v>
+        <v>95</v>
       </c>
       <c r="D227" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E227" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>190</v>
+        <v>393</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5550,19 +6219,19 @@
         <v>29</v>
       </c>
       <c r="B228">
-        <v>3349</v>
+        <v>4587</v>
       </c>
       <c r="C228">
-        <v>3351</v>
+        <v>4589</v>
       </c>
       <c r="D228" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="E228" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>190</v>
+        <v>394</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5570,19 +6239,19 @@
         <v>29</v>
       </c>
       <c r="B229">
-        <v>3349</v>
+        <v>1658</v>
       </c>
       <c r="C229">
-        <v>3351</v>
+        <v>1659</v>
       </c>
       <c r="D229" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="E229" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>190</v>
+        <v>395</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5590,19 +6259,19 @@
         <v>8</v>
       </c>
       <c r="B230">
-        <v>17842</v>
+        <v>39</v>
       </c>
       <c r="C230">
-        <v>17843</v>
+        <v>40</v>
       </c>
       <c r="D230" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E230" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5610,19 +6279,19 @@
         <v>8</v>
       </c>
       <c r="B231">
-        <v>17842</v>
+        <v>39</v>
       </c>
       <c r="C231">
-        <v>17843</v>
+        <v>40</v>
       </c>
       <c r="D231" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E231" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5630,19 +6299,19 @@
         <v>8</v>
       </c>
       <c r="B232">
-        <v>17842</v>
+        <v>39</v>
       </c>
       <c r="C232">
-        <v>17843</v>
+        <v>40</v>
       </c>
       <c r="D232" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E232" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5650,19 +6319,19 @@
         <v>8</v>
       </c>
       <c r="B233">
-        <v>17842</v>
+        <v>4974</v>
       </c>
       <c r="C233">
-        <v>17843</v>
+        <v>4975</v>
       </c>
       <c r="D233" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E233" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5670,19 +6339,19 @@
         <v>8</v>
       </c>
       <c r="B234">
-        <v>1857</v>
+        <v>2335</v>
       </c>
       <c r="C234">
-        <v>1859</v>
+        <v>2336</v>
       </c>
       <c r="D234" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E234" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5690,19 +6359,19 @@
         <v>8</v>
       </c>
       <c r="B235">
-        <v>1857</v>
+        <v>34</v>
       </c>
       <c r="C235">
-        <v>1859</v>
+        <v>35</v>
       </c>
       <c r="D235" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E235" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>152</v>
+        <v>305</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5710,19 +6379,19 @@
         <v>8</v>
       </c>
       <c r="B236">
-        <v>1857</v>
+        <v>4813</v>
       </c>
       <c r="C236">
-        <v>1859</v>
+        <v>4815</v>
       </c>
       <c r="D236" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E236" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5730,19 +6399,19 @@
         <v>30</v>
       </c>
       <c r="B237">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="C237">
-        <v>317</v>
+        <v>462</v>
       </c>
       <c r="D237" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="E237" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>191</v>
+        <v>396</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5750,19 +6419,19 @@
         <v>30</v>
       </c>
       <c r="B238">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="C238">
-        <v>317</v>
+        <v>462</v>
       </c>
       <c r="D238" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="E238" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>191</v>
+        <v>396</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5770,19 +6439,19 @@
         <v>30</v>
       </c>
       <c r="B239">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="C239">
-        <v>317</v>
+        <v>462</v>
       </c>
       <c r="D239" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="E239" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>191</v>
+        <v>396</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5790,19 +6459,19 @@
         <v>30</v>
       </c>
       <c r="B240">
-        <v>315</v>
+        <v>57</v>
       </c>
       <c r="C240">
-        <v>317</v>
+        <v>59</v>
       </c>
       <c r="D240" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="E240" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>191</v>
+        <v>397</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5810,19 +6479,19 @@
         <v>30</v>
       </c>
       <c r="B241">
-        <v>4836</v>
+        <v>3231</v>
       </c>
       <c r="C241">
-        <v>4838</v>
+        <v>3233</v>
       </c>
       <c r="D241" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="E241" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>192</v>
+        <v>398</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5830,19 +6499,19 @@
         <v>30</v>
       </c>
       <c r="B242">
-        <v>4836</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>4838</v>
+        <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="E242" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>192</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5850,19 +6519,19 @@
         <v>30</v>
       </c>
       <c r="B243">
-        <v>4836</v>
+        <v>178</v>
       </c>
       <c r="C243">
-        <v>4838</v>
+        <v>180</v>
       </c>
       <c r="D243" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="E243" t="s">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>192</v>
+        <v>400</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5876,13 +6545,13 @@
         <v>232</v>
       </c>
       <c r="D244" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="E244" t="s">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>193</v>
+        <v>401</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5896,13 +6565,13 @@
         <v>232</v>
       </c>
       <c r="D245" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="E245" t="s">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>193</v>
+        <v>401</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5916,13 +6585,13 @@
         <v>232</v>
       </c>
       <c r="D246" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="E246" t="s">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>193</v>
+        <v>401</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5930,19 +6599,19 @@
         <v>25</v>
       </c>
       <c r="B247">
-        <v>1227</v>
+        <v>737</v>
       </c>
       <c r="C247">
-        <v>1228</v>
+        <v>738</v>
       </c>
       <c r="D247" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E247" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>182</v>
+        <v>374</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5956,13 +6625,13 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E248" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5970,19 +6639,19 @@
         <v>26</v>
       </c>
       <c r="B249">
-        <v>133</v>
+        <v>2521</v>
       </c>
       <c r="C249">
-        <v>135</v>
+        <v>2522</v>
       </c>
       <c r="D249" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="E249" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>184</v>
+        <v>377</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5996,13 +6665,13 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E250" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6010,19 +6679,19 @@
         <v>27</v>
       </c>
       <c r="B251">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C251">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="D251" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E251" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>186</v>
+        <v>384</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6036,13 +6705,13 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E252" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6050,19 +6719,19 @@
         <v>9</v>
       </c>
       <c r="B253">
-        <v>23845</v>
+        <v>1353</v>
       </c>
       <c r="C253">
-        <v>23846</v>
+        <v>1355</v>
       </c>
       <c r="D253" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E253" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>154</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6076,13 +6745,13 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E254" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6090,19 +6759,19 @@
         <v>28</v>
       </c>
       <c r="B255">
-        <v>984</v>
+        <v>353</v>
       </c>
       <c r="C255">
-        <v>986</v>
+        <v>355</v>
       </c>
       <c r="D255" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="E255" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>188</v>
+        <v>386</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6116,13 +6785,13 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E256" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6130,19 +6799,19 @@
         <v>29</v>
       </c>
       <c r="B257">
-        <v>3349</v>
+        <v>4587</v>
       </c>
       <c r="C257">
-        <v>3351</v>
+        <v>4589</v>
       </c>
       <c r="D257" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="E257" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>190</v>
+        <v>394</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6156,13 +6825,13 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E258" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6170,19 +6839,19 @@
         <v>8</v>
       </c>
       <c r="B259">
-        <v>1857</v>
+        <v>34</v>
       </c>
       <c r="C259">
-        <v>1859</v>
+        <v>35</v>
       </c>
       <c r="D259" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E259" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>152</v>
+        <v>305</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6196,13 +6865,13 @@
         <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E260" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6210,19 +6879,19 @@
         <v>30</v>
       </c>
       <c r="B261">
-        <v>4836</v>
+        <v>3231</v>
       </c>
       <c r="C261">
-        <v>4838</v>
+        <v>3233</v>
       </c>
       <c r="D261" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="E261" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>192</v>
+        <v>398</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6236,13 +6905,13 @@
         <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E262" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6256,13 +6925,13 @@
         <v>232</v>
       </c>
       <c r="D263" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="E263" t="s">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>193</v>
+        <v>401</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6276,13 +6945,13 @@
         <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E264" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6290,19 +6959,19 @@
         <v>32</v>
       </c>
       <c r="B265">
-        <v>1998</v>
+        <v>3861</v>
       </c>
       <c r="C265">
-        <v>1999</v>
+        <v>3862</v>
       </c>
       <c r="D265" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="E265" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>194</v>
+        <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6310,19 +6979,19 @@
         <v>32</v>
       </c>
       <c r="B266">
-        <v>1998</v>
+        <v>3861</v>
       </c>
       <c r="C266">
-        <v>1999</v>
+        <v>3862</v>
       </c>
       <c r="D266" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="E266" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>194</v>
+        <v>402</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6330,19 +6999,19 @@
         <v>32</v>
       </c>
       <c r="B267">
-        <v>1998</v>
+        <v>3861</v>
       </c>
       <c r="C267">
-        <v>1999</v>
+        <v>3862</v>
       </c>
       <c r="D267" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="E267" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>194</v>
+        <v>402</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6350,19 +7019,19 @@
         <v>32</v>
       </c>
       <c r="B268">
-        <v>1998</v>
+        <v>107</v>
       </c>
       <c r="C268">
-        <v>1999</v>
+        <v>109</v>
       </c>
       <c r="D268" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="E268" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>194</v>
+        <v>403</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6370,19 +7039,19 @@
         <v>32</v>
       </c>
       <c r="B269">
-        <v>148</v>
+        <v>1167</v>
       </c>
       <c r="C269">
-        <v>149</v>
+        <v>1168</v>
       </c>
       <c r="D269" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="E269" t="s">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>195</v>
+        <v>404</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6390,19 +7059,19 @@
         <v>32</v>
       </c>
       <c r="B270">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="C270">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="D270" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="E270" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>195</v>
+        <v>405</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6410,19 +7079,19 @@
         <v>32</v>
       </c>
       <c r="B271">
-        <v>148</v>
+        <v>2174</v>
       </c>
       <c r="C271">
-        <v>149</v>
+        <v>2176</v>
       </c>
       <c r="D271" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="E271" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>195</v>
+        <v>406</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6430,19 +7099,19 @@
         <v>33</v>
       </c>
       <c r="B272">
-        <v>514</v>
+        <v>303</v>
       </c>
       <c r="C272">
-        <v>515</v>
+        <v>304</v>
       </c>
       <c r="D272" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="E272" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>196</v>
+        <v>407</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6450,19 +7119,19 @@
         <v>33</v>
       </c>
       <c r="B273">
-        <v>514</v>
+        <v>303</v>
       </c>
       <c r="C273">
-        <v>515</v>
+        <v>304</v>
       </c>
       <c r="D273" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="E273" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>196</v>
+        <v>407</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6470,19 +7139,19 @@
         <v>33</v>
       </c>
       <c r="B274">
-        <v>514</v>
+        <v>303</v>
       </c>
       <c r="C274">
-        <v>515</v>
+        <v>304</v>
       </c>
       <c r="D274" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="E274" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>196</v>
+        <v>407</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6490,19 +7159,19 @@
         <v>33</v>
       </c>
       <c r="B275">
-        <v>514</v>
+        <v>581</v>
       </c>
       <c r="C275">
-        <v>515</v>
+        <v>582</v>
       </c>
       <c r="D275" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E275" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>196</v>
+        <v>408</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6510,19 +7179,19 @@
         <v>33</v>
       </c>
       <c r="B276">
-        <v>5551</v>
+        <v>113</v>
       </c>
       <c r="C276">
-        <v>5552</v>
+        <v>114</v>
       </c>
       <c r="D276" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="E276" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>197</v>
+        <v>409</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6530,19 +7199,19 @@
         <v>33</v>
       </c>
       <c r="B277">
-        <v>5551</v>
+        <v>567</v>
       </c>
       <c r="C277">
-        <v>5552</v>
+        <v>568</v>
       </c>
       <c r="D277" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="E277" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>197</v>
+        <v>410</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6550,19 +7219,19 @@
         <v>33</v>
       </c>
       <c r="B278">
-        <v>5551</v>
+        <v>1026</v>
       </c>
       <c r="C278">
-        <v>5552</v>
+        <v>1027</v>
       </c>
       <c r="D278" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="E278" t="s">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6570,19 +7239,19 @@
         <v>34</v>
       </c>
       <c r="B279">
-        <v>328</v>
+        <v>3774</v>
       </c>
       <c r="C279">
-        <v>330</v>
+        <v>3775</v>
       </c>
       <c r="D279" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="E279" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6590,19 +7259,19 @@
         <v>34</v>
       </c>
       <c r="B280">
-        <v>328</v>
+        <v>3774</v>
       </c>
       <c r="C280">
-        <v>330</v>
+        <v>3775</v>
       </c>
       <c r="D280" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="E280" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6610,19 +7279,19 @@
         <v>34</v>
       </c>
       <c r="B281">
-        <v>328</v>
+        <v>3774</v>
       </c>
       <c r="C281">
-        <v>330</v>
+        <v>3775</v>
       </c>
       <c r="D281" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="E281" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6630,19 +7299,19 @@
         <v>34</v>
       </c>
       <c r="B282">
-        <v>328</v>
+        <v>4630</v>
       </c>
       <c r="C282">
-        <v>330</v>
+        <v>4631</v>
       </c>
       <c r="D282" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="E282" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>198</v>
+        <v>413</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6650,19 +7319,19 @@
         <v>34</v>
       </c>
       <c r="B283">
-        <v>9577</v>
+        <v>1862</v>
       </c>
       <c r="C283">
-        <v>9578</v>
+        <v>1864</v>
       </c>
       <c r="D283" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="E283" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>199</v>
+        <v>414</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6670,19 +7339,19 @@
         <v>34</v>
       </c>
       <c r="B284">
-        <v>9577</v>
+        <v>185</v>
       </c>
       <c r="C284">
-        <v>9578</v>
+        <v>187</v>
       </c>
       <c r="D284" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E284" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>199</v>
+        <v>415</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6690,19 +7359,19 @@
         <v>34</v>
       </c>
       <c r="B285">
-        <v>9577</v>
+        <v>504</v>
       </c>
       <c r="C285">
-        <v>9578</v>
+        <v>505</v>
       </c>
       <c r="D285" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="E285" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>199</v>
+        <v>416</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6710,19 +7379,19 @@
         <v>35</v>
       </c>
       <c r="B286">
-        <v>9236</v>
+        <v>2475</v>
       </c>
       <c r="C286">
-        <v>9237</v>
+        <v>2476</v>
       </c>
       <c r="D286" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E286" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>200</v>
+        <v>417</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6730,19 +7399,19 @@
         <v>35</v>
       </c>
       <c r="B287">
-        <v>9236</v>
+        <v>2475</v>
       </c>
       <c r="C287">
-        <v>9237</v>
+        <v>2476</v>
       </c>
       <c r="D287" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E287" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>200</v>
+        <v>417</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6750,19 +7419,19 @@
         <v>35</v>
       </c>
       <c r="B288">
-        <v>9236</v>
+        <v>2475</v>
       </c>
       <c r="C288">
-        <v>9237</v>
+        <v>2476</v>
       </c>
       <c r="D288" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E288" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>200</v>
+        <v>417</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6770,19 +7439,19 @@
         <v>35</v>
       </c>
       <c r="B289">
-        <v>9236</v>
+        <v>13</v>
       </c>
       <c r="C289">
-        <v>9237</v>
+        <v>15</v>
       </c>
       <c r="D289" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="E289" t="s">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>200</v>
+        <v>418</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6790,19 +7459,19 @@
         <v>35</v>
       </c>
       <c r="B290">
-        <v>85</v>
+        <v>485</v>
       </c>
       <c r="C290">
-        <v>87</v>
+        <v>487</v>
       </c>
       <c r="D290" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="E290" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>201</v>
+        <v>419</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6810,19 +7479,19 @@
         <v>35</v>
       </c>
       <c r="B291">
-        <v>85</v>
+        <v>436</v>
       </c>
       <c r="C291">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="D291" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="E291" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>201</v>
+        <v>420</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6830,19 +7499,19 @@
         <v>35</v>
       </c>
       <c r="B292">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C292">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D292" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="E292" t="s">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>201</v>
+        <v>421</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6850,19 +7519,19 @@
         <v>36</v>
       </c>
       <c r="B293">
-        <v>2262</v>
+        <v>958</v>
       </c>
       <c r="C293">
-        <v>2263</v>
+        <v>959</v>
       </c>
       <c r="D293" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="E293" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>202</v>
+        <v>422</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6870,19 +7539,19 @@
         <v>36</v>
       </c>
       <c r="B294">
-        <v>2262</v>
+        <v>958</v>
       </c>
       <c r="C294">
-        <v>2263</v>
+        <v>959</v>
       </c>
       <c r="D294" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="E294" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>202</v>
+        <v>422</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6890,19 +7559,19 @@
         <v>36</v>
       </c>
       <c r="B295">
-        <v>2262</v>
+        <v>958</v>
       </c>
       <c r="C295">
-        <v>2263</v>
+        <v>959</v>
       </c>
       <c r="D295" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="E295" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>202</v>
+        <v>422</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6910,19 +7579,19 @@
         <v>36</v>
       </c>
       <c r="B296">
-        <v>2262</v>
+        <v>160</v>
       </c>
       <c r="C296">
-        <v>2263</v>
+        <v>162</v>
       </c>
       <c r="D296" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="E296" t="s">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>202</v>
+        <v>423</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6930,19 +7599,19 @@
         <v>36</v>
       </c>
       <c r="B297">
-        <v>3856</v>
+        <v>1162</v>
       </c>
       <c r="C297">
-        <v>3857</v>
+        <v>1163</v>
       </c>
       <c r="D297" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="E297" t="s">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>203</v>
+        <v>424</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6950,19 +7619,19 @@
         <v>36</v>
       </c>
       <c r="B298">
-        <v>3856</v>
+        <v>5099</v>
       </c>
       <c r="C298">
-        <v>3857</v>
+        <v>5100</v>
       </c>
       <c r="D298" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="E298" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>203</v>
+        <v>425</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6970,19 +7639,19 @@
         <v>36</v>
       </c>
       <c r="B299">
-        <v>3856</v>
+        <v>286</v>
       </c>
       <c r="C299">
-        <v>3857</v>
+        <v>288</v>
       </c>
       <c r="D299" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="E299" t="s">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>203</v>
+        <v>426</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6990,19 +7659,19 @@
         <v>37</v>
       </c>
       <c r="B300">
-        <v>1721</v>
+        <v>108</v>
       </c>
       <c r="C300">
-        <v>1722</v>
+        <v>110</v>
       </c>
       <c r="D300" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E300" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>204</v>
+        <v>427</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7010,19 +7679,19 @@
         <v>37</v>
       </c>
       <c r="B301">
-        <v>1721</v>
+        <v>108</v>
       </c>
       <c r="C301">
-        <v>1722</v>
+        <v>110</v>
       </c>
       <c r="D301" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E301" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>204</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
